--- a/reference/IN10/data_comparison_IN09.xlsx
+++ b/reference/IN10/data_comparison_IN09.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Documents\GitHub\MMB_forecast_application\reference\IN10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3E496D-9FAA-4028-969A-48588913FE3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="100" windowWidth="16610" windowHeight="5600"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_required" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="86">
   <si>
     <t>Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,193 +192,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Price Indexes of New Single-Family Houses Sold Including Lot Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.census.gov/construction/cpi/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPDNBS</t>
+  </si>
+  <si>
+    <t>FRED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nonfarm Business Sector: Implicit Price Deflator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specific</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All employees in the construction sector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Weekly Hours of Production worksers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Nonfarm Payroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRFIC1/CNP160V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNFIC1/CNP160V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCEC96/CNP160V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Employees, Total Nonfarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYEMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Employees, Construction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.census.gov/const/price_sold_cust.xls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wage inflation in housing sector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CES0500000005 (Not Found)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWHMAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USCONS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(PAYEMS - USCONS)*AWHMAN/CNP16OV  -&gt; demean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Weekly Hours of Construction worksers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CES2000000005 (Not Found)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Weekly Hours of All Employees, Construction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWHAECON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USCONS*AWHAECON/CNP16OV -&gt; demean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Weekly Hours of Production and Nonsupervisory Employees, Manufacturing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.bls.gov/timeseries/CES0500000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average hourly earnings of production and nonsupervisory employees, total private, seasonally adjusted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not in raw data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CES0500000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quaterly change of CES0500000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Hourly Earnings of Production and Nonsupervisory Employees, Construction </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CES2000000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quaterly change of CES2000000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Census Bureau House Price Index/IPDNBS</t>
+  </si>
+  <si>
     <t>https://www.census.gov/construction/nrs/pdf/price_sold.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price Indexes of New Single-Family Houses Sold Including Lot Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.census.gov/construction/cpi/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPDNBS</t>
-  </si>
-  <si>
-    <t>FRED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nonfarm Business Sector: Implicit Price Deflator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Specific</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All employees in the construction sector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average Weekly Hours of Production worksers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Nonfarm Payroll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRFIC1/CNP160V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PNFIC1/CNP160V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCEC96/CNP160V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Employees, Total Nonfarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAYEMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Employees, Construction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.census.gov/const/price_sold_cust.xls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wage inflation in housing sector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CES0500000005 (Not Found)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AWHMAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USCONS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(PAYEMS - USCONS)*AWHMAN/CNP16OV  -&gt; demean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average Weekly Hours of Construction worksers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CES2000000005 (Not Found)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average Weekly Hours of All Employees, Construction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AWHAECON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USCONS*AWHAECON/CNP16OV -&gt; demean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average Weekly Hours of Production and Nonsupervisory Employees, Manufacturing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://data.bls.gov/timeseries/CES0500000008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average hourly earnings of production and nonsupervisory employees, total private, seasonally adjusted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not in raw data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CES0500000008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quaterly change of CES0500000008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Hourly Earnings of Production and Nonsupervisory Employees, Construction </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CES2000000008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quaterly change of CES2000000008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -381,7 +389,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -390,7 +398,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -432,8 +440,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -441,12 +449,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -488,7 +499,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,9 +532,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,6 +584,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -731,20 +776,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="8.23046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.3828125" customWidth="1"/>
-    <col min="3" max="3" width="49.3046875" customWidth="1"/>
-    <col min="4" max="4" width="19.921875" customWidth="1"/>
-    <col min="5" max="5" width="15.3828125" customWidth="1"/>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.4140625" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.9140625" customWidth="1"/>
+    <col min="5" max="5" width="15.4140625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -772,7 +817,7 @@
         <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" s="2"/>
     </row>
@@ -799,12 +844,12 @@
         <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -830,7 +875,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -877,12 +922,12 @@
         <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -929,12 +974,12 @@
         <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -1033,53 +1078,56 @@
         <v>26</v>
       </c>
       <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -1108,30 +1156,30 @@
         <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
         <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
@@ -1142,22 +1190,22 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
@@ -1168,22 +1216,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
         <v>64</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>65</v>
-      </c>
-      <c r="F17" t="s">
-        <v>66</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
@@ -1212,30 +1260,30 @@
         <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
         <v>69</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
         <v>71</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" t="s">
-        <v>72</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
@@ -1264,36 +1312,36 @@
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1301,7 +1349,7 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
@@ -1316,46 +1364,46 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
         <v>82</v>
-      </c>
-      <c r="C23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" t="s">
-        <v>83</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H12" r:id="rId1"/>
-    <hyperlink ref="F12" r:id="rId2"/>
-    <hyperlink ref="D12" r:id="rId3"/>
-    <hyperlink ref="E21" r:id="rId4"/>
-    <hyperlink ref="F21" r:id="rId5"/>
+    <hyperlink ref="H12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>

--- a/reference/IN10/data_comparison_IN09.xlsx
+++ b/reference/IN10/data_comparison_IN09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Documents\GitHub\MMB_forecast_application\reference\IN10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CE24EB-DC93-430E-9316-8CADEA8F758F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4929639-024B-4D02-BB02-B82D29518787}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Obs_description" sheetId="16" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="1618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="1648">
   <si>
     <t>0.00695800000000000</t>
   </si>
@@ -4885,20 +4885,127 @@
     <t>date</t>
   </si>
   <si>
-    <t>Sheet</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Construction method</t>
+  </si>
+  <si>
+    <t>data_CC</t>
+  </si>
+  <si>
+    <t>data_DP</t>
+  </si>
+  <si>
+    <t>data_IH</t>
+  </si>
+  <si>
+    <t>data_IK</t>
+  </si>
+  <si>
+    <t>data_NC</t>
+  </si>
+  <si>
+    <t>data_NH</t>
+  </si>
+  <si>
+    <t>data_QQ</t>
+  </si>
+  <si>
+    <t>data_RR</t>
+  </si>
+  <si>
+    <t>data_WC</t>
+  </si>
+  <si>
+    <t>data_WH</t>
+  </si>
+  <si>
+    <t>Sheet Name</t>
+  </si>
+  <si>
+    <t>real residential investment</t>
+  </si>
+  <si>
+    <t>hours worked in the goods sector</t>
+  </si>
+  <si>
+    <t>hours worked in the residential sector</t>
+  </si>
+  <si>
+    <t>real business investment</t>
+  </si>
+  <si>
+    <t>real house prices</t>
+  </si>
+  <si>
+    <t>Real consumption</t>
+  </si>
+  <si>
+    <t>Nominal interest rate</t>
+  </si>
+  <si>
+    <t>Wage inflation in consumption-good setor</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wage inflation in housing sector</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inflation</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNFIC1/CNP160V</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>(PAYEMS - USCONS)*AWHMAN/CNP16OV  -&gt; demean</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>USCONS*AWHAECON/CNP16OV -&gt; demean</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Census Bureau House Price Index/IPDNBS</t>
+  </si>
+  <si>
+    <t>TB3MS</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quaterly change of CES0500000008</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quaterly change of CES2000000008</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCEC96/CNP160V</t>
+  </si>
+  <si>
+    <t>PRFIC1/CNP160V</t>
+  </si>
+  <si>
+    <t>CPIAUCSL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4925,12 +5032,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4943,9 +5053,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4D976E37-5C7C-4279-8135-9CDBE08157D4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5281,23 +5396,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D882F8E-632E-4C81-9334-59FF67DD699E}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="2" max="2" width="36.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1" t="s">
         <v>1615</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1616</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>1617</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1644</v>
       </c>
     </row>
   </sheetData>
@@ -8379,1545 +8607,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77640769-1B0F-4526-A19B-8702D48D199B}">
-  <dimension ref="A1:B169"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
-  <cols>
-    <col min="1" max="1" width="11.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3">
-        <v>23743</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3">
-        <f>DATE(YEAR(A2),MONTH(A2)+3,1)</f>
-        <v>23833</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3">
-        <f t="shared" ref="A4:A67" si="0">DATE(YEAR(A3),MONTH(A3)+3,1)</f>
-        <v>23924</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3">
-        <f t="shared" si="0"/>
-        <v>24016</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3">
-        <f t="shared" si="0"/>
-        <v>24108</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3">
-        <f t="shared" si="0"/>
-        <v>24198</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3">
-        <f t="shared" si="0"/>
-        <v>24289</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3">
-        <f t="shared" si="0"/>
-        <v>24381</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3">
-        <f t="shared" si="0"/>
-        <v>24473</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3">
-        <f t="shared" si="0"/>
-        <v>24563</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3">
-        <f t="shared" si="0"/>
-        <v>24654</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3">
-        <f t="shared" si="0"/>
-        <v>24746</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3">
-        <f t="shared" si="0"/>
-        <v>24838</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3">
-        <f t="shared" si="0"/>
-        <v>24929</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3">
-        <f t="shared" si="0"/>
-        <v>25020</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3">
-        <f t="shared" si="0"/>
-        <v>25112</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3">
-        <f t="shared" si="0"/>
-        <v>25204</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3">
-        <f t="shared" si="0"/>
-        <v>25294</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3">
-        <f t="shared" si="0"/>
-        <v>25385</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3">
-        <f t="shared" si="0"/>
-        <v>25477</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3">
-        <f t="shared" si="0"/>
-        <v>25569</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3">
-        <f t="shared" si="0"/>
-        <v>25659</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3">
-        <f t="shared" si="0"/>
-        <v>25750</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3">
-        <f t="shared" si="0"/>
-        <v>25842</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3">
-        <f t="shared" si="0"/>
-        <v>25934</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3">
-        <f t="shared" si="0"/>
-        <v>26024</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3">
-        <f t="shared" si="0"/>
-        <v>26115</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3">
-        <f t="shared" si="0"/>
-        <v>26207</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="3">
-        <f t="shared" si="0"/>
-        <v>26299</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3">
-        <f t="shared" si="0"/>
-        <v>26390</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3">
-        <f t="shared" si="0"/>
-        <v>26481</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
-        <f t="shared" si="0"/>
-        <v>26573</v>
-      </c>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3">
-        <f t="shared" si="0"/>
-        <v>26665</v>
-      </c>
-      <c r="B34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3">
-        <f t="shared" si="0"/>
-        <v>26755</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3">
-        <f t="shared" si="0"/>
-        <v>26846</v>
-      </c>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3">
-        <f t="shared" si="0"/>
-        <v>26938</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3">
-        <f t="shared" si="0"/>
-        <v>27030</v>
-      </c>
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="3">
-        <f t="shared" si="0"/>
-        <v>27120</v>
-      </c>
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3">
-        <f t="shared" si="0"/>
-        <v>27211</v>
-      </c>
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3">
-        <f t="shared" si="0"/>
-        <v>27303</v>
-      </c>
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="3">
-        <f t="shared" si="0"/>
-        <v>27395</v>
-      </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="3">
-        <f t="shared" si="0"/>
-        <v>27485</v>
-      </c>
-      <c r="B43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="3">
-        <f t="shared" si="0"/>
-        <v>27576</v>
-      </c>
-      <c r="B44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="3">
-        <f t="shared" si="0"/>
-        <v>27668</v>
-      </c>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="3">
-        <f t="shared" si="0"/>
-        <v>27760</v>
-      </c>
-      <c r="B46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="3">
-        <f t="shared" si="0"/>
-        <v>27851</v>
-      </c>
-      <c r="B47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="3">
-        <f t="shared" si="0"/>
-        <v>27942</v>
-      </c>
-      <c r="B48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="3">
-        <f t="shared" si="0"/>
-        <v>28034</v>
-      </c>
-      <c r="B49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="3">
-        <f t="shared" si="0"/>
-        <v>28126</v>
-      </c>
-      <c r="B50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="3">
-        <f t="shared" si="0"/>
-        <v>28216</v>
-      </c>
-      <c r="B51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="3">
-        <f t="shared" si="0"/>
-        <v>28307</v>
-      </c>
-      <c r="B52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3">
-        <f t="shared" si="0"/>
-        <v>28399</v>
-      </c>
-      <c r="B53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3">
-        <f t="shared" si="0"/>
-        <v>28491</v>
-      </c>
-      <c r="B54" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="3">
-        <f t="shared" si="0"/>
-        <v>28581</v>
-      </c>
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="3">
-        <f t="shared" si="0"/>
-        <v>28672</v>
-      </c>
-      <c r="B56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="3">
-        <f t="shared" si="0"/>
-        <v>28764</v>
-      </c>
-      <c r="B57" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="3">
-        <f t="shared" si="0"/>
-        <v>28856</v>
-      </c>
-      <c r="B58" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="3">
-        <f t="shared" si="0"/>
-        <v>28946</v>
-      </c>
-      <c r="B59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="3">
-        <f t="shared" si="0"/>
-        <v>29037</v>
-      </c>
-      <c r="B60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="3">
-        <f t="shared" si="0"/>
-        <v>29129</v>
-      </c>
-      <c r="B61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="3">
-        <f t="shared" si="0"/>
-        <v>29221</v>
-      </c>
-      <c r="B62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="3">
-        <f t="shared" si="0"/>
-        <v>29312</v>
-      </c>
-      <c r="B63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="3">
-        <f t="shared" si="0"/>
-        <v>29403</v>
-      </c>
-      <c r="B64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="3">
-        <f t="shared" si="0"/>
-        <v>29495</v>
-      </c>
-      <c r="B65" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="3">
-        <f t="shared" si="0"/>
-        <v>29587</v>
-      </c>
-      <c r="B66" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="3">
-        <f t="shared" si="0"/>
-        <v>29677</v>
-      </c>
-      <c r="B67" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="3">
-        <f t="shared" ref="A68:A131" si="1">DATE(YEAR(A67),MONTH(A67)+3,1)</f>
-        <v>29768</v>
-      </c>
-      <c r="B68" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="3">
-        <f t="shared" si="1"/>
-        <v>29860</v>
-      </c>
-      <c r="B69" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="3">
-        <f t="shared" si="1"/>
-        <v>29952</v>
-      </c>
-      <c r="B70" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="3">
-        <f t="shared" si="1"/>
-        <v>30042</v>
-      </c>
-      <c r="B71" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="3">
-        <f t="shared" si="1"/>
-        <v>30133</v>
-      </c>
-      <c r="B72" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="3">
-        <f t="shared" si="1"/>
-        <v>30225</v>
-      </c>
-      <c r="B73" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="3">
-        <f t="shared" si="1"/>
-        <v>30317</v>
-      </c>
-      <c r="B74" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="3">
-        <f t="shared" si="1"/>
-        <v>30407</v>
-      </c>
-      <c r="B75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="3">
-        <f t="shared" si="1"/>
-        <v>30498</v>
-      </c>
-      <c r="B76" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="3">
-        <f t="shared" si="1"/>
-        <v>30590</v>
-      </c>
-      <c r="B77" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="3">
-        <f t="shared" si="1"/>
-        <v>30682</v>
-      </c>
-      <c r="B78" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="3">
-        <f t="shared" si="1"/>
-        <v>30773</v>
-      </c>
-      <c r="B79" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="3">
-        <f t="shared" si="1"/>
-        <v>30864</v>
-      </c>
-      <c r="B80" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="3">
-        <f t="shared" si="1"/>
-        <v>30956</v>
-      </c>
-      <c r="B81" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="3">
-        <f t="shared" si="1"/>
-        <v>31048</v>
-      </c>
-      <c r="B82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="3">
-        <f t="shared" si="1"/>
-        <v>31138</v>
-      </c>
-      <c r="B83" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="3">
-        <f t="shared" si="1"/>
-        <v>31229</v>
-      </c>
-      <c r="B84" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="3">
-        <f t="shared" si="1"/>
-        <v>31321</v>
-      </c>
-      <c r="B85" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="3">
-        <f t="shared" si="1"/>
-        <v>31413</v>
-      </c>
-      <c r="B86" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="3">
-        <f t="shared" si="1"/>
-        <v>31503</v>
-      </c>
-      <c r="B87" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="3">
-        <f t="shared" si="1"/>
-        <v>31594</v>
-      </c>
-      <c r="B88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="3">
-        <f t="shared" si="1"/>
-        <v>31686</v>
-      </c>
-      <c r="B89" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="3">
-        <f t="shared" si="1"/>
-        <v>31778</v>
-      </c>
-      <c r="B90" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="3">
-        <f t="shared" si="1"/>
-        <v>31868</v>
-      </c>
-      <c r="B91" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="3">
-        <f t="shared" si="1"/>
-        <v>31959</v>
-      </c>
-      <c r="B92" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="3">
-        <f t="shared" si="1"/>
-        <v>32051</v>
-      </c>
-      <c r="B93" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="3">
-        <f t="shared" si="1"/>
-        <v>32143</v>
-      </c>
-      <c r="B94" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="3">
-        <f t="shared" si="1"/>
-        <v>32234</v>
-      </c>
-      <c r="B95" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="3">
-        <f t="shared" si="1"/>
-        <v>32325</v>
-      </c>
-      <c r="B96" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="3">
-        <f t="shared" si="1"/>
-        <v>32417</v>
-      </c>
-      <c r="B97" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="3">
-        <f t="shared" si="1"/>
-        <v>32509</v>
-      </c>
-      <c r="B98" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="3">
-        <f t="shared" si="1"/>
-        <v>32599</v>
-      </c>
-      <c r="B99" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="3">
-        <f t="shared" si="1"/>
-        <v>32690</v>
-      </c>
-      <c r="B100" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="3">
-        <f t="shared" si="1"/>
-        <v>32782</v>
-      </c>
-      <c r="B101" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="3">
-        <f t="shared" si="1"/>
-        <v>32874</v>
-      </c>
-      <c r="B102" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="3">
-        <f t="shared" si="1"/>
-        <v>32964</v>
-      </c>
-      <c r="B103" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="3">
-        <f t="shared" si="1"/>
-        <v>33055</v>
-      </c>
-      <c r="B104" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="3">
-        <f t="shared" si="1"/>
-        <v>33147</v>
-      </c>
-      <c r="B105" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="3">
-        <f t="shared" si="1"/>
-        <v>33239</v>
-      </c>
-      <c r="B106" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="3">
-        <f t="shared" si="1"/>
-        <v>33329</v>
-      </c>
-      <c r="B107" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="3">
-        <f t="shared" si="1"/>
-        <v>33420</v>
-      </c>
-      <c r="B108" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="3">
-        <f t="shared" si="1"/>
-        <v>33512</v>
-      </c>
-      <c r="B109" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="3">
-        <f t="shared" si="1"/>
-        <v>33604</v>
-      </c>
-      <c r="B110" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="3">
-        <f t="shared" si="1"/>
-        <v>33695</v>
-      </c>
-      <c r="B111" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="3">
-        <f t="shared" si="1"/>
-        <v>33786</v>
-      </c>
-      <c r="B112" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="3">
-        <f t="shared" si="1"/>
-        <v>33878</v>
-      </c>
-      <c r="B113" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="3">
-        <f t="shared" si="1"/>
-        <v>33970</v>
-      </c>
-      <c r="B114" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="3">
-        <f t="shared" si="1"/>
-        <v>34060</v>
-      </c>
-      <c r="B115" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="3">
-        <f t="shared" si="1"/>
-        <v>34151</v>
-      </c>
-      <c r="B116" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="3">
-        <f t="shared" si="1"/>
-        <v>34243</v>
-      </c>
-      <c r="B117" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="3">
-        <f t="shared" si="1"/>
-        <v>34335</v>
-      </c>
-      <c r="B118" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="3">
-        <f t="shared" si="1"/>
-        <v>34425</v>
-      </c>
-      <c r="B119" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="3">
-        <f t="shared" si="1"/>
-        <v>34516</v>
-      </c>
-      <c r="B120" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="3">
-        <f t="shared" si="1"/>
-        <v>34608</v>
-      </c>
-      <c r="B121" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="3">
-        <f t="shared" si="1"/>
-        <v>34700</v>
-      </c>
-      <c r="B122" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="3">
-        <f t="shared" si="1"/>
-        <v>34790</v>
-      </c>
-      <c r="B123" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="3">
-        <f t="shared" si="1"/>
-        <v>34881</v>
-      </c>
-      <c r="B124" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="3">
-        <f t="shared" si="1"/>
-        <v>34973</v>
-      </c>
-      <c r="B125" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="3">
-        <f t="shared" si="1"/>
-        <v>35065</v>
-      </c>
-      <c r="B126" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="3">
-        <f t="shared" si="1"/>
-        <v>35156</v>
-      </c>
-      <c r="B127" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="3">
-        <f t="shared" si="1"/>
-        <v>35247</v>
-      </c>
-      <c r="B128" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="3">
-        <f t="shared" si="1"/>
-        <v>35339</v>
-      </c>
-      <c r="B129" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="3">
-        <f t="shared" si="1"/>
-        <v>35431</v>
-      </c>
-      <c r="B130" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="3">
-        <f t="shared" si="1"/>
-        <v>35521</v>
-      </c>
-      <c r="B131" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="3">
-        <f t="shared" ref="A132:A169" si="2">DATE(YEAR(A131),MONTH(A131)+3,1)</f>
-        <v>35612</v>
-      </c>
-      <c r="B132" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="3">
-        <f t="shared" si="2"/>
-        <v>35704</v>
-      </c>
-      <c r="B133" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="3">
-        <f t="shared" si="2"/>
-        <v>35796</v>
-      </c>
-      <c r="B134" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="3">
-        <f t="shared" si="2"/>
-        <v>35886</v>
-      </c>
-      <c r="B135" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="3">
-        <f t="shared" si="2"/>
-        <v>35977</v>
-      </c>
-      <c r="B136" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="3">
-        <f t="shared" si="2"/>
-        <v>36069</v>
-      </c>
-      <c r="B137" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="3">
-        <f t="shared" si="2"/>
-        <v>36161</v>
-      </c>
-      <c r="B138" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="3">
-        <f t="shared" si="2"/>
-        <v>36251</v>
-      </c>
-      <c r="B139" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="3">
-        <f t="shared" si="2"/>
-        <v>36342</v>
-      </c>
-      <c r="B140" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="3">
-        <f t="shared" si="2"/>
-        <v>36434</v>
-      </c>
-      <c r="B141" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="3">
-        <f t="shared" si="2"/>
-        <v>36526</v>
-      </c>
-      <c r="B142" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="3">
-        <f t="shared" si="2"/>
-        <v>36617</v>
-      </c>
-      <c r="B143" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="3">
-        <f t="shared" si="2"/>
-        <v>36708</v>
-      </c>
-      <c r="B144" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="3">
-        <f t="shared" si="2"/>
-        <v>36800</v>
-      </c>
-      <c r="B145" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="3">
-        <f t="shared" si="2"/>
-        <v>36892</v>
-      </c>
-      <c r="B146" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="3">
-        <f t="shared" si="2"/>
-        <v>36982</v>
-      </c>
-      <c r="B147" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="3">
-        <f t="shared" si="2"/>
-        <v>37073</v>
-      </c>
-      <c r="B148" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="3">
-        <f t="shared" si="2"/>
-        <v>37165</v>
-      </c>
-      <c r="B149" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="3">
-        <f t="shared" si="2"/>
-        <v>37257</v>
-      </c>
-      <c r="B150" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="3">
-        <f t="shared" si="2"/>
-        <v>37347</v>
-      </c>
-      <c r="B151" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="3">
-        <f t="shared" si="2"/>
-        <v>37438</v>
-      </c>
-      <c r="B152" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="3">
-        <f t="shared" si="2"/>
-        <v>37530</v>
-      </c>
-      <c r="B153" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="3">
-        <f t="shared" si="2"/>
-        <v>37622</v>
-      </c>
-      <c r="B154" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="3">
-        <f t="shared" si="2"/>
-        <v>37712</v>
-      </c>
-      <c r="B155" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="3">
-        <f t="shared" si="2"/>
-        <v>37803</v>
-      </c>
-      <c r="B156" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="3">
-        <f t="shared" si="2"/>
-        <v>37895</v>
-      </c>
-      <c r="B157" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="3">
-        <f t="shared" si="2"/>
-        <v>37987</v>
-      </c>
-      <c r="B158" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="3">
-        <f t="shared" si="2"/>
-        <v>38078</v>
-      </c>
-      <c r="B159" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="3">
-        <f t="shared" si="2"/>
-        <v>38169</v>
-      </c>
-      <c r="B160" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="3">
-        <f t="shared" si="2"/>
-        <v>38261</v>
-      </c>
-      <c r="B161" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="3">
-        <f t="shared" si="2"/>
-        <v>38353</v>
-      </c>
-      <c r="B162" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="3">
-        <f t="shared" si="2"/>
-        <v>38443</v>
-      </c>
-      <c r="B163" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="3">
-        <f t="shared" si="2"/>
-        <v>38534</v>
-      </c>
-      <c r="B164" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="3">
-        <f t="shared" si="2"/>
-        <v>38626</v>
-      </c>
-      <c r="B165" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="3">
-        <f t="shared" si="2"/>
-        <v>38718</v>
-      </c>
-      <c r="B166" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="3">
-        <f t="shared" si="2"/>
-        <v>38808</v>
-      </c>
-      <c r="B167" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="3">
-        <f t="shared" si="2"/>
-        <v>38899</v>
-      </c>
-      <c r="B168" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="3">
-        <f t="shared" si="2"/>
-        <v>38991</v>
-      </c>
-      <c r="B169" t="s">
-        <v>166</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7693EA81-6C81-414A-9065-D26F88AEF5E1}">
-  <dimension ref="A1:B169"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -9937,8 +8630,8 @@
       <c r="A2" s="3">
         <v>23743</v>
       </c>
-      <c r="B2" t="s">
-        <v>168</v>
+      <c r="B2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9947,7 +8640,7 @@
         <v>23833</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9956,7 +8649,7 @@
         <v>23924</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9965,7 +8658,7 @@
         <v>24016</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9974,7 +8667,7 @@
         <v>24108</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9983,7 +8676,7 @@
         <v>24198</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9992,7 +8685,7 @@
         <v>24289</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -10001,7 +8694,7 @@
         <v>24381</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -10010,7 +8703,7 @@
         <v>24473</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -10019,7 +8712,7 @@
         <v>24563</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -10028,7 +8721,7 @@
         <v>24654</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -10037,7 +8730,7 @@
         <v>24746</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -10046,7 +8739,7 @@
         <v>24838</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -10055,7 +8748,7 @@
         <v>24929</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -10064,7 +8757,7 @@
         <v>25020</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -10073,7 +8766,7 @@
         <v>25112</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -10082,7 +8775,7 @@
         <v>25204</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -10091,7 +8784,7 @@
         <v>25294</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -10100,7 +8793,7 @@
         <v>25385</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -10109,7 +8802,7 @@
         <v>25477</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -10118,7 +8811,7 @@
         <v>25569</v>
       </c>
       <c r="B22" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -10127,7 +8820,7 @@
         <v>25659</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -10136,7 +8829,7 @@
         <v>25750</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -10145,7 +8838,7 @@
         <v>25842</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -10154,7 +8847,7 @@
         <v>25934</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -10163,7 +8856,7 @@
         <v>26024</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -10172,7 +8865,7 @@
         <v>26115</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -10181,7 +8874,7 @@
         <v>26207</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -10190,7 +8883,7 @@
         <v>26299</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -10199,7 +8892,7 @@
         <v>26390</v>
       </c>
       <c r="B31" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -10208,7 +8901,7 @@
         <v>26481</v>
       </c>
       <c r="B32" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -10217,7 +8910,7 @@
         <v>26573</v>
       </c>
       <c r="B33" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -10226,7 +8919,7 @@
         <v>26665</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -10235,7 +8928,7 @@
         <v>26755</v>
       </c>
       <c r="B35" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -10244,7 +8937,7 @@
         <v>26846</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -10253,7 +8946,7 @@
         <v>26938</v>
       </c>
       <c r="B37" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -10262,7 +8955,7 @@
         <v>27030</v>
       </c>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -10271,7 +8964,7 @@
         <v>27120</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -10280,7 +8973,7 @@
         <v>27211</v>
       </c>
       <c r="B40" t="s">
-        <v>205</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -10289,7 +8982,7 @@
         <v>27303</v>
       </c>
       <c r="B41" t="s">
-        <v>206</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -10298,7 +8991,7 @@
         <v>27395</v>
       </c>
       <c r="B42" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -10307,7 +9000,7 @@
         <v>27485</v>
       </c>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -10316,7 +9009,7 @@
         <v>27576</v>
       </c>
       <c r="B44" t="s">
-        <v>209</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -10325,7 +9018,7 @@
         <v>27668</v>
       </c>
       <c r="B45" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -10334,7 +9027,7 @@
         <v>27760</v>
       </c>
       <c r="B46" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -10343,7 +9036,7 @@
         <v>27851</v>
       </c>
       <c r="B47" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -10352,7 +9045,7 @@
         <v>27942</v>
       </c>
       <c r="B48" t="s">
-        <v>213</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -10361,7 +9054,7 @@
         <v>28034</v>
       </c>
       <c r="B49" t="s">
-        <v>214</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -10370,7 +9063,7 @@
         <v>28126</v>
       </c>
       <c r="B50" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -10379,7 +9072,7 @@
         <v>28216</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -10388,7 +9081,7 @@
         <v>28307</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -10397,7 +9090,7 @@
         <v>28399</v>
       </c>
       <c r="B53" t="s">
-        <v>218</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -10406,7 +9099,7 @@
         <v>28491</v>
       </c>
       <c r="B54" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -10415,7 +9108,7 @@
         <v>28581</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -10424,7 +9117,7 @@
         <v>28672</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -10433,7 +9126,7 @@
         <v>28764</v>
       </c>
       <c r="B57" t="s">
-        <v>221</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -10442,7 +9135,7 @@
         <v>28856</v>
       </c>
       <c r="B58" t="s">
-        <v>222</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -10451,7 +9144,7 @@
         <v>28946</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -10460,7 +9153,7 @@
         <v>29037</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -10469,7 +9162,7 @@
         <v>29129</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -10478,7 +9171,7 @@
         <v>29221</v>
       </c>
       <c r="B62" t="s">
-        <v>226</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -10487,7 +9180,7 @@
         <v>29312</v>
       </c>
       <c r="B63" t="s">
-        <v>227</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -10496,7 +9189,7 @@
         <v>29403</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -10505,7 +9198,7 @@
         <v>29495</v>
       </c>
       <c r="B65" t="s">
-        <v>229</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -10514,7 +9207,7 @@
         <v>29587</v>
       </c>
       <c r="B66" t="s">
-        <v>230</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -10523,7 +9216,7 @@
         <v>29677</v>
       </c>
       <c r="B67" t="s">
-        <v>231</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -10532,7 +9225,7 @@
         <v>29768</v>
       </c>
       <c r="B68" t="s">
-        <v>232</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -10541,7 +9234,7 @@
         <v>29860</v>
       </c>
       <c r="B69" t="s">
-        <v>233</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -10550,7 +9243,7 @@
         <v>29952</v>
       </c>
       <c r="B70" t="s">
-        <v>234</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -10559,7 +9252,7 @@
         <v>30042</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -10568,7 +9261,7 @@
         <v>30133</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -10577,7 +9270,7 @@
         <v>30225</v>
       </c>
       <c r="B73" t="s">
-        <v>237</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -10586,7 +9279,7 @@
         <v>30317</v>
       </c>
       <c r="B74" t="s">
-        <v>238</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -10595,7 +9288,7 @@
         <v>30407</v>
       </c>
       <c r="B75" t="s">
-        <v>239</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -10604,7 +9297,7 @@
         <v>30498</v>
       </c>
       <c r="B76" t="s">
-        <v>240</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -10613,7 +9306,7 @@
         <v>30590</v>
       </c>
       <c r="B77" t="s">
-        <v>241</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -10622,7 +9315,7 @@
         <v>30682</v>
       </c>
       <c r="B78" t="s">
-        <v>242</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -10631,7 +9324,7 @@
         <v>30773</v>
       </c>
       <c r="B79" t="s">
-        <v>243</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -10640,7 +9333,7 @@
         <v>30864</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -10649,7 +9342,7 @@
         <v>30956</v>
       </c>
       <c r="B81" t="s">
-        <v>245</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -10658,7 +9351,7 @@
         <v>31048</v>
       </c>
       <c r="B82" t="s">
-        <v>246</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -10667,7 +9360,7 @@
         <v>31138</v>
       </c>
       <c r="B83" t="s">
-        <v>247</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -10676,7 +9369,7 @@
         <v>31229</v>
       </c>
       <c r="B84" t="s">
-        <v>248</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -10685,7 +9378,7 @@
         <v>31321</v>
       </c>
       <c r="B85" t="s">
-        <v>249</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -10694,7 +9387,7 @@
         <v>31413</v>
       </c>
       <c r="B86" t="s">
-        <v>250</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -10703,7 +9396,7 @@
         <v>31503</v>
       </c>
       <c r="B87" t="s">
-        <v>251</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -10712,7 +9405,7 @@
         <v>31594</v>
       </c>
       <c r="B88" t="s">
-        <v>252</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -10721,7 +9414,7 @@
         <v>31686</v>
       </c>
       <c r="B89" t="s">
-        <v>253</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -10730,7 +9423,7 @@
         <v>31778</v>
       </c>
       <c r="B90" t="s">
-        <v>254</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -10739,7 +9432,7 @@
         <v>31868</v>
       </c>
       <c r="B91" t="s">
-        <v>255</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -10748,7 +9441,7 @@
         <v>31959</v>
       </c>
       <c r="B92" t="s">
-        <v>256</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -10757,7 +9450,7 @@
         <v>32051</v>
       </c>
       <c r="B93" t="s">
-        <v>257</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -10766,7 +9459,7 @@
         <v>32143</v>
       </c>
       <c r="B94" t="s">
-        <v>258</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -10775,7 +9468,7 @@
         <v>32234</v>
       </c>
       <c r="B95" t="s">
-        <v>259</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -10784,334 +9477,2211 @@
         <v>32325</v>
       </c>
       <c r="B96" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="3">
         <f t="shared" si="1"/>
         <v>32417</v>
       </c>
       <c r="B97" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="3">
         <f t="shared" si="1"/>
         <v>32509</v>
       </c>
       <c r="B98" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="3">
         <f t="shared" si="1"/>
         <v>32599</v>
       </c>
       <c r="B99" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="3">
         <f t="shared" si="1"/>
         <v>32690</v>
       </c>
       <c r="B100" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="3">
         <f t="shared" si="1"/>
         <v>32782</v>
       </c>
       <c r="B101" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="3">
         <f t="shared" si="1"/>
         <v>32874</v>
       </c>
       <c r="B102" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>99</v>
+      </c>
+      <c r="D102" s="5">
+        <v>2.5233972052429637E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="3">
         <f t="shared" si="1"/>
         <v>32964</v>
       </c>
       <c r="B103" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>100</v>
+      </c>
+      <c r="D103" s="5">
+        <v>2.5265152651350115E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="3">
         <f t="shared" si="1"/>
         <v>33055</v>
       </c>
       <c r="B104" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>101</v>
+      </c>
+      <c r="D104" s="5">
+        <v>2.5310443651880711E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="3">
         <f t="shared" si="1"/>
         <v>33147</v>
       </c>
       <c r="B105" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>102</v>
+      </c>
+      <c r="D105" s="5">
+        <v>2.5061139503405036E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="3">
         <f t="shared" si="1"/>
         <v>33239</v>
       </c>
       <c r="B106" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>103</v>
+      </c>
+      <c r="D106" s="5">
+        <v>2.4901588080201171E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="3">
         <f t="shared" si="1"/>
         <v>33329</v>
       </c>
       <c r="B107" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>104</v>
+      </c>
+      <c r="D107" s="5">
+        <v>2.5068404296052116E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="3">
         <f t="shared" si="1"/>
         <v>33420</v>
       </c>
       <c r="B108" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>105</v>
+      </c>
+      <c r="D108" s="5">
+        <v>2.5115633349844103E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="3">
         <f t="shared" si="1"/>
         <v>33512</v>
       </c>
       <c r="B109" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>106</v>
+      </c>
+      <c r="D109" s="5">
+        <v>2.5024349858770889E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="3">
         <f t="shared" si="1"/>
         <v>33604</v>
       </c>
       <c r="B110" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>107</v>
+      </c>
+      <c r="D110" s="5">
+        <v>2.5380407619259249E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="3">
         <f t="shared" si="1"/>
         <v>33695</v>
       </c>
       <c r="B111" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>108</v>
+      </c>
+      <c r="D111" s="5">
+        <v>2.5469420972433928E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="3">
         <f t="shared" si="1"/>
         <v>33786</v>
       </c>
       <c r="B112" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>109</v>
+      </c>
+      <c r="D112" s="5">
+        <v>2.5653933096518085E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="3">
         <f t="shared" si="1"/>
         <v>33878</v>
       </c>
       <c r="B113" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>110</v>
+      </c>
+      <c r="D113" s="5">
+        <v>2.5872906290296847E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="3">
         <f t="shared" si="1"/>
         <v>33970</v>
       </c>
       <c r="B114" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>111</v>
+      </c>
+      <c r="D114" s="5">
+        <v>2.5899766107178552E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="3">
         <f t="shared" si="1"/>
         <v>34060</v>
       </c>
       <c r="B115" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>112</v>
+      </c>
+      <c r="D115" s="5">
+        <v>2.6069190256071153E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="3">
         <f t="shared" si="1"/>
         <v>34151</v>
       </c>
       <c r="B116" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>113</v>
+      </c>
+      <c r="D116" s="5">
+        <v>2.6284509333497345E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="3">
         <f t="shared" si="1"/>
         <v>34243</v>
       </c>
       <c r="B117" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>114</v>
+      </c>
+      <c r="D117" s="5">
+        <v>2.6443650391999477E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="3">
         <f t="shared" si="1"/>
         <v>34335</v>
       </c>
       <c r="B118" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>115</v>
+      </c>
+      <c r="D118" s="5">
+        <v>2.6673591089593694E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="3">
         <f t="shared" si="1"/>
         <v>34425</v>
       </c>
       <c r="B119" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>116</v>
+      </c>
+      <c r="D119" s="5">
+        <v>2.6805989490574389E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="3">
         <f t="shared" si="1"/>
         <v>34516</v>
       </c>
       <c r="B120" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>117</v>
+      </c>
+      <c r="D120" s="5">
+        <v>2.6925653387465109E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="3">
         <f t="shared" si="1"/>
         <v>34608</v>
       </c>
       <c r="B121" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>118</v>
+      </c>
+      <c r="D121" s="5">
+        <v>2.7119004321847842E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="3">
         <f t="shared" si="1"/>
         <v>34700</v>
       </c>
       <c r="B122" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>119</v>
+      </c>
+      <c r="D122" s="5">
+        <v>2.7123571960393871E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="3">
         <f t="shared" si="1"/>
         <v>34790</v>
       </c>
       <c r="B123" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>120</v>
+      </c>
+      <c r="D123" s="5">
+        <v>2.7290729163689985E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="3">
         <f t="shared" si="1"/>
         <v>34881</v>
       </c>
       <c r="B124" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>121</v>
+      </c>
+      <c r="D124" s="5">
+        <v>2.7457953358449805E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="3">
         <f t="shared" si="1"/>
         <v>34973</v>
       </c>
       <c r="B125" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>122</v>
+      </c>
+      <c r="D125" s="5">
+        <v>2.7569872336156469E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="3">
         <f t="shared" si="1"/>
         <v>35065</v>
       </c>
       <c r="B126" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>123</v>
+      </c>
+      <c r="D126" s="5">
+        <v>2.7754084574723642E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="3">
         <f t="shared" si="1"/>
         <v>35156</v>
       </c>
       <c r="B127" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>124</v>
+      </c>
+      <c r="D127" s="5">
+        <v>2.7985580139738196E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="3">
         <f t="shared" si="1"/>
         <v>35247</v>
       </c>
       <c r="B128" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>125</v>
+      </c>
+      <c r="D128" s="5">
+        <v>2.8084189003715974E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="3">
         <f t="shared" si="1"/>
         <v>35339</v>
       </c>
       <c r="B129" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>126</v>
+      </c>
+      <c r="D129" s="5">
+        <v>2.8232446241718705E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="3">
         <f t="shared" si="1"/>
         <v>35431</v>
       </c>
       <c r="B130" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>127</v>
+      </c>
+      <c r="D130" s="5">
+        <v>2.8405417112026519E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="3">
         <f t="shared" si="1"/>
         <v>35521</v>
       </c>
       <c r="B131" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>128</v>
+      </c>
+      <c r="D131" s="5">
+        <v>2.8475643625535344E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="3">
         <f t="shared" ref="A132:A169" si="2">DATE(YEAR(A131),MONTH(A131)+3,1)</f>
         <v>35612</v>
       </c>
       <c r="B132" t="s">
+        <v>129</v>
+      </c>
+      <c r="D132" s="5">
+        <v>2.8867398787084147E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="3">
+        <f t="shared" si="2"/>
+        <v>35704</v>
+      </c>
+      <c r="B133" t="s">
+        <v>130</v>
+      </c>
+      <c r="D133" s="5">
+        <v>2.9084709859007591E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="3">
+        <f t="shared" si="2"/>
+        <v>35796</v>
+      </c>
+      <c r="B134" t="s">
+        <v>131</v>
+      </c>
+      <c r="D134" s="5">
+        <v>2.9339758800362041E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="3">
+        <f t="shared" si="2"/>
+        <v>35886</v>
+      </c>
+      <c r="B135" t="s">
+        <v>132</v>
+      </c>
+      <c r="D135" s="5">
+        <v>2.973117623614192E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="3">
+        <f t="shared" si="2"/>
+        <v>35977</v>
+      </c>
+      <c r="B136" t="s">
+        <v>133</v>
+      </c>
+      <c r="D136" s="5">
+        <v>3.0005612801079815E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="3">
+        <f t="shared" si="2"/>
+        <v>36069</v>
+      </c>
+      <c r="B137" t="s">
+        <v>134</v>
+      </c>
+      <c r="D137" s="5">
+        <v>3.0319444017642187E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="3">
+        <f t="shared" si="2"/>
+        <v>36161</v>
+      </c>
+      <c r="B138" t="s">
+        <v>135</v>
+      </c>
+      <c r="D138" s="5">
+        <v>3.0507647092944568E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="3">
+        <f t="shared" si="2"/>
+        <v>36251</v>
+      </c>
+      <c r="B139" t="s">
+        <v>136</v>
+      </c>
+      <c r="D139" s="5">
+        <v>3.089997509219912E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="3">
+        <f t="shared" si="2"/>
+        <v>36342</v>
+      </c>
+      <c r="B140" t="s">
+        <v>137</v>
+      </c>
+      <c r="D140" s="5">
+        <v>3.1131605384126175E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="3">
+        <f t="shared" si="2"/>
+        <v>36434</v>
+      </c>
+      <c r="B141" t="s">
+        <v>138</v>
+      </c>
+      <c r="D141" s="5">
+        <v>3.1423317960129829E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="3">
+        <f t="shared" si="2"/>
+        <v>36526</v>
+      </c>
+      <c r="B142" t="s">
+        <v>139</v>
+      </c>
+      <c r="D142" s="5">
+        <v>3.1482391714637688E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="3">
+        <f t="shared" si="2"/>
+        <v>36617</v>
+      </c>
+      <c r="B143" t="s">
+        <v>140</v>
+      </c>
+      <c r="D143" s="5">
+        <v>3.1583601109425374E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="3">
+        <f t="shared" si="2"/>
+        <v>36708</v>
+      </c>
+      <c r="B144" t="s">
+        <v>141</v>
+      </c>
+      <c r="D144" s="5">
+        <v>3.1786629010138526E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="3">
+        <f t="shared" si="2"/>
+        <v>36800</v>
+      </c>
+      <c r="B145" t="s">
+        <v>142</v>
+      </c>
+      <c r="D145" s="5">
+        <v>3.1957869829134969E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="3">
+        <f t="shared" si="2"/>
+        <v>36892</v>
+      </c>
+      <c r="B146" t="s">
+        <v>143</v>
+      </c>
+      <c r="D146" s="5">
+        <v>3.2008569164397462E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="3">
+        <f t="shared" si="2"/>
+        <v>36982</v>
+      </c>
+      <c r="B147" t="s">
+        <v>144</v>
+      </c>
+      <c r="D147" s="5">
+        <v>3.1993908790187091E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="3">
+        <f t="shared" si="2"/>
+        <v>37073</v>
+      </c>
+      <c r="B148" t="s">
+        <v>145</v>
+      </c>
+      <c r="D148" s="5">
+        <v>3.2032680092531789E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="3">
+        <f t="shared" si="2"/>
+        <v>37165</v>
+      </c>
+      <c r="B149" t="s">
+        <v>146</v>
+      </c>
+      <c r="D149" s="5">
+        <v>3.2471947372886001E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="3">
+        <f t="shared" si="2"/>
+        <v>37257</v>
+      </c>
+      <c r="B150" t="s">
+        <v>147</v>
+      </c>
+      <c r="D150" s="5">
+        <v>3.2502861573680909E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="3">
+        <f t="shared" si="2"/>
+        <v>37347</v>
+      </c>
+      <c r="B151" t="s">
+        <v>148</v>
+      </c>
+      <c r="D151" s="5">
+        <v>3.2612095253149571E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="3">
+        <f t="shared" si="2"/>
+        <v>37438</v>
+      </c>
+      <c r="B152" t="s">
+        <v>149</v>
+      </c>
+      <c r="D152" s="5">
+        <v>3.2694923370914827E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="3">
+        <f t="shared" si="2"/>
+        <v>37530</v>
+      </c>
+      <c r="B153" t="s">
+        <v>150</v>
+      </c>
+      <c r="D153" s="5">
+        <v>3.2708589766468524E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="3">
+        <f t="shared" si="2"/>
+        <v>37622</v>
+      </c>
+      <c r="B154" t="s">
+        <v>151</v>
+      </c>
+      <c r="D154" s="5">
+        <v>3.2642716952787122E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="3">
+        <f t="shared" si="2"/>
+        <v>37712</v>
+      </c>
+      <c r="B155" t="s">
+        <v>152</v>
+      </c>
+      <c r="D155" s="5">
+        <v>3.2835690192987668E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="3">
+        <f t="shared" si="2"/>
+        <v>37803</v>
+      </c>
+      <c r="B156" t="s">
+        <v>153</v>
+      </c>
+      <c r="D156" s="5">
+        <v>3.3193737604170201E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="3">
+        <f t="shared" si="2"/>
+        <v>37895</v>
+      </c>
+      <c r="B157" t="s">
+        <v>154</v>
+      </c>
+      <c r="D157" s="5">
+        <v>3.3266349442959073E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="3">
+        <f t="shared" si="2"/>
+        <v>37987</v>
+      </c>
+      <c r="B158" t="s">
+        <v>155</v>
+      </c>
+      <c r="D158" s="5">
+        <v>3.3617712137293303E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="3">
+        <f t="shared" si="2"/>
+        <v>38078</v>
+      </c>
+      <c r="B159" t="s">
+        <v>156</v>
+      </c>
+      <c r="D159" s="5">
+        <v>3.3728099025294528E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="3">
+        <f t="shared" si="2"/>
+        <v>38169</v>
+      </c>
+      <c r="B160" t="s">
+        <v>157</v>
+      </c>
+      <c r="D160" s="5">
+        <v>3.3912285407725319E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="3">
+        <f t="shared" si="2"/>
+        <v>38261</v>
+      </c>
+      <c r="B161" t="s">
+        <v>158</v>
+      </c>
+      <c r="D161" s="5">
+        <v>3.4151895124277021E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="3">
+        <f t="shared" si="2"/>
+        <v>38353</v>
+      </c>
+      <c r="B162" t="s">
+        <v>159</v>
+      </c>
+      <c r="D162" s="5">
+        <v>3.4205482333354055E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="3">
+        <f t="shared" si="2"/>
+        <v>38443</v>
+      </c>
+      <c r="B163" t="s">
+        <v>160</v>
+      </c>
+      <c r="D163" s="5">
+        <v>3.441424355486232E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="3">
+        <f t="shared" si="2"/>
+        <v>38534</v>
+      </c>
+      <c r="B164" t="s">
+        <v>161</v>
+      </c>
+      <c r="D164" s="5">
+        <v>3.4617168212205222E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="3">
+        <f t="shared" si="2"/>
+        <v>38626</v>
+      </c>
+      <c r="B165" t="s">
+        <v>162</v>
+      </c>
+      <c r="D165" s="5">
+        <v>3.4617393498711818E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="3">
+        <f t="shared" si="2"/>
+        <v>38718</v>
+      </c>
+      <c r="B166" t="s">
+        <v>163</v>
+      </c>
+      <c r="D166" s="5">
+        <v>3.4893332416203432E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="3">
+        <f t="shared" si="2"/>
+        <v>38808</v>
+      </c>
+      <c r="B167" t="s">
+        <v>164</v>
+      </c>
+      <c r="D167" s="5">
+        <v>3.5030453904724722E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="3">
+        <f t="shared" si="2"/>
+        <v>38899</v>
+      </c>
+      <c r="B168" t="s">
+        <v>165</v>
+      </c>
+      <c r="D168" s="5">
+        <v>3.5111469253046208E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="3">
+        <f t="shared" si="2"/>
+        <v>38991</v>
+      </c>
+      <c r="B169" t="s">
+        <v>166</v>
+      </c>
+      <c r="D169" s="5">
+        <v>3.531988377353238E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="D170" s="5">
+        <v>3.5510123924576725E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="D171" s="5">
+        <v>3.5585056289473907E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="D172" s="5">
+        <v>3.5650775878156238E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="D173" s="5">
+        <v>3.5624275554156461E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="D174" s="5">
+        <v>3.5720769737407378E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="D175" s="5">
+        <v>3.5736972137726142E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7693EA81-6C81-414A-9065-D26F88AEF5E1}">
+  <dimension ref="A1:D175"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="11.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3">
+        <v>23743</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3">
+        <f>DATE(YEAR(A2),MONTH(A2)+3,1)</f>
+        <v>23833</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A67" si="0">DATE(YEAR(A3),MONTH(A3)+3,1)</f>
+        <v>23924</v>
+      </c>
+      <c r="B4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>24016</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>24108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>24198</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>24289</v>
+      </c>
+      <c r="B8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>24381</v>
+      </c>
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>24473</v>
+      </c>
+      <c r="B10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>24563</v>
+      </c>
+      <c r="B11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>24654</v>
+      </c>
+      <c r="B12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>24746</v>
+      </c>
+      <c r="B13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>24838</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>24929</v>
+      </c>
+      <c r="B15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>25020</v>
+      </c>
+      <c r="B16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>25112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>25204</v>
+      </c>
+      <c r="B18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>25294</v>
+      </c>
+      <c r="B19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>25385</v>
+      </c>
+      <c r="B20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>25477</v>
+      </c>
+      <c r="B21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>25569</v>
+      </c>
+      <c r="B22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>25659</v>
+      </c>
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>25750</v>
+      </c>
+      <c r="B24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>25842</v>
+      </c>
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>25934</v>
+      </c>
+      <c r="B26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>26024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>26115</v>
+      </c>
+      <c r="B28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>26207</v>
+      </c>
+      <c r="B29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>26299</v>
+      </c>
+      <c r="B30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>26390</v>
+      </c>
+      <c r="B31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>26481</v>
+      </c>
+      <c r="B32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>26573</v>
+      </c>
+      <c r="B33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>26665</v>
+      </c>
+      <c r="B34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>26755</v>
+      </c>
+      <c r="B35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>26846</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>26938</v>
+      </c>
+      <c r="B37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>27030</v>
+      </c>
+      <c r="B38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3">
+        <f t="shared" si="0"/>
+        <v>27120</v>
+      </c>
+      <c r="B39" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>27211</v>
+      </c>
+      <c r="B40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
+        <v>27303</v>
+      </c>
+      <c r="B41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3">
+        <f t="shared" si="0"/>
+        <v>27395</v>
+      </c>
+      <c r="B42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>27485</v>
+      </c>
+      <c r="B43" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3">
+        <f t="shared" si="0"/>
+        <v>27576</v>
+      </c>
+      <c r="B44" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3">
+        <f t="shared" si="0"/>
+        <v>27668</v>
+      </c>
+      <c r="B45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3">
+        <f t="shared" si="0"/>
+        <v>27760</v>
+      </c>
+      <c r="B46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3">
+        <f t="shared" si="0"/>
+        <v>27851</v>
+      </c>
+      <c r="B47" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3">
+        <f t="shared" si="0"/>
+        <v>27942</v>
+      </c>
+      <c r="B48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3">
+        <f t="shared" si="0"/>
+        <v>28034</v>
+      </c>
+      <c r="B49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3">
+        <f t="shared" si="0"/>
+        <v>28126</v>
+      </c>
+      <c r="B50" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3">
+        <f t="shared" si="0"/>
+        <v>28216</v>
+      </c>
+      <c r="B51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3">
+        <f t="shared" si="0"/>
+        <v>28307</v>
+      </c>
+      <c r="B52" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3">
+        <f t="shared" si="0"/>
+        <v>28399</v>
+      </c>
+      <c r="B53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3">
+        <f t="shared" si="0"/>
+        <v>28491</v>
+      </c>
+      <c r="B54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3">
+        <f t="shared" si="0"/>
+        <v>28581</v>
+      </c>
+      <c r="B55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3">
+        <f t="shared" si="0"/>
+        <v>28672</v>
+      </c>
+      <c r="B56" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3">
+        <f t="shared" si="0"/>
+        <v>28764</v>
+      </c>
+      <c r="B57" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3">
+        <f t="shared" si="0"/>
+        <v>28856</v>
+      </c>
+      <c r="B58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3">
+        <f t="shared" si="0"/>
+        <v>28946</v>
+      </c>
+      <c r="B59" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3">
+        <f t="shared" si="0"/>
+        <v>29037</v>
+      </c>
+      <c r="B60" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3">
+        <f t="shared" si="0"/>
+        <v>29129</v>
+      </c>
+      <c r="B61" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3">
+        <f t="shared" si="0"/>
+        <v>29221</v>
+      </c>
+      <c r="B62" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3">
+        <f t="shared" si="0"/>
+        <v>29312</v>
+      </c>
+      <c r="B63" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3">
+        <f t="shared" si="0"/>
+        <v>29403</v>
+      </c>
+      <c r="B64" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3">
+        <f t="shared" si="0"/>
+        <v>29495</v>
+      </c>
+      <c r="B65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3">
+        <f t="shared" si="0"/>
+        <v>29587</v>
+      </c>
+      <c r="B66" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="3">
+        <f t="shared" si="0"/>
+        <v>29677</v>
+      </c>
+      <c r="B67" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="3">
+        <f t="shared" ref="A68:A131" si="1">DATE(YEAR(A67),MONTH(A67)+3,1)</f>
+        <v>29768</v>
+      </c>
+      <c r="B68" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="3">
+        <f t="shared" si="1"/>
+        <v>29860</v>
+      </c>
+      <c r="B69" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="3">
+        <f t="shared" si="1"/>
+        <v>29952</v>
+      </c>
+      <c r="B70" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="3">
+        <f t="shared" si="1"/>
+        <v>30042</v>
+      </c>
+      <c r="B71" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="3">
+        <f t="shared" si="1"/>
+        <v>30133</v>
+      </c>
+      <c r="B72" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="3">
+        <f t="shared" si="1"/>
+        <v>30225</v>
+      </c>
+      <c r="B73" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="3">
+        <f t="shared" si="1"/>
+        <v>30317</v>
+      </c>
+      <c r="B74" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="3">
+        <f t="shared" si="1"/>
+        <v>30407</v>
+      </c>
+      <c r="B75" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="3">
+        <f t="shared" si="1"/>
+        <v>30498</v>
+      </c>
+      <c r="B76" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="3">
+        <f t="shared" si="1"/>
+        <v>30590</v>
+      </c>
+      <c r="B77" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3">
+        <f t="shared" si="1"/>
+        <v>30682</v>
+      </c>
+      <c r="B78" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="3">
+        <f t="shared" si="1"/>
+        <v>30773</v>
+      </c>
+      <c r="B79" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="3">
+        <f t="shared" si="1"/>
+        <v>30864</v>
+      </c>
+      <c r="B80" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="3">
+        <f t="shared" si="1"/>
+        <v>30956</v>
+      </c>
+      <c r="B81" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="3">
+        <f t="shared" si="1"/>
+        <v>31048</v>
+      </c>
+      <c r="B82" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="3">
+        <f t="shared" si="1"/>
+        <v>31138</v>
+      </c>
+      <c r="B83" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="3">
+        <f t="shared" si="1"/>
+        <v>31229</v>
+      </c>
+      <c r="B84" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="3">
+        <f t="shared" si="1"/>
+        <v>31321</v>
+      </c>
+      <c r="B85" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="3">
+        <f t="shared" si="1"/>
+        <v>31413</v>
+      </c>
+      <c r="B86" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="3">
+        <f t="shared" si="1"/>
+        <v>31503</v>
+      </c>
+      <c r="B87" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="3">
+        <f t="shared" si="1"/>
+        <v>31594</v>
+      </c>
+      <c r="B88" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="3">
+        <f t="shared" si="1"/>
+        <v>31686</v>
+      </c>
+      <c r="B89" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="3">
+        <f t="shared" si="1"/>
+        <v>31778</v>
+      </c>
+      <c r="B90" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="3">
+        <f t="shared" si="1"/>
+        <v>31868</v>
+      </c>
+      <c r="B91" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="3">
+        <f t="shared" si="1"/>
+        <v>31959</v>
+      </c>
+      <c r="B92" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="3">
+        <f t="shared" si="1"/>
+        <v>32051</v>
+      </c>
+      <c r="B93" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="3">
+        <f t="shared" si="1"/>
+        <v>32143</v>
+      </c>
+      <c r="B94" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="3">
+        <f t="shared" si="1"/>
+        <v>32234</v>
+      </c>
+      <c r="B95" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="3">
+        <f t="shared" si="1"/>
+        <v>32325</v>
+      </c>
+      <c r="B96" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="3">
+        <f t="shared" si="1"/>
+        <v>32417</v>
+      </c>
+      <c r="B97" t="s">
+        <v>261</v>
+      </c>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="3">
+        <f t="shared" si="1"/>
+        <v>32509</v>
+      </c>
+      <c r="B98" t="s">
+        <v>262</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1.12964419337486E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="3">
+        <f t="shared" si="1"/>
+        <v>32599</v>
+      </c>
+      <c r="B99" t="s">
+        <v>263</v>
+      </c>
+      <c r="D99" s="5">
+        <v>1.6035130913053398E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="3">
+        <f t="shared" si="1"/>
+        <v>32690</v>
+      </c>
+      <c r="B100" t="s">
+        <v>264</v>
+      </c>
+      <c r="D100" s="5">
+        <v>7.7884105259173704E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="3">
+        <f t="shared" si="1"/>
+        <v>32782</v>
+      </c>
+      <c r="B101" t="s">
+        <v>265</v>
+      </c>
+      <c r="D101" s="5">
+        <v>1.0114539249883101E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="3">
+        <f t="shared" si="1"/>
+        <v>32874</v>
+      </c>
+      <c r="B102" t="s">
+        <v>266</v>
+      </c>
+      <c r="D102" s="5">
+        <v>1.70675010805133E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="3">
+        <f t="shared" si="1"/>
+        <v>32964</v>
+      </c>
+      <c r="B103" t="s">
+        <v>267</v>
+      </c>
+      <c r="D103" s="5">
+        <v>9.8446390940623504E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="3">
+        <f t="shared" si="1"/>
+        <v>33055</v>
+      </c>
+      <c r="B104" t="s">
+        <v>268</v>
+      </c>
+      <c r="D104" s="5">
+        <v>1.7125019142593598E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="3">
+        <f t="shared" si="1"/>
+        <v>33147</v>
+      </c>
+      <c r="B105" t="s">
+        <v>269</v>
+      </c>
+      <c r="D105" s="5">
+        <v>1.6836683684356101E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="3">
+        <f t="shared" si="1"/>
+        <v>33239</v>
+      </c>
+      <c r="B106" t="s">
+        <v>270</v>
+      </c>
+      <c r="D106" s="5">
+        <v>7.4478993738542002E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="3">
+        <f t="shared" si="1"/>
+        <v>33329</v>
+      </c>
+      <c r="B107" t="s">
+        <v>271</v>
+      </c>
+      <c r="D107" s="5">
+        <v>5.9186362664534796E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="3">
+        <f t="shared" si="1"/>
+        <v>33420</v>
+      </c>
+      <c r="B108" t="s">
+        <v>272</v>
+      </c>
+      <c r="D108" s="5">
+        <v>7.5934228916205203E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="3">
+        <f t="shared" si="1"/>
+        <v>33512</v>
+      </c>
+      <c r="B109" t="s">
+        <v>273</v>
+      </c>
+      <c r="D109" s="5">
+        <v>8.2625014406840693E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="3">
+        <f t="shared" si="1"/>
+        <v>33604</v>
+      </c>
+      <c r="B110" t="s">
+        <v>274</v>
+      </c>
+      <c r="D110" s="5">
+        <v>6.7535230157799199E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="3">
+        <f t="shared" si="1"/>
+        <v>33695</v>
+      </c>
+      <c r="B111" t="s">
+        <v>275</v>
+      </c>
+      <c r="D111" s="5">
+        <v>7.6628727455693097E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="3">
+        <f t="shared" si="1"/>
+        <v>33786</v>
+      </c>
+      <c r="B112" t="s">
+        <v>276</v>
+      </c>
+      <c r="D112" s="5">
+        <v>7.6045993852189896E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="3">
+        <f t="shared" si="1"/>
+        <v>33878</v>
+      </c>
+      <c r="B113" t="s">
+        <v>277</v>
+      </c>
+      <c r="D113" s="5">
+        <v>8.7213281138146595E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="3">
+        <f t="shared" si="1"/>
+        <v>33970</v>
+      </c>
+      <c r="B114" t="s">
+        <v>278</v>
+      </c>
+      <c r="D114" s="5">
+        <v>7.2489502506770196E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="3">
+        <f t="shared" si="1"/>
+        <v>34060</v>
+      </c>
+      <c r="B115" t="s">
+        <v>279</v>
+      </c>
+      <c r="D115" s="5">
+        <v>7.1967809170427098E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="3">
+        <f t="shared" si="1"/>
+        <v>34151</v>
+      </c>
+      <c r="B116" t="s">
+        <v>280</v>
+      </c>
+      <c r="D116" s="5">
+        <v>4.6157478671903099E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="3">
+        <f t="shared" si="1"/>
+        <v>34243</v>
+      </c>
+      <c r="B117" t="s">
+        <v>281</v>
+      </c>
+      <c r="D117" s="5">
+        <v>8.2550342665764897E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="3">
+        <f t="shared" si="1"/>
+        <v>34335</v>
+      </c>
+      <c r="B118" t="s">
+        <v>282</v>
+      </c>
+      <c r="D118" s="5">
+        <v>5.0114000096930502E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="3">
+        <f t="shared" si="1"/>
+        <v>34425</v>
+      </c>
+      <c r="B119" t="s">
+        <v>283</v>
+      </c>
+      <c r="D119" s="5">
+        <v>5.6644537999034298E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="3">
+        <f t="shared" si="1"/>
+        <v>34516</v>
+      </c>
+      <c r="B120" t="s">
+        <v>284</v>
+      </c>
+      <c r="D120" s="5">
+        <v>9.2208007411237695E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="3">
+        <f t="shared" si="1"/>
+        <v>34608</v>
+      </c>
+      <c r="B121" t="s">
+        <v>285</v>
+      </c>
+      <c r="D121" s="5">
+        <v>5.80358771804141E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="3">
+        <f t="shared" si="1"/>
+        <v>34700</v>
+      </c>
+      <c r="B122" t="s">
+        <v>286</v>
+      </c>
+      <c r="D122" s="5">
+        <v>7.3179171233225902E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="3">
+        <f t="shared" si="1"/>
+        <v>34790</v>
+      </c>
+      <c r="B123" t="s">
+        <v>287</v>
+      </c>
+      <c r="D123" s="5">
+        <v>8.1417547339200699E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="3">
+        <f t="shared" si="1"/>
+        <v>34881</v>
+      </c>
+      <c r="B124" t="s">
+        <v>288</v>
+      </c>
+      <c r="D124" s="5">
+        <v>5.0278824904471803E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="3">
+        <f t="shared" si="1"/>
+        <v>34973</v>
+      </c>
+      <c r="B125" t="s">
+        <v>289</v>
+      </c>
+      <c r="D125" s="5">
+        <v>5.4365687888558601E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="3">
+        <f t="shared" si="1"/>
+        <v>35065</v>
+      </c>
+      <c r="B126" t="s">
+        <v>290</v>
+      </c>
+      <c r="D126" s="5">
+        <v>8.8524814318494197E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="3">
+        <f t="shared" si="1"/>
+        <v>35156</v>
+      </c>
+      <c r="B127" t="s">
+        <v>291</v>
+      </c>
+      <c r="D127" s="5">
+        <v>8.5616961348111992E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="3">
+        <f t="shared" si="1"/>
+        <v>35247</v>
+      </c>
+      <c r="B128" t="s">
+        <v>292</v>
+      </c>
+      <c r="D128" s="5">
+        <v>5.7379819530213897E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="3">
+        <f t="shared" si="1"/>
+        <v>35339</v>
+      </c>
+      <c r="B129" t="s">
+        <v>293</v>
+      </c>
+      <c r="D129" s="5">
+        <v>8.6507554990782505E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="3">
+        <f t="shared" si="1"/>
+        <v>35431</v>
+      </c>
+      <c r="B130" t="s">
+        <v>294</v>
+      </c>
+      <c r="D130" s="5">
+        <v>6.0739531171438701E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="3">
+        <f t="shared" si="1"/>
+        <v>35521</v>
+      </c>
+      <c r="B131" t="s">
+        <v>295</v>
+      </c>
+      <c r="D131" s="5">
+        <v>2.29429655337286E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="3">
+        <f t="shared" ref="A132:A169" si="2">DATE(YEAR(A131),MONTH(A131)+3,1)</f>
+        <v>35612</v>
+      </c>
+      <c r="B132" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="D132" s="5">
+        <v>4.9875415110391796E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="3">
         <f t="shared" si="2"/>
         <v>35704</v>
@@ -11119,8 +11689,11 @@
       <c r="B133" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="D133" s="5">
+        <v>5.3752455245074503E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="3">
         <f t="shared" si="2"/>
         <v>35796</v>
@@ -11128,8 +11701,11 @@
       <c r="B134" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="D134" s="5">
+        <v>2.0597329630105601E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="3">
         <f t="shared" si="2"/>
         <v>35886</v>
@@ -11137,8 +11713,11 @@
       <c r="B135" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="D135" s="5">
+        <v>3.2867737066227202E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="3">
         <f t="shared" si="2"/>
         <v>35977</v>
@@ -11146,8 +11725,11 @@
       <c r="B136" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="D136" s="5">
+        <v>5.1140543083854203E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="3">
         <f t="shared" si="2"/>
         <v>36069</v>
@@ -11155,8 +11737,11 @@
       <c r="B137" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="D137" s="5">
+        <v>4.6819423947965701E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="3">
         <f t="shared" si="2"/>
         <v>36161</v>
@@ -11164,8 +11749,11 @@
       <c r="B138" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="D138" s="5">
+        <v>3.6488992442112599E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="3">
         <f t="shared" si="2"/>
         <v>36251</v>
@@ -11173,8 +11761,11 @@
       <c r="B139" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="D139" s="5">
+        <v>7.4589600936274796E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="3">
         <f t="shared" si="2"/>
         <v>36342</v>
@@ -11182,8 +11773,11 @@
       <c r="B140" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="D140" s="5">
+        <v>7.4037356705738498E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="3">
         <f t="shared" si="2"/>
         <v>36434</v>
@@ -11191,8 +11785,11 @@
       <c r="B141" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="D141" s="5">
+        <v>7.3493229791519402E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="3">
         <f t="shared" si="2"/>
         <v>36526</v>
@@ -11200,8 +11797,11 @@
       <c r="B142" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
+      <c r="D142" s="5">
+        <v>9.8464757720627995E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="3">
         <f t="shared" si="2"/>
         <v>36617</v>
@@ -11209,8 +11809,11 @@
       <c r="B143" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="D143" s="5">
+        <v>7.8079647109447203E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="3">
         <f t="shared" si="2"/>
         <v>36708</v>
@@ -11218,8 +11821,11 @@
       <c r="B144" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="D144" s="5">
+        <v>9.0971303850181807E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="3">
         <f t="shared" si="2"/>
         <v>36800</v>
@@ -11227,8 +11833,11 @@
       <c r="B145" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
+      <c r="D145" s="5">
+        <v>7.1038025529875596E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="3">
         <f t="shared" si="2"/>
         <v>36892</v>
@@ -11236,8 +11845,11 @@
       <c r="B146" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="D146" s="5">
+        <v>9.5202546927458994E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="3">
         <f t="shared" si="2"/>
         <v>36982</v>
@@ -11245,8 +11857,11 @@
       <c r="B147" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
+      <c r="D147" s="5">
+        <v>6.9870929140910896E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="3">
         <f t="shared" si="2"/>
         <v>37073</v>
@@ -11254,8 +11869,11 @@
       <c r="B148" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="D148" s="5">
+        <v>2.8187559770233199E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="3">
         <f t="shared" si="2"/>
         <v>37165</v>
@@ -11263,8 +11881,11 @@
       <c r="B149" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
+      <c r="D149" s="5">
+        <v>-7.5089171915637904E-4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="3">
         <f t="shared" si="2"/>
         <v>37257</v>
@@ -11272,8 +11893,11 @@
       <c r="B150" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
+      <c r="D150" s="5">
+        <v>3.1874030922803701E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="3">
         <f t="shared" si="2"/>
         <v>37347</v>
@@ -11281,8 +11905,11 @@
       <c r="B151" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="D151" s="5">
+        <v>7.8314776546573404E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="3">
         <f t="shared" si="2"/>
         <v>37438</v>
@@ -11290,8 +11917,11 @@
       <c r="B152" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="D152" s="5">
+        <v>5.3718754724139204E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="3">
         <f t="shared" si="2"/>
         <v>37530</v>
@@ -11299,8 +11929,11 @@
       <c r="B153" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="D153" s="5">
+        <v>5.8942885700831102E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="3">
         <f t="shared" si="2"/>
         <v>37622</v>
@@ -11308,8 +11941,11 @@
       <c r="B154" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="D154" s="5">
+        <v>1.02321375083972E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="3">
         <f t="shared" si="2"/>
         <v>37712</v>
@@ -11317,8 +11953,11 @@
       <c r="B155" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
+      <c r="D155" s="5">
+        <v>-1.6374059875962699E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="3">
         <f t="shared" si="2"/>
         <v>37803</v>
@@ -11326,8 +11965,11 @@
       <c r="B156" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
+      <c r="D156" s="5">
+        <v>7.4376760102478501E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="3">
         <f t="shared" si="2"/>
         <v>37895</v>
@@ -11335,8 +11977,11 @@
       <c r="B157" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="D157" s="5">
+        <v>3.7882249686351801E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="3">
         <f t="shared" si="2"/>
         <v>37987</v>
@@ -11344,8 +11989,11 @@
       <c r="B158" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
+      <c r="D158" s="5">
+        <v>8.4267643430874801E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="3">
         <f t="shared" si="2"/>
         <v>38078</v>
@@ -11353,8 +12001,11 @@
       <c r="B159" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
+      <c r="D159" s="5">
+        <v>7.8250443739298903E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="3">
         <f t="shared" si="2"/>
         <v>38169</v>
@@ -11362,8 +12013,11 @@
       <c r="B160" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
+      <c r="D160" s="5">
+        <v>6.3570759733645402E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="3">
         <f t="shared" si="2"/>
         <v>38261</v>
@@ -11371,8 +12025,11 @@
       <c r="B161" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
+      <c r="D161" s="5">
+        <v>1.0680308123882499E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="3">
         <f t="shared" si="2"/>
         <v>38353</v>
@@ -11380,8 +12037,11 @@
       <c r="B162" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
+      <c r="D162" s="5">
+        <v>5.3842943799245098E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="3">
         <f t="shared" si="2"/>
         <v>38443</v>
@@ -11389,8 +12049,11 @@
       <c r="B163" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
+      <c r="D163" s="5">
+        <v>6.2165629315987401E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="3">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -11398,8 +12061,11 @@
       <c r="B164" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
+      <c r="D164" s="5">
+        <v>1.45264453051076E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="3">
         <f t="shared" si="2"/>
         <v>38626</v>
@@ -11407,8 +12073,11 @@
       <c r="B165" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
+      <c r="D165" s="5">
+        <v>1.0967797449338901E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="3">
         <f t="shared" si="2"/>
         <v>38718</v>
@@ -11416,8 +12085,11 @@
       <c r="B166" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
+      <c r="D166" s="5">
+        <v>4.6877701783731799E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="3">
         <f t="shared" si="2"/>
         <v>38808</v>
@@ -11425,8 +12097,11 @@
       <c r="B167" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
+      <c r="D167" s="5">
+        <v>8.3167478710740803E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="3">
         <f t="shared" si="2"/>
         <v>38899</v>
@@ -11434,14 +12109,50 @@
       <c r="B168" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
+      <c r="D168" s="5">
+        <v>8.9050720400581599E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="3">
         <f t="shared" si="2"/>
         <v>38991</v>
       </c>
       <c r="B169" t="s">
         <v>333</v>
+      </c>
+      <c r="D169" s="5">
+        <v>-2.63028262773523E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="D170" s="5">
+        <v>9.4677958396400894E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="D171" s="5">
+        <v>1.02944852863943E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="D172" s="5">
+        <v>5.8172210084160196E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="D173" s="5">
+        <v>1.40146772007453E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="D174" s="5">
+        <v>1.09925280299703E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="D175" s="5">
+        <v>1.0976713534963999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11453,8 +12164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CA5772-CBF1-405B-BD80-B5D398DB47C5}">
   <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>

--- a/reference/IN10/data_comparison_IN09.xlsx
+++ b/reference/IN10/data_comparison_IN09.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Documents\temp\IN10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Documents\GitHub\MMB_forecast_application\reference\IN10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EDBC35-A043-48C9-98E5-48B6D8B3BE8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC58BF55-9525-4FC4-8216-9FA7243DB81F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="843" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="70" windowWidth="18810" windowHeight="10270" tabRatio="843" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_req" sheetId="21" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="162">
   <si>
     <t>paper</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>data</t>
-  </si>
-  <si>
-    <t>Quaterly change of CES0500000008</t>
   </si>
   <si>
     <t>value</t>
@@ -589,6 +586,21 @@
   </si>
   <si>
     <t>Observation name</t>
+  </si>
+  <si>
+    <t>TB3MS</t>
+  </si>
+  <si>
+    <t>i_nom_obs</t>
+  </si>
+  <si>
+    <t>Quaterly change of AHETPI</t>
+  </si>
+  <si>
+    <t>pyth</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -37770,216 +37782,216 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>24</v>
@@ -37988,386 +38000,386 @@
         <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -38406,10 +38418,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -41106,7 +41118,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AB169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -41127,21 +41139,21 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="T1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16" thickBot="1">
@@ -41185,7 +41197,7 @@
         <v>-3.601185324968195E-3</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U3" s="13"/>
     </row>
@@ -41210,7 +41222,7 @@
         <v>-3.659016371581694E-3</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U4" s="10">
         <v>0.95746582328615926</v>
@@ -41237,7 +41249,7 @@
         <v>-3.7159777660119258E-3</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U5" s="10">
         <v>0.91674080276104275</v>
@@ -41264,7 +41276,7 @@
         <v>-6.1509581914056394E-5</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U6" s="10">
         <v>0.91623924133189238</v>
@@ -41291,7 +41303,7 @@
         <v>-1.8497399345437579E-4</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U7" s="10">
         <v>1.4820632346398345E-3</v>
@@ -41318,7 +41330,7 @@
         <v>-3.0573964784927007E-4</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U8" s="11">
         <v>168</v>
@@ -41366,7 +41378,7 @@
         <v>-5.0125453693036434E-4</v>
       </c>
       <c r="T10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -41391,19 +41403,19 @@
       </c>
       <c r="T11" s="12"/>
       <c r="U11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="V11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="V11" s="12" t="s">
+      <c r="W11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="W11" s="12" t="s">
+      <c r="X11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="X11" s="12" t="s">
+      <c r="Y11" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="Y11" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -41427,7 +41439,7 @@
         <v>-7.6351031274398892E-4</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U12" s="10">
         <v>1</v>
@@ -41466,7 +41478,7 @@
         <v>2.5585119522965362E-3</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U13" s="10">
         <v>166</v>
@@ -41501,7 +41513,7 @@
         <v>5.743526354378501E-3</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U14" s="11">
         <v>167</v>
@@ -41556,28 +41568,28 @@
       </c>
       <c r="T16" s="12"/>
       <c r="U16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="W16" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="V16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="W16" s="12" t="s">
+      <c r="X16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="X16" s="12" t="s">
+      <c r="Y16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Y16" s="12" t="s">
+      <c r="Z16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="Z16" s="12" t="s">
+      <c r="AA16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AA16" s="12" t="s">
+      <c r="AB16" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="AB16" s="12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -41601,7 +41613,7 @@
         <v>1.71035441199777E-3</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U17" s="10">
         <v>5.5786023715570328E-8</v>
@@ -41649,7 +41661,7 @@
         <v>4.7144912276385932E-3</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U18" s="11">
         <v>0.93720519839115568</v>
@@ -41781,7 +41793,7 @@
         <v>5.9964746696353557E-4</v>
       </c>
       <c r="T23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="16" thickBot="1">
@@ -41826,7 +41838,7 @@
         <v>3.1539272720603512E-3</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U25" s="13"/>
     </row>
@@ -41851,7 +41863,7 @@
         <v>5.7627661885316962E-3</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U26" s="10">
         <v>0.85997546714070894</v>
@@ -41878,7 +41890,7 @@
         <v>5.4786707937012659E-3</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U27" s="10">
         <v>0.73955780408388061</v>
@@ -41905,7 +41917,7 @@
         <v>2.4828260487598538E-3</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U28" s="10">
         <v>0.73798887519281964</v>
@@ -41932,7 +41944,7 @@
         <v>4.9817614092059516E-3</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U29" s="10">
         <v>2.7267741412654979E-3</v>
@@ -41959,7 +41971,7 @@
         <v>1.7829322763872089E-2</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U30" s="11">
         <v>168</v>
@@ -42007,7 +42019,7 @@
         <v>4.1107594946211724E-3</v>
       </c>
       <c r="T32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -42032,19 +42044,19 @@
       </c>
       <c r="T33" s="12"/>
       <c r="U33" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="V33" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="V33" s="12" t="s">
+      <c r="W33" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="W33" s="12" t="s">
+      <c r="X33" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="X33" s="12" t="s">
+      <c r="Y33" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="Y33" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -42068,7 +42080,7 @@
         <v>3.6538023137112942E-3</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U34" s="10">
         <v>1</v>
@@ -42107,7 +42119,7 @@
         <v>3.4353795677545579E-3</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U35" s="10">
         <v>166</v>
@@ -42142,7 +42154,7 @@
         <v>7.9965517478483329E-3</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U36" s="11">
         <v>167</v>
@@ -42197,28 +42209,28 @@
       </c>
       <c r="T38" s="12"/>
       <c r="U38" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="V38" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="W38" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="V38" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="W38" s="12" t="s">
+      <c r="X38" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="X38" s="12" t="s">
+      <c r="Y38" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Y38" s="12" t="s">
+      <c r="Z38" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="Z38" s="12" t="s">
+      <c r="AA38" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AA38" s="12" t="s">
+      <c r="AB38" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="AB38" s="12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -42242,7 +42254,7 @@
         <v>1.616416400807533E-2</v>
       </c>
       <c r="T39" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U39" s="10">
         <v>5.2123198343844541E-8</v>
@@ -42290,7 +42302,7 @@
         <v>8.8327528707698201E-3</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U40" s="11">
         <v>0.87566973223975153</v>
@@ -42464,7 +42476,7 @@
         <v>4.7975973510096283E-3</v>
       </c>
       <c r="T47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="16" thickBot="1">
@@ -42509,7 +42521,7 @@
         <v>6.1233884297186326E-3</v>
       </c>
       <c r="T49" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U49" s="13"/>
     </row>
@@ -42534,7 +42546,7 @@
         <v>5.8272150966821902E-3</v>
       </c>
       <c r="T50" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U50" s="10">
         <v>0.96715450855290797</v>
@@ -42561,7 +42573,7 @@
         <v>7.3877019179623728E-3</v>
       </c>
       <c r="T51" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U51" s="10">
         <v>0.93538784341421688</v>
@@ -42588,7 +42600,7 @@
         <v>5.2339975332288714E-3</v>
       </c>
       <c r="T52" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U52" s="10">
         <v>0.93499861355526637</v>
@@ -42615,7 +42627,7 @@
         <v>6.7512861897426647E-3</v>
       </c>
       <c r="T53" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U53" s="10">
         <v>1.317846247359377E-3</v>
@@ -42642,7 +42654,7 @@
         <v>9.9300010120039507E-3</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U54" s="11">
         <v>168</v>
@@ -42690,7 +42702,7 @@
         <v>7.3625136355501032E-3</v>
       </c>
       <c r="T56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -42715,19 +42727,19 @@
       </c>
       <c r="T57" s="12"/>
       <c r="U57" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="V57" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="V57" s="12" t="s">
+      <c r="W57" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="W57" s="12" t="s">
+      <c r="X57" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="X57" s="12" t="s">
+      <c r="Y57" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="Y57" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -42751,7 +42763,7 @@
         <v>8.2463253917831915E-3</v>
       </c>
       <c r="T58" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U58" s="10">
         <v>1</v>
@@ -42790,7 +42802,7 @@
         <v>4.7144912276388153E-3</v>
       </c>
       <c r="T59" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U59" s="10">
         <v>166</v>
@@ -42825,7 +42837,7 @@
         <v>9.1261124688756558E-3</v>
       </c>
       <c r="T60" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U60" s="11">
         <v>167</v>
@@ -42880,28 +42892,28 @@
       </c>
       <c r="T62" s="12"/>
       <c r="U62" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="V62" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="W62" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="V62" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="W62" s="12" t="s">
+      <c r="X62" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="X62" s="12" t="s">
+      <c r="Y62" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Y62" s="12" t="s">
+      <c r="Z62" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="Z62" s="12" t="s">
+      <c r="AA62" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AA62" s="12" t="s">
+      <c r="AB62" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="AB62" s="12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -42925,7 +42937,7 @@
         <v>8.0107875351943837E-3</v>
       </c>
       <c r="T63" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U63" s="10">
         <v>5.6879397640813327E-8</v>
@@ -42973,7 +42985,7 @@
         <v>7.6473775412907764E-3</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U64" s="11">
         <v>0.95557388029640755</v>
@@ -45231,17 +45243,17 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="6"/>
       <c r="O1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16" thickBot="1">
@@ -45273,7 +45285,7 @@
         <v>1.39669991198442E-3</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P3" s="13"/>
     </row>
@@ -45292,7 +45304,7 @@
         <v>-4.9314492481101896E-3</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P4" s="10">
         <v>0.87077305261036464</v>
@@ -45313,7 +45325,7 @@
         <v>4.2186358207364364E-3</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P5" s="10">
         <v>0.75824570915237277</v>
@@ -45334,7 +45346,7 @@
         <v>9.78711191593859E-4</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" s="10">
         <v>0.75678935800268832</v>
@@ -45355,7 +45367,7 @@
         <v>1.266799935296779E-2</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P7" s="10">
         <v>4.0830270435571123E-3</v>
@@ -45376,7 +45388,7 @@
         <v>5.5339042244050007E-4</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P8" s="11">
         <v>168</v>
@@ -45412,7 +45424,7 @@
         <v>2.860464828718795E-4</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -45431,19 +45443,19 @@
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="R11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="S11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="T11" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -45461,7 +45473,7 @@
         <v>1.3686212313119049E-2</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P12" s="10">
         <v>1</v>
@@ -45494,7 +45506,7 @@
         <v>7.7513000192109688E-3</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P13" s="10">
         <v>166</v>
@@ -45523,7 +45535,7 @@
         <v>1.0022161851292221E-2</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P14" s="11">
         <v>167</v>
@@ -45566,28 +45578,28 @@
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="Q16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="R16" s="12" t="s">
+      <c r="S16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="S16" s="12" t="s">
+      <c r="T16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="T16" s="12" t="s">
+      <c r="U16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="U16" s="12" t="s">
+      <c r="V16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="V16" s="12" t="s">
+      <c r="W16" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -45605,7 +45617,7 @@
         <v>1.144300330799829E-2</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P17" s="10">
         <v>-3.809523809588614E-7</v>
@@ -45647,7 +45659,7 @@
         <v>6.077948410919562E-3</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="11">
         <v>0.94008728899106764</v>
@@ -47949,10 +47961,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D882F8E-632E-4C81-9334-59FF67DD699E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -47961,9 +47973,9 @@
     <col min="4" max="4" width="45.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -47975,12 +47987,15 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -47992,12 +48007,15 @@
         <v>27</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>35</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -48009,12 +48027,15 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -48026,12 +48047,12 @@
         <v>28</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -48043,12 +48064,12 @@
         <v>30</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -48057,15 +48078,18 @@
         <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>70</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -48074,15 +48098,18 @@
         <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -48094,12 +48121,12 @@
         <v>25</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -48108,15 +48135,18 @@
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -48125,15 +48155,18 @@
         <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -48142,10 +48175,13 @@
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -48175,7 +48211,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -50311,7 +50347,7 @@
         <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -53066,7 +53102,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -55114,7 +55150,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -57161,7 +57197,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -59208,7 +59244,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -61927,10 +61963,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/reference/IN10/data_comparison_IN09.xlsx
+++ b/reference/IN10/data_comparison_IN09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Documents\GitHub\MMB_forecast_application\reference\IN10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC58BF55-9525-4FC4-8216-9FA7243DB81F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E6B874-E1C2-41F8-91CC-125B86569C43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="70" windowWidth="18810" windowHeight="10270" tabRatio="843" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="60" windowWidth="17230" windowHeight="10270" tabRatio="843" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_req" sheetId="21" r:id="rId1"/>
@@ -129,25 +129,10 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>PCEC96/CNP160V</t>
-  </si>
-  <si>
-    <t>PRFIC1/CNP160V</t>
-  </si>
-  <si>
-    <t>CPIAUCSL</t>
-  </si>
-  <si>
-    <t>PNFIC1/CNP160V</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>(PAYEMS - USCONS)*AWHMAN/CNP16OV  -&gt; demean</t>
   </si>
   <si>
     <t>ind</t>
@@ -160,9 +145,6 @@
   </si>
   <si>
     <t>successful</t>
-  </si>
-  <si>
-    <t>Quaterly change of CES2000000008</t>
   </si>
   <si>
     <t>paper_modified</t>
@@ -241,9 +223,6 @@
   </si>
   <si>
     <t>Upper 95.0%</t>
-  </si>
-  <si>
-    <t>USCONS*CES2000000007/CNP16OV -&gt; demean</t>
   </si>
   <si>
     <t>paper_modify</t>
@@ -588,19 +567,40 @@
     <t>Observation name</t>
   </si>
   <si>
-    <t>TB3MS</t>
-  </si>
-  <si>
     <t>i_nom_obs</t>
-  </si>
-  <si>
-    <t>Quaterly change of AHETPI</t>
   </si>
   <si>
     <t>pyth</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ΔLN(PCEC96/CNP16OV) - first value of ΔLN(PCEC96/CNP16OV) </t>
+  </si>
+  <si>
+    <t>ΔLN(DTB3) - mean ΔLN(DTB3)</t>
+  </si>
+  <si>
+    <t>LN((PAYEMS-USCONS)*AWHMAN/CNP16OV) - mean(LN((PAYEMS-USCONS)*AWHMAN/CNP16OV))</t>
+  </si>
+  <si>
+    <t>LN(USCONS*CES2000000007/CNP16OV) - mean(LN(USCONS*CES2000000007/CNP16OV))</t>
+  </si>
+  <si>
+    <t>TB3MS/400 - mean (TB3MS/400)</t>
+  </si>
+  <si>
+    <t>ΔLN(CES2000000008) - mean（ ΔLN(CES2000000008)）</t>
+  </si>
+  <si>
+    <t>ΔLN(AHETPI) - mean（ ΔLN(AHETPI)）</t>
+  </si>
+  <si>
+    <t>LN(PRFIC1/CNP160V) - first value of LN(PRFIC1/CNP16OV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN(PNFIC1/CNP160V) - first value of LN(PNFIC1/CNP16OV) </t>
   </si>
 </sst>
 </file>
@@ -37782,216 +37782,216 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="18" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>24</v>
@@ -38000,386 +38000,386 @@
         <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -38418,10 +38418,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -41139,21 +41139,21 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="T1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16" thickBot="1">
@@ -41197,7 +41197,7 @@
         <v>-3.601185324968195E-3</v>
       </c>
       <c r="T3" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="U3" s="13"/>
     </row>
@@ -41222,7 +41222,7 @@
         <v>-3.659016371581694E-3</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="U4" s="10">
         <v>0.95746582328615926</v>
@@ -41249,7 +41249,7 @@
         <v>-3.7159777660119258E-3</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="U5" s="10">
         <v>0.91674080276104275</v>
@@ -41276,7 +41276,7 @@
         <v>-6.1509581914056394E-5</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="U6" s="10">
         <v>0.91623924133189238</v>
@@ -41303,7 +41303,7 @@
         <v>-1.8497399345437579E-4</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="U7" s="10">
         <v>1.4820632346398345E-3</v>
@@ -41330,7 +41330,7 @@
         <v>-3.0573964784927007E-4</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="U8" s="11">
         <v>168</v>
@@ -41378,7 +41378,7 @@
         <v>-5.0125453693036434E-4</v>
       </c>
       <c r="T10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -41403,19 +41403,19 @@
       </c>
       <c r="T11" s="12"/>
       <c r="U11" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="X11" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Y11" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -41439,7 +41439,7 @@
         <v>-7.6351031274398892E-4</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="U12" s="10">
         <v>1</v>
@@ -41478,7 +41478,7 @@
         <v>2.5585119522965362E-3</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="U13" s="10">
         <v>166</v>
@@ -41513,7 +41513,7 @@
         <v>5.743526354378501E-3</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="U14" s="11">
         <v>167</v>
@@ -41568,28 +41568,28 @@
       </c>
       <c r="T16" s="12"/>
       <c r="U16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB16" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="X16" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z16" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB16" s="12" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -41613,7 +41613,7 @@
         <v>1.71035441199777E-3</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="U17" s="10">
         <v>5.5786023715570328E-8</v>
@@ -41661,7 +41661,7 @@
         <v>4.7144912276385932E-3</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="U18" s="11">
         <v>0.93720519839115568</v>
@@ -41793,7 +41793,7 @@
         <v>5.9964746696353557E-4</v>
       </c>
       <c r="T23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="16" thickBot="1">
@@ -41838,7 +41838,7 @@
         <v>3.1539272720603512E-3</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="U25" s="13"/>
     </row>
@@ -41863,7 +41863,7 @@
         <v>5.7627661885316962E-3</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="U26" s="10">
         <v>0.85997546714070894</v>
@@ -41890,7 +41890,7 @@
         <v>5.4786707937012659E-3</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="U27" s="10">
         <v>0.73955780408388061</v>
@@ -41917,7 +41917,7 @@
         <v>2.4828260487598538E-3</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="U28" s="10">
         <v>0.73798887519281964</v>
@@ -41944,7 +41944,7 @@
         <v>4.9817614092059516E-3</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="U29" s="10">
         <v>2.7267741412654979E-3</v>
@@ -41971,7 +41971,7 @@
         <v>1.7829322763872089E-2</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="U30" s="11">
         <v>168</v>
@@ -42019,7 +42019,7 @@
         <v>4.1107594946211724E-3</v>
       </c>
       <c r="T32" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -42044,19 +42044,19 @@
       </c>
       <c r="T33" s="12"/>
       <c r="U33" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V33" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W33" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="X33" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Y33" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -42080,7 +42080,7 @@
         <v>3.6538023137112942E-3</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="U34" s="10">
         <v>1</v>
@@ -42119,7 +42119,7 @@
         <v>3.4353795677545579E-3</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="U35" s="10">
         <v>166</v>
@@ -42154,7 +42154,7 @@
         <v>7.9965517478483329E-3</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="U36" s="11">
         <v>167</v>
@@ -42209,28 +42209,28 @@
       </c>
       <c r="T38" s="12"/>
       <c r="U38" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="V38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W38" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X38" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y38" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z38" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA38" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB38" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="V38" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="W38" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="X38" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y38" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z38" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA38" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB38" s="12" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -42254,7 +42254,7 @@
         <v>1.616416400807533E-2</v>
       </c>
       <c r="T39" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="U39" s="10">
         <v>5.2123198343844541E-8</v>
@@ -42302,7 +42302,7 @@
         <v>8.8327528707698201E-3</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="U40" s="11">
         <v>0.87566973223975153</v>
@@ -42476,7 +42476,7 @@
         <v>4.7975973510096283E-3</v>
       </c>
       <c r="T47" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="16" thickBot="1">
@@ -42521,7 +42521,7 @@
         <v>6.1233884297186326E-3</v>
       </c>
       <c r="T49" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="U49" s="13"/>
     </row>
@@ -42546,7 +42546,7 @@
         <v>5.8272150966821902E-3</v>
       </c>
       <c r="T50" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="U50" s="10">
         <v>0.96715450855290797</v>
@@ -42573,7 +42573,7 @@
         <v>7.3877019179623728E-3</v>
       </c>
       <c r="T51" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="U51" s="10">
         <v>0.93538784341421688</v>
@@ -42600,7 +42600,7 @@
         <v>5.2339975332288714E-3</v>
       </c>
       <c r="T52" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="U52" s="10">
         <v>0.93499861355526637</v>
@@ -42627,7 +42627,7 @@
         <v>6.7512861897426647E-3</v>
       </c>
       <c r="T53" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="U53" s="10">
         <v>1.317846247359377E-3</v>
@@ -42654,7 +42654,7 @@
         <v>9.9300010120039507E-3</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="U54" s="11">
         <v>168</v>
@@ -42702,7 +42702,7 @@
         <v>7.3625136355501032E-3</v>
       </c>
       <c r="T56" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -42727,19 +42727,19 @@
       </c>
       <c r="T57" s="12"/>
       <c r="U57" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V57" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W57" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="X57" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Y57" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -42763,7 +42763,7 @@
         <v>8.2463253917831915E-3</v>
       </c>
       <c r="T58" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="U58" s="10">
         <v>1</v>
@@ -42802,7 +42802,7 @@
         <v>4.7144912276388153E-3</v>
       </c>
       <c r="T59" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="U59" s="10">
         <v>166</v>
@@ -42837,7 +42837,7 @@
         <v>9.1261124688756558E-3</v>
       </c>
       <c r="T60" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="U60" s="11">
         <v>167</v>
@@ -42892,28 +42892,28 @@
       </c>
       <c r="T62" s="12"/>
       <c r="U62" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="V62" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W62" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X62" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y62" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z62" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA62" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB62" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="V62" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="W62" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="X62" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y62" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z62" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA62" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB62" s="12" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -42937,7 +42937,7 @@
         <v>8.0107875351943837E-3</v>
       </c>
       <c r="T63" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="U63" s="10">
         <v>5.6879397640813327E-8</v>
@@ -42985,7 +42985,7 @@
         <v>7.6473775412907764E-3</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="U64" s="11">
         <v>0.95557388029640755</v>
@@ -45243,17 +45243,17 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E1" s="6"/>
       <c r="O1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16" thickBot="1">
@@ -45285,7 +45285,7 @@
         <v>1.39669991198442E-3</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="P3" s="13"/>
     </row>
@@ -45304,7 +45304,7 @@
         <v>-4.9314492481101896E-3</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P4" s="10">
         <v>0.87077305261036464</v>
@@ -45325,7 +45325,7 @@
         <v>4.2186358207364364E-3</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="P5" s="10">
         <v>0.75824570915237277</v>
@@ -45346,7 +45346,7 @@
         <v>9.78711191593859E-4</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="P6" s="10">
         <v>0.75678935800268832</v>
@@ -45367,7 +45367,7 @@
         <v>1.266799935296779E-2</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P7" s="10">
         <v>4.0830270435571123E-3</v>
@@ -45388,7 +45388,7 @@
         <v>5.5339042244050007E-4</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="P8" s="11">
         <v>168</v>
@@ -45424,7 +45424,7 @@
         <v>2.860464828718795E-4</v>
       </c>
       <c r="O10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -45443,19 +45443,19 @@
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -45473,7 +45473,7 @@
         <v>1.3686212313119049E-2</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P12" s="10">
         <v>1</v>
@@ -45506,7 +45506,7 @@
         <v>7.7513000192109688E-3</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P13" s="10">
         <v>166</v>
@@ -45535,7 +45535,7 @@
         <v>1.0022161851292221E-2</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P14" s="11">
         <v>167</v>
@@ -45578,28 +45578,28 @@
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W16" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="U16" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -45617,7 +45617,7 @@
         <v>1.144300330799829E-2</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P17" s="10">
         <v>-3.809523809588614E-7</v>
@@ -45659,7 +45659,7 @@
         <v>6.077948410919562E-3</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P18" s="11">
         <v>0.94008728899106764</v>
@@ -47963,8 +47963,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -47975,7 +47975,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -47987,15 +47987,15 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -48004,18 +48004,18 @@
         <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -48024,18 +48024,18 @@
         <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -48044,15 +48044,15 @@
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -48061,15 +48061,15 @@
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -48078,18 +48078,18 @@
         <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -48098,18 +48098,18 @@
         <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -48121,12 +48121,12 @@
         <v>25</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -48138,15 +48138,15 @@
         <v>157</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -48158,15 +48158,15 @@
         <v>159</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -48175,13 +48175,13 @@
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -48211,7 +48211,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -50344,10 +50344,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -53102,7 +53102,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -55150,7 +55150,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -57197,7 +57197,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -59244,7 +59244,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -61963,10 +61963,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/reference/IN10/data_comparison_IN09.xlsx
+++ b/reference/IN10/data_comparison_IN09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Documents\GitHub\MMB_forecast_application\reference\IN10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E6B874-E1C2-41F8-91CC-125B86569C43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E8CC49-F1DB-45CF-B603-21BC5B384AF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="60" windowWidth="17230" windowHeight="10270" tabRatio="843" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="70" windowWidth="17230" windowHeight="10270" tabRatio="843" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_req" sheetId="21" r:id="rId1"/>
@@ -47963,8 +47963,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -57179,7 +57179,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>

--- a/reference/IN10/data_comparison_IN09.xlsx
+++ b/reference/IN10/data_comparison_IN09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Documents\GitHub\MMB_forecast_application\reference\IN10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E8CC49-F1DB-45CF-B603-21BC5B384AF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E6B874-E1C2-41F8-91CC-125B86569C43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="70" windowWidth="17230" windowHeight="10270" tabRatio="843" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="60" windowWidth="17230" windowHeight="10270" tabRatio="843" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_req" sheetId="21" r:id="rId1"/>
@@ -47963,8 +47963,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -57179,7 +57179,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>

--- a/reference/IN10/data_comparison_IN09.xlsx
+++ b/reference/IN10/data_comparison_IN09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Documents\GitHub\MMB_forecast_application\reference\IN10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E8CC49-F1DB-45CF-B603-21BC5B384AF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF3124D-5A9D-4316-9908-2FC9407C2086}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="70" windowWidth="17230" windowHeight="10270" tabRatio="843" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2600" yWindow="350" windowWidth="15420" windowHeight="10270" tabRatio="843" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_req" sheetId="21" r:id="rId1"/>
@@ -37766,7 +37766,9 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
@@ -47963,8 +47965,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -57179,7 +57181,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>

--- a/reference/IN10/data_comparison_IN09.xlsx
+++ b/reference/IN10/data_comparison_IN09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Documents\GitHub\MMB_forecast_application\reference\IN10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E6B874-E1C2-41F8-91CC-125B86569C43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD3C585-B018-43A8-A35D-FE228BD29125}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="60" windowWidth="17230" windowHeight="10270" tabRatio="843" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3820" yWindow="370" windowWidth="12040" windowHeight="10270" tabRatio="843" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_req" sheetId="21" r:id="rId1"/>
@@ -37128,16 +37128,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>545353</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>51546</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>478118</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>103840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>194234</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>97118</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>149412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37766,7 +37766,9 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
@@ -41118,7 +41120,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AB169"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -47963,7 +47965,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -50324,10 +50326,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7693EA81-6C81-414A-9065-D26F88AEF5E1}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -50336,7 +50338,7 @@
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -50350,7 +50352,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>23743</v>
       </c>
@@ -50364,8 +50366,11 @@
         <f>B2-C2</f>
         <v>-5.0699999999999999E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="4">
+        <v>5.2888059366550423E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <f>DATE(YEAR(A2),MONTH(A2)+3,1)</f>
         <v>23833</v>
@@ -50380,8 +50385,11 @@
         <f t="shared" ref="D3:D66" si="0">B3-C3</f>
         <v>3.0185313191644775E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="4">
+        <v>-5.9966538428517253E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A67" si="1">DATE(YEAR(A3),MONTH(A3)+3,1)</f>
         <v>23924</v>
@@ -50396,8 +50404,11 @@
         <f t="shared" si="0"/>
         <v>3.0639227889230763E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="4">
+        <v>-3.4256122795985619E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>24016</v>
@@ -50412,8 +50423,11 @@
         <f t="shared" si="0"/>
         <v>3.0185106981198487E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="4">
+        <v>7.3020587227784289E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>24108</v>
@@ -50428,8 +50442,11 @@
         <f t="shared" si="0"/>
         <v>3.003744006237815E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="4">
+        <v>9.940854240025912E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>24198</v>
@@ -50444,8 +50461,11 @@
         <f t="shared" si="0"/>
         <v>3.0383952961961008E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="4">
+        <v>-6.7772721396215114E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>24289</v>
@@ -50460,8 +50480,11 @@
         <f t="shared" si="0"/>
         <v>3.0756132244197853E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="4">
+        <v>9.3210736326914595E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>24381</v>
@@ -50476,8 +50499,11 @@
         <f t="shared" si="0"/>
         <v>3.0131014092965158E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="4">
+        <v>3.080965766496838E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>24473</v>
@@ -50492,8 +50518,11 @@
         <f t="shared" si="0"/>
         <v>3.0347534556622938E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="4">
+        <v>-0.14524683591740881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>24563</v>
@@ -50508,8 +50537,11 @@
         <f t="shared" si="0"/>
         <v>3.0624831198144964E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="4">
+        <v>-0.21127579037089639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>24654</v>
@@ -50524,8 +50556,11 @@
         <f t="shared" si="0"/>
         <v>3.0834453550789898E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="4">
+        <v>0.1594489163180895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>24746</v>
@@ -50540,8 +50575,11 @@
         <f t="shared" si="0"/>
         <v>2.9991287856628526E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="4">
+        <v>9.8528144650371213E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>24838</v>
@@ -50556,8 +50594,11 @@
         <f t="shared" si="0"/>
         <v>3.0412363675929059E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="4">
+        <v>5.8839158001075892E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>24929</v>
@@ -50572,8 +50613,11 @@
         <f t="shared" si="0"/>
         <v>3.0585261573656906E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="4">
+        <v>8.7286658033583181E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>25020</v>
@@ -50588,8 +50632,11 @@
         <f t="shared" si="0"/>
         <v>3.0706302976141707E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="4">
+        <v>-6.2063424855580668E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>25112</v>
@@ -50604,8 +50651,11 @@
         <f t="shared" si="0"/>
         <v>3.0008318144545201E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="4">
+        <v>7.0662453016099552E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>25204</v>
@@ -50620,8 +50670,11 @@
         <f t="shared" si="0"/>
         <v>3.0602881932600967E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="4">
+        <v>8.5109512003914728E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>25294</v>
@@ -50636,8 +50689,11 @@
         <f t="shared" si="0"/>
         <v>3.0539251296747734E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="4">
+        <v>1.5113276739196411E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>25385</v>
@@ -50652,8 +50708,11 @@
         <f t="shared" si="0"/>
         <v>3.0138820549556987E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="4">
+        <v>0.1235234671145926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>25477</v>
@@ -50668,8 +50727,11 @@
         <f t="shared" si="0"/>
         <v>3.0323806469759965E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="4">
+        <v>4.4212827041106663E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>25569</v>
@@ -50684,8 +50746,11 @@
         <f t="shared" si="0"/>
         <v>3.0161499449433103E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="4">
+        <v>-2.1387732828541419E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>25659</v>
@@ -50700,8 +50765,11 @@
         <f t="shared" si="0"/>
         <v>3.0447872840493745E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="4">
+        <v>-7.8553049255392721E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>25750</v>
@@ -50716,8 +50784,11 @@
         <f t="shared" si="0"/>
         <v>3.0038203063040801E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="4">
+        <v>-5.5548315464097407E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>25842</v>
@@ -50732,8 +50803,11 @@
         <f t="shared" si="0"/>
         <v>3.0443500833328592E-5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="4">
+        <v>-0.16875704363131841</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
         <v>25934</v>
@@ -50748,8 +50822,11 @@
         <f t="shared" si="0"/>
         <v>3.0000874635877041E-5</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="4">
+        <v>-0.33395001221902287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>26024</v>
@@ -50764,8 +50841,11 @@
         <f t="shared" si="0"/>
         <v>3.002092089660199E-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="4">
+        <v>9.9743657368537547E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <f t="shared" si="1"/>
         <v>26115</v>
@@ -50780,8 +50860,11 @@
         <f t="shared" si="0"/>
         <v>3.0751512252627392E-5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="4">
+        <v>0.16281397319229601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <f t="shared" si="1"/>
         <v>26207</v>
@@ -50796,8 +50879,11 @@
         <f t="shared" si="0"/>
         <v>3.046851062386835E-5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="4">
+        <v>-0.17093688100673951</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <f t="shared" si="1"/>
         <v>26299</v>
@@ -50812,8 +50898,11 @@
         <f t="shared" si="0"/>
         <v>3.0135760085701988E-5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="4">
+        <v>-0.20940294266557971</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <f t="shared" si="1"/>
         <v>26390</v>
@@ -50828,8 +50917,11 @@
         <f t="shared" si="0"/>
         <v>3.0553468781998466E-5</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="4">
+        <v>9.0870033131007971E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <f t="shared" si="1"/>
         <v>26481</v>
@@ -50844,8 +50936,11 @@
         <f t="shared" si="0"/>
         <v>2.988697075847601E-5</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="4">
+        <v>0.11105716761984891</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <f t="shared" si="1"/>
         <v>26573</v>
@@ -50860,8 +50955,11 @@
         <f t="shared" si="0"/>
         <v>3.0108684162565187E-5</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="4">
+        <v>0.14018598685051181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <f t="shared" si="1"/>
         <v>26665</v>
@@ -50876,8 +50974,11 @@
         <f t="shared" si="0"/>
         <v>2.9956445983313033E-5</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="4">
+        <v>0.1570391420057678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <f t="shared" si="1"/>
         <v>26755</v>
@@ -50892,8 +50993,11 @@
         <f t="shared" si="0"/>
         <v>3.0842766134472812E-5</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="4">
+        <v>0.14540543823369309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <f t="shared" si="1"/>
         <v>26846</v>
@@ -50908,8 +51012,11 @@
         <f t="shared" si="0"/>
         <v>3.065259235537519E-5</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="4">
+        <v>0.22978528461306991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <f t="shared" si="1"/>
         <v>26938</v>
@@ -50924,8 +51031,11 @@
         <f t="shared" si="0"/>
         <v>3.0014826806729067E-5</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="4">
+        <v>-0.1058627540494599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="2">
         <f t="shared" si="1"/>
         <v>27030</v>
@@ -50940,8 +51050,11 @@
         <f t="shared" si="0"/>
         <v>3.044405800827106E-5</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="4">
+        <v>1.373284916168729E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="2">
         <f t="shared" si="1"/>
         <v>27120</v>
@@ -50956,8 +51069,11 @@
         <f t="shared" si="0"/>
         <v>3.0387346697850759E-5</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="4">
+        <v>6.6385053950660328E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="2">
         <f t="shared" si="1"/>
         <v>27211</v>
@@ -50972,8 +51088,11 @@
         <f t="shared" si="0"/>
         <v>3.0682533336150175E-5</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="4">
+        <v>2.7840973059088101E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="2">
         <f t="shared" si="1"/>
         <v>27303</v>
@@ -50988,8 +51107,11 @@
         <f t="shared" si="0"/>
         <v>3.0224266861767629E-5</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="4">
+        <v>-0.10855692409234539</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="2">
         <f t="shared" si="1"/>
         <v>27395</v>
@@ -51004,8 +51126,11 @@
         <f t="shared" si="0"/>
         <v>3.022515096378145E-5</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="4">
+        <v>-0.24856303689967801</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="2">
         <f t="shared" si="1"/>
         <v>27485</v>
@@ -51020,8 +51145,11 @@
         <f t="shared" si="0"/>
         <v>3.034951965592142E-5</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="4">
+        <v>-6.5739190815175402E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="2">
         <f t="shared" si="1"/>
         <v>27576</v>
@@ -51036,8 +51164,11 @@
         <f t="shared" si="0"/>
         <v>2.9979388075393291E-5</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="4">
+        <v>0.1584336542256968</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="2">
         <f t="shared" si="1"/>
         <v>27668</v>
@@ -51052,8 +51183,11 @@
         <f t="shared" si="0"/>
         <v>2.9987562411743461E-5</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="4">
+        <v>-0.11948599462453589</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="2">
         <f t="shared" si="1"/>
         <v>27760</v>
@@ -51068,8 +51202,11 @@
         <f t="shared" si="0"/>
         <v>3.0246100924705924E-5</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="4">
+        <v>-0.13658936535013461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="2">
         <f t="shared" si="1"/>
         <v>27851</v>
@@ -51084,8 +51221,11 @@
         <f t="shared" si="0"/>
         <v>3.0638503848604047E-5</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="4">
+        <v>4.5956622830993797E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="2">
         <f t="shared" si="1"/>
         <v>27942</v>
@@ -51100,8 +51240,11 @@
         <f t="shared" si="0"/>
         <v>3.0478767060694058E-5</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="4">
+        <v>-2.9966202093727199E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="2">
         <f t="shared" si="1"/>
         <v>28034</v>
@@ -51116,8 +51259,11 @@
         <f t="shared" si="0"/>
         <v>3.0297098564682767E-5</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="4">
+        <v>-9.8827080705462728E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="2">
         <f t="shared" si="1"/>
         <v>28126</v>
@@ -51132,8 +51278,11 @@
         <f t="shared" si="0"/>
         <v>3.0038700714030662E-5</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="4">
+        <v>-1.101868380834389E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="2">
         <f t="shared" si="1"/>
         <v>28216</v>
@@ -51148,8 +51297,11 @@
         <f t="shared" si="0"/>
         <v>3.0739319611295009E-5</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="4">
+        <v>4.2654893662245313E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="2">
         <f t="shared" si="1"/>
         <v>28307</v>
@@ -51164,8 +51316,11 @@
         <f t="shared" si="0"/>
         <v>3.0470937572114019E-5</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="4">
+        <v>0.1255241682067052</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="2">
         <f t="shared" si="1"/>
         <v>28399</v>
@@ -51180,8 +51335,11 @@
         <f t="shared" si="0"/>
         <v>3.0552262215897963E-5</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="4">
+        <v>0.1040819663119537</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="2">
         <f t="shared" si="1"/>
         <v>28491</v>
@@ -51196,8 +51354,11 @@
         <f t="shared" si="0"/>
         <v>3.0015803006765238E-5</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="4">
+        <v>4.3626048635526472E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="2">
         <f t="shared" si="1"/>
         <v>28581</v>
@@ -51212,8 +51373,11 @@
         <f t="shared" si="0"/>
         <v>3.0455461683950164E-5</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" s="4">
+        <v>1.12472349659041E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="2">
         <f t="shared" si="1"/>
         <v>28672</v>
@@ -51228,8 +51392,11 @@
         <f t="shared" si="0"/>
         <v>3.0696847130971469E-5</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" s="4">
+        <v>0.1197902324895832</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="2">
         <f t="shared" si="1"/>
         <v>28764</v>
@@ -51244,8 +51411,11 @@
         <f t="shared" si="0"/>
         <v>3.004286510639026E-5</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" s="4">
+        <v>0.1568656074625619</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="2">
         <f t="shared" si="1"/>
         <v>28856</v>
@@ -51260,8 +51430,11 @@
         <f t="shared" si="0"/>
         <v>3.0504729784959668E-5</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" s="4">
+        <v>8.8964374339748825E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="2">
         <f t="shared" si="1"/>
         <v>28946</v>
@@ -51276,8 +51449,11 @@
         <f t="shared" si="0"/>
         <v>3.0624042325719247E-5</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" s="4">
+        <v>-2.413691052086415E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="2">
         <f t="shared" si="1"/>
         <v>29037</v>
@@ -51292,8 +51468,11 @@
         <f t="shared" si="0"/>
         <v>3.0430489051038942E-5</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" s="4">
+        <v>2.9445665986124001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="2">
         <f t="shared" si="1"/>
         <v>29129</v>
@@ -51308,8 +51487,11 @@
         <f t="shared" si="0"/>
         <v>3.022898557752951E-5</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" s="4">
+        <v>0.20068920360874201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="2">
         <f t="shared" si="1"/>
         <v>29221</v>
@@ -51324,8 +51506,11 @@
         <f t="shared" si="0"/>
         <v>3.0457096666488409E-5</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" s="4">
+        <v>0.1182979612365842</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="2">
         <f t="shared" si="1"/>
         <v>29312</v>
@@ -51340,8 +51525,11 @@
         <f t="shared" si="0"/>
         <v>3.0328603434149476E-5</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" s="4">
+        <v>-0.32997129625171612</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="2">
         <f t="shared" si="1"/>
         <v>29403</v>
@@ -51356,8 +51544,11 @@
         <f t="shared" si="0"/>
         <v>3.0205919429595121E-5</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" s="4">
+        <v>-5.108255158243577E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="2">
         <f t="shared" si="1"/>
         <v>29495</v>
@@ -51372,8 +51563,11 @@
         <f t="shared" si="0"/>
         <v>3.015111188810031E-5</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" s="4">
+        <v>0.3952286339884874</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="2">
         <f t="shared" si="1"/>
         <v>29587</v>
@@ -51388,8 +51582,11 @@
         <f t="shared" si="0"/>
         <v>3.0026791216792442E-5</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" s="4">
+        <v>5.3780857302768957E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="2">
         <f t="shared" si="1"/>
         <v>29677</v>
@@ -51404,8 +51601,11 @@
         <f t="shared" ref="D67:D130" si="2">B67-C67</f>
         <v>3.0733819759759876E-5</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" s="4">
+        <v>3.3572060311305253E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="2">
         <f t="shared" ref="A68:A131" si="3">DATE(YEAR(A67),MONTH(A67)+3,1)</f>
         <v>29768</v>
@@ -51420,8 +51620,11 @@
         <f t="shared" si="2"/>
         <v>3.0323912872460418E-5</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" s="4">
+        <v>8.0879514664653745E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="2">
         <f t="shared" si="3"/>
         <v>29860</v>
@@ -51436,8 +51639,11 @@
         <f t="shared" si="2"/>
         <v>3.0092925526305561E-5</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" s="4">
+        <v>-0.24944916899133579</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="2">
         <f t="shared" si="3"/>
         <v>29952</v>
@@ -51452,8 +51658,11 @@
         <f t="shared" si="2"/>
         <v>3.019837203387804E-5</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" s="4">
+        <v>8.493009587566161E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="2">
         <f t="shared" si="3"/>
         <v>30042</v>
@@ -51468,8 +51677,11 @@
         <f t="shared" si="2"/>
         <v>3.0158779879089874E-5</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" s="4">
+        <v>-3.2881177896801422E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="2">
         <f t="shared" si="3"/>
         <v>30133</v>
@@ -51484,8 +51696,11 @@
         <f t="shared" si="2"/>
         <v>3.023781858297811E-5</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" s="4">
+        <v>-0.28920612454048639</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="2">
         <f t="shared" si="3"/>
         <v>30225</v>
@@ -51500,8 +51715,11 @@
         <f t="shared" si="2"/>
         <v>3.0205857436858873E-5</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" s="4">
+        <v>-0.16580158443973581</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="2">
         <f t="shared" si="3"/>
         <v>30317</v>
@@ -51516,8 +51734,11 @@
         <f t="shared" si="2"/>
         <v>3.0350088700478554E-5</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" s="4">
+        <v>2.3277524000289179E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="2">
         <f t="shared" si="3"/>
         <v>30407</v>
@@ -51532,8 +51753,11 @@
         <f t="shared" si="2"/>
         <v>3.0651600057577874E-5</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" s="4">
+        <v>3.3445074298400303E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="2">
         <f t="shared" si="3"/>
         <v>30498</v>
@@ -51548,8 +51772,11 @@
         <f t="shared" si="2"/>
         <v>3.0775554138069987E-5</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" s="4">
+        <v>8.3122624801497152E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="2">
         <f t="shared" si="3"/>
         <v>30590</v>
@@ -51564,8 +51791,11 @@
         <f t="shared" si="2"/>
         <v>3.0142861741505773E-5</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" s="4">
+        <v>-3.9611622950050468E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="2">
         <f t="shared" si="3"/>
         <v>30682</v>
@@ -51580,8 +51810,11 @@
         <f t="shared" si="2"/>
         <v>2.9984740380599971E-5</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" s="4">
+        <v>3.9482605816060473E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="2">
         <f t="shared" si="3"/>
         <v>30773</v>
@@ -51596,8 +51829,11 @@
         <f t="shared" si="2"/>
         <v>3.0425156631751237E-5</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" s="4">
+        <v>6.440194652619094E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="2">
         <f t="shared" si="3"/>
         <v>30864</v>
@@ -51612,8 +51848,11 @@
         <f t="shared" si="2"/>
         <v>3.020236668117111E-5</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" s="4">
+        <v>5.0338609322547988E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="2">
         <f t="shared" si="3"/>
         <v>30956</v>
@@ -51628,8 +51867,11 @@
         <f t="shared" si="2"/>
         <v>3.0020317158627879E-5</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" s="4">
+        <v>-0.16065628138063781</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="2">
         <f t="shared" si="3"/>
         <v>31048</v>
@@ -51644,8 +51886,11 @@
         <f t="shared" si="2"/>
         <v>2.9913846987254973E-5</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" s="4">
+        <v>-7.4733831036663617E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="2">
         <f t="shared" si="3"/>
         <v>31138</v>
@@ -51660,8 +51905,11 @@
         <f t="shared" si="2"/>
         <v>3.0742076502093992E-5</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" s="4">
+        <v>-9.4247110324902711E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="2">
         <f t="shared" si="3"/>
         <v>31229</v>
@@ -51676,8 +51924,11 @@
         <f t="shared" si="2"/>
         <v>3.0078760942875774E-5</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" s="4">
+        <v>-5.0225062554287693E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="2">
         <f t="shared" si="3"/>
         <v>31321</v>
@@ -51692,8 +51943,11 @@
         <f t="shared" si="2"/>
         <v>3.0293657829874587E-5</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" s="4">
+        <v>6.7043768678210196E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="2">
         <f t="shared" si="3"/>
         <v>31413</v>
@@ -51708,8 +51962,11 @@
         <f t="shared" si="2"/>
         <v>3.0554643266265252E-5</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" s="4">
+        <v>-4.0105402344317892E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="2">
         <f t="shared" si="3"/>
         <v>31503</v>
@@ -51724,8 +51981,11 @@
         <f t="shared" si="2"/>
         <v>3.0808805895659458E-5</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" s="4">
+        <v>-0.117916419898443</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="2">
         <f t="shared" si="3"/>
         <v>31594</v>
@@ -51740,8 +52000,11 @@
         <f t="shared" si="2"/>
         <v>3.0185704216944588E-5</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" s="4">
+        <v>-0.1075461583568415</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="2">
         <f t="shared" si="3"/>
         <v>31686</v>
@@ -51756,8 +52019,11 @@
         <f t="shared" si="2"/>
         <v>2.9991018202296053E-5</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" s="4">
+        <v>-3.2965081888008257E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="2">
         <f t="shared" si="3"/>
         <v>31778</v>
@@ -51772,8 +52038,11 @@
         <f t="shared" si="2"/>
         <v>3.0003991435235793E-5</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" s="4">
+        <v>3.1970256138435647E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="2">
         <f t="shared" si="3"/>
         <v>31868</v>
@@ -51788,8 +52057,11 @@
         <f t="shared" si="2"/>
         <v>3.0317573910480962E-5</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" s="4">
+        <v>1.9739196652779151E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="2">
         <f t="shared" si="3"/>
         <v>31959</v>
@@ -51804,8 +52076,11 @@
         <f t="shared" si="2"/>
         <v>3.0008659978719124E-5</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" s="4">
+        <v>6.4417986552472578E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="2">
         <f t="shared" si="3"/>
         <v>32051</v>
@@ -51820,8 +52095,11 @@
         <f t="shared" si="2"/>
         <v>3.0185379062965326E-5</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" s="4">
+        <v>-3.1940424985445331E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="2">
         <f t="shared" si="3"/>
         <v>32143</v>
@@ -51836,8 +52114,11 @@
         <f t="shared" si="2"/>
         <v>3.0722945340735984E-5</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" s="4">
+        <v>-2.586984280823509E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="2">
         <f t="shared" si="3"/>
         <v>32234</v>
@@ -51852,8 +52133,11 @@
         <f t="shared" si="2"/>
         <v>3.0191932739226943E-5</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" s="4">
+        <v>7.9906550735960896E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="2">
         <f t="shared" si="3"/>
         <v>32325</v>
@@ -51868,8 +52152,11 @@
         <f t="shared" si="2"/>
         <v>3.0702689586831287E-5</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" s="4">
+        <v>0.119473846132959</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="2">
         <f t="shared" si="3"/>
         <v>32417</v>
@@ -51884,8 +52171,11 @@
         <f t="shared" si="2"/>
         <v>3.010692969006995E-5</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" s="4">
+        <v>9.5636889228845084E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="2">
         <f t="shared" si="3"/>
         <v>32509</v>
@@ -51900,8 +52190,11 @@
         <f t="shared" si="2"/>
         <v>3.0024862549546351E-5</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" s="4">
+        <v>9.8380499588830023E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="2">
         <f t="shared" si="3"/>
         <v>32599</v>
@@ -51916,8 +52209,11 @@
         <f t="shared" si="2"/>
         <v>3.0698516084225061E-5</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" s="4">
+        <v>-1.7042492783774201E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="2">
         <f t="shared" si="3"/>
         <v>32690</v>
@@ -51932,8 +52228,11 @@
         <f t="shared" si="2"/>
         <v>3.0097442431408113E-5</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" s="4">
+        <v>-7.1460518881847318E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="2">
         <f t="shared" si="3"/>
         <v>32782</v>
@@ -51948,8 +52247,11 @@
         <f t="shared" si="2"/>
         <v>3.0723294971008418E-5</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101" s="4">
+        <v>-2.6225590256057949E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="2">
         <f t="shared" si="3"/>
         <v>32874</v>
@@ -51964,8 +52266,11 @@
         <f t="shared" si="2"/>
         <v>3.002455847396588E-5</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" s="4">
+        <v>1.213809244371958E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="2">
         <f t="shared" si="3"/>
         <v>32964</v>
@@ -51980,8 +52285,11 @@
         <f t="shared" si="2"/>
         <v>3.0140322778684971E-5</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" s="4">
+        <v>-3.4226498476792331E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="2">
         <f t="shared" si="3"/>
         <v>33055</v>
@@ -51996,8 +52304,11 @@
         <f t="shared" si="2"/>
         <v>3.0622510621580831E-5</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104" s="4">
+        <v>-3.7178542419745907E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="2">
         <f t="shared" si="3"/>
         <v>33147</v>
@@ -52012,8 +52323,11 @@
         <f t="shared" si="2"/>
         <v>3.0038280948850636E-5</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105" s="4">
+        <v>-6.9009462586440556E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="2">
         <f t="shared" si="3"/>
         <v>33239</v>
@@ -52028,8 +52342,11 @@
         <f t="shared" si="2"/>
         <v>3.0773883077792313E-5</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106" s="4">
+        <v>-0.15054269927784361</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="2">
         <f t="shared" si="3"/>
         <v>33329</v>
@@ -52044,8 +52361,11 @@
         <f t="shared" si="2"/>
         <v>3.0536187955124833E-5</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107" s="4">
+        <v>-8.1745666641688891E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="2">
         <f t="shared" si="3"/>
         <v>33420</v>
@@ -52060,8 +52380,11 @@
         <f t="shared" si="2"/>
         <v>3.0341403395298854E-5</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108" s="4">
+        <v>-3.5232463761635441E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="2">
         <f t="shared" si="3"/>
         <v>33512</v>
@@ -52076,8 +52399,11 @@
         <f t="shared" si="2"/>
         <v>3.0356174544078456E-5</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109" s="4">
+        <v>-0.1708445503839035</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="2">
         <f t="shared" si="3"/>
         <v>33604</v>
@@ -52092,8 +52418,11 @@
         <f t="shared" si="2"/>
         <v>3.0268735125023316E-5</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110" s="4">
+        <v>-0.15536428228943761</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="2">
         <f t="shared" si="3"/>
         <v>33695</v>
@@ -52108,8 +52437,11 @@
         <f t="shared" si="2"/>
         <v>3.0180943316641257E-5</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111" s="4">
+        <v>-5.8055895519284001E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="2">
         <f t="shared" si="3"/>
         <v>33786</v>
@@ -52124,8 +52456,11 @@
         <f t="shared" si="2"/>
         <v>3.0284029286346999E-5</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112" s="4">
+        <v>-0.1786044482927675</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="2">
         <f t="shared" si="3"/>
         <v>33878</v>
@@ -52140,8 +52475,11 @@
         <f t="shared" si="2"/>
         <v>3.0534659400391091E-5</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113" s="4">
+        <v>-6.036660225270581E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="2">
         <f t="shared" si="3"/>
         <v>33970</v>
@@ -52156,8 +52494,11 @@
         <f t="shared" si="2"/>
         <v>3.0470286008669112E-5</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114" s="4">
+        <v>-3.8191252231289469E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="2">
         <f t="shared" si="3"/>
         <v>34060</v>
@@ -52172,8 +52513,11 @@
         <f t="shared" si="2"/>
         <v>2.997173857006985E-5</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" s="4">
+        <v>5.4676076586337866E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="2">
         <f t="shared" si="3"/>
         <v>34151</v>
@@ -52188,8 +52532,11 @@
         <f t="shared" si="2"/>
         <v>3.0523493382275321E-5</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" s="4">
+        <v>1.0580835914000299E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="2">
         <f t="shared" si="3"/>
         <v>34243</v>
@@ -52204,8 +52551,11 @@
         <f t="shared" si="2"/>
         <v>2.9887273603783869E-5</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117" s="4">
+        <v>1.6989174044000049E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="2">
         <f t="shared" si="3"/>
         <v>34335</v>
@@ -52220,8 +52570,11 @@
         <f t="shared" si="2"/>
         <v>2.9924318419367012E-5</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118" s="4">
+        <v>5.6483732597362418E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="2">
         <f t="shared" si="3"/>
         <v>34425</v>
@@ -52236,8 +52589,11 @@
         <f t="shared" si="2"/>
         <v>3.0402598920938571E-5</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119" s="4">
+        <v>0.20465089335641981</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="2">
         <f t="shared" si="3"/>
         <v>34516</v>
@@ -52252,8 +52608,11 @@
         <f t="shared" si="2"/>
         <v>3.0519704653554159E-5</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120" s="4">
+        <v>0.1142203030445082</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="2">
         <f t="shared" si="3"/>
         <v>34608</v>
@@ -52268,8 +52627,11 @@
         <f t="shared" si="2"/>
         <v>3.0427352252664942E-5</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121" s="4">
+        <v>0.1633444168829814</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="2">
         <f t="shared" si="3"/>
         <v>34700</v>
@@ -52284,8 +52646,11 @@
         <f t="shared" si="2"/>
         <v>2.9955446847442641E-5</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122" s="4">
+        <v>8.1249264869015986E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="2">
         <f t="shared" si="3"/>
         <v>34790</v>
@@ -52300,8 +52665,11 @@
         <f t="shared" si="2"/>
         <v>2.9912658357958422E-5</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123" s="4">
+        <v>-2.641009810215109E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="2">
         <f t="shared" si="3"/>
         <v>34881</v>
@@ -52316,8 +52684,11 @@
         <f t="shared" si="2"/>
         <v>3.0013160520222723E-5</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124" s="4">
+        <v>-4.3667158067184332E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="2">
         <f t="shared" si="3"/>
         <v>34973</v>
@@ -52332,8 +52703,11 @@
         <f t="shared" si="2"/>
         <v>3.0683033958115932E-5</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" s="4">
+        <v>-2.1778915540841409E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="2">
         <f t="shared" si="3"/>
         <v>35065</v>
@@ -52348,8 +52722,11 @@
         <f t="shared" si="2"/>
         <v>2.9896002904080364E-5</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126" s="4">
+        <v>-6.6494997663172101E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="2">
         <f t="shared" si="3"/>
         <v>35156</v>
@@ -52364,8 +52741,11 @@
         <f t="shared" si="2"/>
         <v>2.9882460137017203E-5</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127" s="4">
+        <v>1.6387986680886729E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="2">
         <f t="shared" si="3"/>
         <v>35247</v>
@@ -52380,8 +52760,11 @@
         <f t="shared" si="2"/>
         <v>3.026598086185335E-5</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128" s="4">
+        <v>1.3453838601071209E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="2">
         <f t="shared" si="3"/>
         <v>35339</v>
@@ -52396,8 +52779,11 @@
         <f t="shared" si="2"/>
         <v>3.0686510552982091E-5</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129" s="4">
+        <v>-2.552936735802433E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="2">
         <f t="shared" si="3"/>
         <v>35431</v>
@@ -52412,8 +52798,11 @@
         <f t="shared" si="2"/>
         <v>3.0206395133043976E-5</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130" s="4">
+        <v>1.490320144823268E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="2">
         <f t="shared" si="3"/>
         <v>35521</v>
@@ -52428,8 +52817,11 @@
         <f t="shared" ref="D131:D169" si="4">B131-C131</f>
         <v>3.0653132525644382E-5</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131" s="4">
+        <v>-4.3414829263334906E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="2">
         <f t="shared" ref="A132:A169" si="5">DATE(YEAR(A131),MONTH(A131)+3,1)</f>
         <v>35612</v>
@@ -52444,8 +52836,11 @@
         <f t="shared" si="4"/>
         <v>3.0296743286092366E-5</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132" s="4">
+        <v>-1.7029589681522861E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="2">
         <f t="shared" si="5"/>
         <v>35704</v>
@@ -52460,8 +52855,11 @@
         <f t="shared" si="4"/>
         <v>3.0719885046968237E-5</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133" s="4">
+        <v>6.8469122530861156E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="2">
         <f t="shared" si="5"/>
         <v>35796</v>
@@ -52476,8 +52874,11 @@
         <f t="shared" si="4"/>
         <v>3.0213155546443202E-5</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134" s="4">
+        <v>-8.932697984467693E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="2">
         <f t="shared" si="5"/>
         <v>35886</v>
@@ -52492,8 +52893,11 @@
         <f t="shared" si="4"/>
         <v>3.0151335524719949E-5</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135" s="4">
+        <v>-1.699072763127904E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="2">
         <f t="shared" si="5"/>
         <v>35977</v>
@@ -52508,8 +52912,11 @@
         <f t="shared" si="4"/>
         <v>3.0695753510298282E-5</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136" s="4">
+        <v>-3.2998029875858731E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="2">
         <f t="shared" si="5"/>
         <v>36069</v>
@@ -52524,8 +52931,11 @@
         <f t="shared" si="4"/>
         <v>3.0207031028682205E-5</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137" s="4">
+        <v>-0.12746522169490079</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="2">
         <f t="shared" si="5"/>
         <v>36161</v>
@@ -52540,8 +52950,11 @@
         <f t="shared" si="4"/>
         <v>3.0614704962508496E-5</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138" s="4">
+        <v>3.3712597538744032E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="2">
         <f t="shared" si="5"/>
         <v>36251</v>
@@ -52556,8 +52969,11 @@
         <f t="shared" si="4"/>
         <v>3.0472373010675437E-5</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="E139" s="4">
+        <v>8.8313747168069761E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="2">
         <f t="shared" si="5"/>
         <v>36342</v>
@@ -52572,8 +52988,11 @@
         <f t="shared" si="4"/>
         <v>3.0791700563097615E-5</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140" s="4">
+        <v>4.1511381190722653E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="2">
         <f t="shared" si="5"/>
         <v>36434</v>
@@ -52588,8 +53007,11 @@
         <f t="shared" si="4"/>
         <v>3.0351859966530788E-5</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="E141" s="4">
+        <v>7.9497060564737848E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="2">
         <f t="shared" si="5"/>
         <v>36526</v>
@@ -52604,8 +53026,11 @@
         <f t="shared" si="4"/>
         <v>3.0379433555689046E-5</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="E142" s="4">
+        <v>8.8607662188696895E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="2">
         <f t="shared" si="5"/>
         <v>36617</v>
@@ -52620,8 +53045,11 @@
         <f t="shared" si="4"/>
         <v>2.9982480667749972E-5</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143" s="4">
+        <v>3.272180524436788E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="2">
         <f t="shared" si="5"/>
         <v>36708</v>
@@ -52636,8 +53064,11 @@
         <f t="shared" si="4"/>
         <v>3.0026648627970616E-5</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="E144" s="4">
+        <v>5.0027812641103807E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="2">
         <f t="shared" si="5"/>
         <v>36800</v>
@@ -52652,8 +53083,11 @@
         <f t="shared" si="4"/>
         <v>3.0416818449335338E-5</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145" s="4">
+        <v>-1.7029589681522861E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="2">
         <f t="shared" si="5"/>
         <v>36892</v>
@@ -52668,8 +53102,11 @@
         <f t="shared" si="4"/>
         <v>3.0281019674058881E-5</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="E146" s="4">
+        <v>-0.2241542291886009</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="2">
         <f t="shared" si="5"/>
         <v>36982</v>
@@ -52684,8 +53121,11 @@
         <f t="shared" si="4"/>
         <v>3.0587443131602048E-5</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="E147" s="4">
+        <v>-0.27632193744520911</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="2">
         <f t="shared" si="5"/>
         <v>37073</v>
@@ -52700,8 +53140,11 @@
         <f t="shared" si="4"/>
         <v>3.0442710831662945E-5</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148" s="4">
+        <v>-0.1454345184922381</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="2">
         <f t="shared" si="5"/>
         <v>37165</v>
@@ -52716,8 +53159,11 @@
         <f t="shared" si="4"/>
         <v>3.0053042091495591E-5</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="E149" s="4">
+        <v>-0.51007803013374453</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="2">
         <f t="shared" si="5"/>
         <v>37257</v>
@@ -52732,8 +53178,11 @@
         <f t="shared" si="4"/>
         <v>3.0026074311208933E-5</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="E150" s="4">
+        <v>-0.10279907583952121</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="2">
         <f t="shared" si="5"/>
         <v>37347</v>
@@ -52748,8 +53197,11 @@
         <f t="shared" si="4"/>
         <v>3.0160197582520219E-5</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="E151" s="4">
+        <v>-5.578932812845246E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="2">
         <f t="shared" si="5"/>
         <v>37438</v>
@@ -52764,8 +53216,11 @@
         <f t="shared" si="4"/>
         <v>3.0005382988767051E-5</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="E152" s="4">
+        <v>-4.5360685589198341E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="2">
         <f t="shared" si="5"/>
         <v>37530</v>
@@ -52780,8 +53235,11 @@
         <f t="shared" si="4"/>
         <v>3.0554679134540616E-5</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="E153" s="4">
+        <v>-0.2107475859028605</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="2">
         <f t="shared" si="5"/>
         <v>37622</v>
@@ -52796,8 +53254,11 @@
         <f t="shared" si="4"/>
         <v>3.0660216360686374E-5</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="E154" s="4">
+        <v>-0.14384272612927509</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="2">
         <f t="shared" si="5"/>
         <v>37712</v>
@@ -52812,8 +53273,11 @@
         <f t="shared" si="4"/>
         <v>3.0039891309547803E-5</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="E155" s="4">
+        <v>-0.108024551105529</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="2">
         <f t="shared" si="5"/>
         <v>37803</v>
@@ -52828,8 +53292,11 @@
         <f t="shared" si="4"/>
         <v>3.0349577792628674E-5</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="E156" s="4">
+        <v>-0.11349436495626899</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="2">
         <f t="shared" si="5"/>
         <v>37895</v>
@@ -52844,8 +53311,11 @@
         <f t="shared" si="4"/>
         <v>3.0860153223300976E-5</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="E157" s="4">
+        <v>-1.6143643122946721E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="2">
         <f t="shared" si="5"/>
         <v>37987</v>
@@ -52860,8 +53330,11 @@
         <f t="shared" si="4"/>
         <v>3.0522112892022231E-5</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="E158" s="4">
+        <v>-1.7029589681522861E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="2">
         <f t="shared" si="5"/>
         <v>38078</v>
@@ -52876,8 +53349,11 @@
         <f t="shared" si="4"/>
         <v>3.0623936977182062E-5</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="E159" s="4">
+        <v>0.15917826658793299</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="2">
         <f t="shared" si="5"/>
         <v>38169</v>
@@ -52892,8 +53368,11 @@
         <f t="shared" si="4"/>
         <v>2.9904765064373701E-5</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="E160" s="4">
+        <v>0.32096366982925523</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="2">
         <f t="shared" si="5"/>
         <v>38261</v>
@@ -52908,8 +53387,11 @@
         <f t="shared" si="4"/>
         <v>3.0551180221927808E-5</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161" s="4">
+        <v>0.29823553432060462</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="2">
         <f t="shared" si="5"/>
         <v>38353</v>
@@ -52924,8 +53406,11 @@
         <f t="shared" si="4"/>
         <v>3.0076366466298687E-5</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="E162" s="4">
+        <v>0.23267295358471271</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" s="2">
         <f t="shared" si="5"/>
         <v>38443</v>
@@ -52940,8 +53425,11 @@
         <f t="shared" si="4"/>
         <v>3.0351086263567112E-5</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="E163" s="4">
+        <v>0.1194326051544171</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="2">
         <f t="shared" si="5"/>
         <v>38534</v>
@@ -52956,8 +53444,11 @@
         <f t="shared" si="4"/>
         <v>3.0745843644506567E-5</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="E164" s="4">
+        <v>0.1582515676789063</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="2">
         <f t="shared" si="5"/>
         <v>38626</v>
@@ -52972,8 +53463,11 @@
         <f t="shared" si="4"/>
         <v>2.9943330599676915E-5</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="E165" s="4">
+        <v>0.1283501692800455</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="2">
         <f t="shared" si="5"/>
         <v>38718</v>
@@ -52988,8 +53482,11 @@
         <f t="shared" si="4"/>
         <v>3.048611938689114E-5</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166" s="4">
+        <v>0.13639117921478849</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="2">
         <f t="shared" si="5"/>
         <v>38808</v>
@@ -53004,8 +53501,11 @@
         <f t="shared" si="4"/>
         <v>3.0594969602474264E-5</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="E167" s="4">
+        <v>6.6480277822209138E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="2">
         <f t="shared" si="5"/>
         <v>38899</v>
@@ -53020,8 +53520,11 @@
         <f t="shared" si="4"/>
         <v>3.0333801897915701E-5</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="E168" s="4">
+        <v>4.0620388467855352E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" s="2">
         <f t="shared" si="5"/>
         <v>38991</v>
@@ -53036,26 +53539,29 @@
         <f t="shared" si="4"/>
         <v>3.0458061372085933E-5</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169" s="4">
+        <v>-2.3825376555363939E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="C170" s="4"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:5">
       <c r="C171" s="4"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:5">
       <c r="C172" s="4"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:5">
       <c r="C173" s="4"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:5">
       <c r="C174" s="4"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:5">
       <c r="C175" s="4"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:5">
       <c r="C176" s="4"/>
     </row>
     <row r="177" spans="3:3">
@@ -53082,19 +53588,19 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CA5772-CBF1-405B-BD80-B5D398DB47C5}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="11.58203125" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="4"/>
+    <col min="3" max="4" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -53104,8 +53610,9 @@
       <c r="C1" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>23743</v>
       </c>
@@ -53115,8 +53622,12 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="4">
+        <f>B2-C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <f>DATE(YEAR(A2),MONTH(A2)+3,1)</f>
         <v>23833</v>
@@ -53127,10 +53638,14 @@
       <c r="C3" s="4">
         <v>4.0019541150098092E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D66" si="0">B3-C3</f>
+        <v>-2.6095411500980928E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A67" si="0">DATE(YEAR(A3),MONTH(A3)+3,1)</f>
+        <f t="shared" ref="A4:A67" si="1">DATE(YEAR(A3),MONTH(A3)+3,1)</f>
         <v>23924</v>
       </c>
       <c r="B4" s="5">
@@ -53139,10 +53654,14 @@
       <c r="C4" s="4">
         <v>4.6861481913360592E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.4814819133605936E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24016</v>
       </c>
       <c r="B5" s="5">
@@ -53151,10 +53670,14 @@
       <c r="C5" s="4">
         <v>-2.0581740697742209E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.1425930225779247E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24108</v>
       </c>
       <c r="B6" s="5">
@@ -53163,10 +53686,14 @@
       <c r="C6" s="4">
         <v>-7.6867980916439649E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.6132019083560344E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24198</v>
       </c>
       <c r="B7" s="5">
@@ -53175,10 +53702,14 @@
       <c r="C7" s="4">
         <v>-8.7425308626832177E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.1169137316782707E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24289</v>
       </c>
       <c r="B8" s="5">
@@ -53187,10 +53718,14 @@
       <c r="C8" s="4">
         <v>-0.123065549032841</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.7945096715899518E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24381</v>
       </c>
       <c r="B9" s="5">
@@ -53199,10 +53734,14 @@
       <c r="C9" s="4">
         <v>-0.23712264193407681</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.5135806592320167E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24473</v>
       </c>
       <c r="B10" s="5">
@@ -53211,10 +53750,14 @@
       <c r="C10" s="4">
         <v>-0.27098490734795799</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.190926520420188E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24563</v>
       </c>
       <c r="B11" s="5">
@@ -53223,10 +53766,14 @@
       <c r="C11" s="4">
         <v>-0.1669997343918341</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.7326560816588454E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24654</v>
       </c>
       <c r="B12" s="5">
@@ -53235,10 +53782,14 @@
       <c r="C12" s="4">
         <v>-0.12338342842212489</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0142842212489409E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24746</v>
       </c>
       <c r="B13" s="5">
@@ -53247,10 +53798,14 @@
       <c r="C13" s="4">
         <v>-7.0825287098375433E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.5471290162457083E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24838</v>
       </c>
       <c r="B14" s="5">
@@ -53259,10 +53814,14 @@
       <c r="C14" s="4">
         <v>-6.8769207675517308E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.2479232448268929E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24929</v>
       </c>
       <c r="B15" s="5">
@@ -53271,10 +53830,14 @@
       <c r="C15" s="4">
         <v>-4.7547700751074728E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1770075107473141E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25020</v>
       </c>
       <c r="B16" s="5">
@@ -53283,10 +53846,14 @@
       <c r="C16" s="4">
         <v>-3.3843255344396361E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3925534439635937E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25112</v>
       </c>
       <c r="B17" s="5">
@@ -53295,10 +53862,14 @@
       <c r="C17" s="4">
         <v>-2.6166111358923771E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>1.881113589237704E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25204</v>
       </c>
       <c r="B18" s="5">
@@ -53307,10 +53878,14 @@
       <c r="C18" s="4">
         <v>5.2047993213593102E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.7579932135931001E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25294</v>
       </c>
       <c r="B19" s="5">
@@ -53319,10 +53894,14 @@
       <c r="C19" s="4">
         <v>-9.7559107336566697E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.9808926634332959E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25385</v>
       </c>
       <c r="B20" s="5">
@@ -53331,10 +53910,14 @@
       <c r="C20" s="4">
         <v>-2.228574087826285E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.262591217371517E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25477</v>
       </c>
       <c r="B21" s="5">
@@ -53343,10 +53926,14 @@
       <c r="C21" s="4">
         <v>-0.1027990086005648</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.8299139943519245E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25569</v>
       </c>
       <c r="B22" s="5">
@@ -53355,10 +53942,14 @@
       <c r="C22" s="4">
         <v>-0.10619825988913251</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.8674011086748654E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25659</v>
       </c>
       <c r="B23" s="5">
@@ -53367,10 +53958,14 @@
       <c r="C23" s="4">
         <v>-0.18043950892926031</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.4149107073970222E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25750</v>
       </c>
       <c r="B24" s="5">
@@ -53379,10 +53974,14 @@
       <c r="C24" s="4">
         <v>-0.1340019196556099</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.6908034439011037E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25842</v>
       </c>
       <c r="B25" s="5">
@@ -53391,10 +53990,14 @@
       <c r="C25" s="4">
         <v>-3.9808147846569497E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.8485215343049958E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25934</v>
       </c>
       <c r="B26" s="5">
@@ -53403,10 +54006,14 @@
       <c r="C26" s="4">
         <v>6.3128098418587797E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>3.419015814122052E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26024</v>
       </c>
       <c r="B27" s="5">
@@ -53415,10 +54022,14 @@
       <c r="C27" s="4">
         <v>9.6643684725619572E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5031527438043313E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26115</v>
       </c>
       <c r="B28" s="5">
@@ -53427,10 +54038,14 @@
       <c r="C28" s="4">
         <v>0.13947240975139599</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.0640975139600273E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26207</v>
       </c>
       <c r="B29" s="5">
@@ -53439,10 +54054,14 @@
       <c r="C29" s="4">
         <v>0.17174597653828011</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.2976538280122805E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26299</v>
       </c>
       <c r="B30" s="5">
@@ -53451,10 +54070,14 @@
       <c r="C30" s="4">
         <v>0.2250118006262545</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.8006262545167129E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26390</v>
       </c>
       <c r="B31" s="5">
@@ -53463,10 +54086,14 @@
       <c r="C31" s="4">
         <v>0.23944432178677741</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.7432178677741503E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26481</v>
       </c>
       <c r="B32" s="5">
@@ -53475,10 +54102,14 @@
       <c r="C32" s="4">
         <v>0.23652868257253351</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.226825725335114E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26573</v>
       </c>
       <c r="B33" s="5">
@@ -53487,10 +54118,14 @@
       <c r="C33" s="4">
         <v>0.26685695295303802</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.1995295303799409E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26665</v>
       </c>
       <c r="B34" s="5">
@@ -53499,10 +54134,14 @@
       <c r="C34" s="4">
         <v>0.29451452672747891</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.0452672747890412E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26755</v>
       </c>
       <c r="B35" s="5">
@@ -53511,10 +54150,14 @@
       <c r="C35" s="4">
         <v>0.23719589830808821</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.1889830808820001E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26846</v>
       </c>
       <c r="B36" s="5">
@@ -53523,10 +54166,14 @@
       <c r="C36" s="4">
         <v>0.18892244207141221</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.1844207141221159E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26938</v>
       </c>
       <c r="B37" s="5">
@@ -53535,10 +54182,14 @@
       <c r="C37" s="4">
         <v>0.13452220660695691</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9793393043090495E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27030</v>
       </c>
       <c r="B38" s="5">
@@ -53547,10 +54198,14 @@
       <c r="C38" s="4">
         <v>5.3280015038652102E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="4">
+        <f t="shared" si="0"/>
+        <v>5.1984961347895098E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27120</v>
       </c>
       <c r="B39" s="5">
@@ -53559,10 +54214,14 @@
       <c r="C39" s="4">
         <v>3.7401028788677242E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.4210287886772411E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27211</v>
       </c>
       <c r="B40" s="5">
@@ -53571,10 +54230,14 @@
       <c r="C40" s="4">
         <v>-3.4697264865548583E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.6373513445141633E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27303</v>
       </c>
       <c r="B41" s="5">
@@ -53583,10 +54246,14 @@
       <c r="C41" s="4">
         <v>-0.1806890945274304</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.6890547256959727E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27395</v>
       </c>
       <c r="B42" s="5">
@@ -53595,10 +54262,14 @@
       <c r="C42" s="4">
         <v>-0.249723311614404</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="4">
+        <f t="shared" si="0"/>
+        <v>6.7311614404014231E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27485</v>
       </c>
       <c r="B43" s="5">
@@ -53607,10 +54278,14 @@
       <c r="C43" s="4">
         <v>-0.2331979091224472</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0909122447191404E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27576</v>
       </c>
       <c r="B44" s="5">
@@ -53619,10 +54294,14 @@
       <c r="C44" s="4">
         <v>-0.17149637867412701</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="4">
+        <f t="shared" si="0"/>
+        <v>7.037867412701404E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27668</v>
       </c>
       <c r="B45" s="5">
@@ -53631,10 +54310,14 @@
       <c r="C45" s="4">
         <v>-0.13352605385632371</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="4">
+        <f t="shared" si="0"/>
+        <v>4.805385632369874E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27760</v>
       </c>
       <c r="B46" s="5">
@@ -53643,10 +54326,14 @@
       <c r="C46" s="4">
         <v>-4.0939814043328582E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8140433285835957E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27851</v>
       </c>
       <c r="B47" s="5">
@@ -53655,10 +54342,14 @@
       <c r="C47" s="4">
         <v>-1.703575443371097E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.6245566289029464E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27942</v>
       </c>
       <c r="B48" s="5">
@@ -53667,10 +54358,14 @@
       <c r="C48" s="4">
         <v>-3.812633596908821E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.7266403091179281E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28034</v>
       </c>
       <c r="B49" s="5">
@@ -53679,10 +54374,14 @@
       <c r="C49" s="4">
         <v>7.7314585882754194E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.2258588275420044E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28126</v>
       </c>
       <c r="B50" s="5">
@@ -53691,10 +54390,14 @@
       <c r="C50" s="4">
         <v>0.1024549252598552</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5074740144806484E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28216</v>
       </c>
       <c r="B51" s="5">
@@ -53703,10 +54406,14 @@
       <c r="C51" s="4">
         <v>0.20632779676611879</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.0479676611878661E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28307</v>
       </c>
       <c r="B52" s="5">
@@ -53715,10 +54422,14 @@
       <c r="C52" s="4">
         <v>0.19807587389906889</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1261009311167598E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28399</v>
       </c>
       <c r="B53" s="5">
@@ -53727,10 +54438,14 @@
       <c r="C53" s="4">
         <v>0.18045697451529019</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.6974515290189069E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28491</v>
       </c>
       <c r="B54" s="5">
@@ -53739,10 +54454,14 @@
       <c r="C54" s="4">
         <v>0.18183159680582681</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="4">
+        <f t="shared" si="0"/>
+        <v>-7.935968058268017E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28581</v>
       </c>
       <c r="B55" s="5">
@@ -53751,10 +54470,14 @@
       <c r="C55" s="4">
         <v>0.22353657095472901</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1742904527098363E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28672</v>
       </c>
       <c r="B56" s="5">
@@ -53763,10 +54486,14 @@
       <c r="C56" s="4">
         <v>0.23254703729889939</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4296270110062421E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28764</v>
       </c>
       <c r="B57" s="5">
@@ -53775,10 +54502,14 @@
       <c r="C57" s="4">
         <v>0.22539240375231631</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.9040375231629869E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28856</v>
       </c>
       <c r="B58" s="5">
@@ -53787,10 +54518,14 @@
       <c r="C58" s="4">
         <v>0.1971445444367674</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.9254443676740043E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28946</v>
       </c>
       <c r="B59" s="5">
@@ -53799,10 +54534,14 @@
       <c r="C59" s="4">
         <v>0.175286212846923</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.7752128469230022E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29037</v>
       </c>
       <c r="B60" s="5">
@@ -53811,10 +54550,14 @@
       <c r="C60" s="4">
         <v>0.1572746113453212</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.9861134532119249E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29129</v>
       </c>
       <c r="B61" s="5">
@@ -53823,10 +54566,14 @@
       <c r="C61" s="4">
         <v>0.1122298273722384</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0541726277615987E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29221</v>
       </c>
       <c r="B62" s="5">
@@ -53835,10 +54582,14 @@
       <c r="C62" s="4">
         <v>3.411399960162953E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.6199996016295306E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29312</v>
       </c>
       <c r="B63" s="5">
@@ -53847,10 +54598,14 @@
       <c r="C63" s="4">
         <v>-0.1841367037511086</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="4">
+        <f t="shared" si="0"/>
+        <v>5.088703751108592E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29403</v>
       </c>
       <c r="B64" s="5">
@@ -53859,10 +54614,14 @@
       <c r="C64" s="4">
         <v>-0.16915247398025191</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8904739802519119E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29495</v>
       </c>
       <c r="B65" s="5">
@@ -53871,10 +54630,14 @@
       <c r="C65" s="4">
         <v>-7.233592165451519E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.1330783454848058E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29587</v>
       </c>
       <c r="B66" s="5">
@@ -53883,10 +54646,14 @@
       <c r="C66" s="4">
         <v>-9.308385144970277E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.9431485502972328E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29677</v>
       </c>
       <c r="B67" s="5">
@@ -53895,10 +54662,14 @@
       <c r="C67" s="4">
         <v>-0.1357839960608134</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="4">
+        <f t="shared" ref="D67:D130" si="2">B67-C67</f>
+        <v>6.5996060813394708E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <f t="shared" ref="A68:A131" si="1">DATE(YEAR(A67),MONTH(A67)+3,1)</f>
+        <f t="shared" ref="A68:A131" si="3">DATE(YEAR(A67),MONTH(A67)+3,1)</f>
         <v>29768</v>
       </c>
       <c r="B68" s="5">
@@ -53907,10 +54678,14 @@
       <c r="C68" s="4">
         <v>-0.2213798324950913</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0178324950912985E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29860</v>
       </c>
       <c r="B69" s="5">
@@ -53919,10 +54694,14 @@
       <c r="C69" s="4">
         <v>-0.33136308779624718</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="4">
+        <f t="shared" si="2"/>
+        <v>5.3408779624719571E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29952</v>
       </c>
       <c r="B70" s="5">
@@ -53931,10 +54710,14 @@
       <c r="C70" s="4">
         <v>-0.39346933668084277</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="4">
+        <f t="shared" si="2"/>
+        <v>3.2633668084275369E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30042</v>
       </c>
       <c r="B71" s="5">
@@ -53943,10 +54726,14 @@
       <c r="C71" s="4">
         <v>-0.42972298305920459</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4129830592045645E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30133</v>
       </c>
       <c r="B72" s="5">
@@ -53955,10 +54742,14 @@
       <c r="C72" s="4">
         <v>-0.44505140165549761</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0654401655497636E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30225</v>
       </c>
       <c r="B73" s="5">
@@ -53967,10 +54758,14 @@
       <c r="C73" s="4">
         <v>-0.35522746078918299</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.151153921081699E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30317</v>
       </c>
       <c r="B74" s="5">
@@ -53979,10 +54774,14 @@
       <c r="C74" s="4">
         <v>-0.21413667834465411</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1006783446541055E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30407</v>
       </c>
       <c r="B75" s="5">
@@ -53991,10 +54790,14 @@
       <c r="C75" s="4">
         <v>-9.4755010345976665E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="4">
+        <f t="shared" si="2"/>
+        <v>-7.9159896540233338E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30498</v>
       </c>
       <c r="B76" s="5">
@@ -54003,10 +54806,14 @@
       <c r="C76" s="4">
         <v>-1.0108684175844649E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="4">
+        <f t="shared" si="2"/>
+        <v>-9.1731582415535001E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30590</v>
       </c>
       <c r="B77" s="5">
@@ -54015,10 +54822,14 @@
       <c r="C77" s="4">
         <v>1.4012922235717261E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="4">
+        <f t="shared" si="2"/>
+        <v>1.345307776428274E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30682</v>
       </c>
       <c r="B78" s="5">
@@ -54027,10 +54838,14 @@
       <c r="C78" s="4">
         <v>4.4875359785814702E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="4">
+        <f t="shared" si="2"/>
+        <v>5.8706402141852979E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30773</v>
       </c>
       <c r="B79" s="5">
@@ -54039,10 +54854,14 @@
       <c r="C79" s="4">
         <v>6.6955280999719591E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.1828099971959187E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30864</v>
       </c>
       <c r="B80" s="5">
@@ -54051,10 +54870,14 @@
       <c r="C80" s="4">
         <v>5.1472077596972809E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="4">
+        <f t="shared" si="2"/>
+        <v>2.7429224030271898E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30956</v>
       </c>
       <c r="B81" s="5">
@@ -54063,10 +54886,14 @@
       <c r="C81" s="4">
         <v>4.3340782298217029E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="4">
+        <f t="shared" si="2"/>
+        <v>8.8752177017829698E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31048</v>
       </c>
       <c r="B82" s="5">
@@ -54075,10 +54902,14 @@
       <c r="C82" s="4">
         <v>4.7799008216072643E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="4">
+        <f t="shared" si="2"/>
+        <v>-8.9800821607264464E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31138</v>
       </c>
       <c r="B83" s="5">
@@ -54087,10 +54918,14 @@
       <c r="C83" s="4">
         <v>3.9933953869165428E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2533046130834571E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31229</v>
       </c>
       <c r="B84" s="5">
@@ -54099,10 +54934,14 @@
       <c r="C84" s="4">
         <v>5.6746180440819138E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="4">
+        <f t="shared" si="2"/>
+        <v>5.7318195591808604E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31321</v>
       </c>
       <c r="B85" s="5">
@@ -54111,10 +54950,14 @@
       <c r="C85" s="4">
         <v>7.4740282224952104E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" s="4">
+        <f t="shared" si="2"/>
+        <v>8.3097177750478951E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31413</v>
       </c>
       <c r="B86" s="5">
@@ -54123,10 +54966,14 @@
       <c r="C86" s="4">
         <v>0.1115234271277377</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="4">
+        <f t="shared" si="2"/>
+        <v>8.4335728722622905E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31503</v>
       </c>
       <c r="B87" s="5">
@@ -54135,10 +54982,14 @@
       <c r="C87" s="4">
         <v>0.16466123434978289</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="4">
+        <f t="shared" si="2"/>
+        <v>6.5687656502171066E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31594</v>
       </c>
       <c r="B88" s="5">
@@ -54147,10 +54998,14 @@
       <c r="C88" s="4">
         <v>0.17471707504846459</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="4">
+        <f t="shared" si="2"/>
+        <v>8.9379249515354198E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31686</v>
       </c>
       <c r="B89" s="5">
@@ -54159,10 +55014,14 @@
       <c r="C89" s="4">
         <v>0.166720748671362</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2203251328638004E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31778</v>
       </c>
       <c r="B90" s="5">
@@ -54171,10 +55030,14 @@
       <c r="C90" s="4">
         <v>0.15127664604869381</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1519353951306192E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31868</v>
       </c>
       <c r="B91" s="5">
@@ -54183,10 +55046,14 @@
       <c r="C91" s="4">
         <v>0.15795690192523629</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6326098074763706E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31959</v>
       </c>
       <c r="B92" s="5">
@@ -54195,10 +55062,14 @@
       <c r="C92" s="4">
         <v>0.13882579491910721</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" s="4">
+        <f t="shared" si="2"/>
+        <v>2.9751205080892795E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32051</v>
       </c>
       <c r="B93" s="5">
@@ -54207,10 +55078,14 @@
       <c r="C93" s="4">
         <v>0.131860828976607</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="4">
+        <f t="shared" si="2"/>
+        <v>3.9154171023392997E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32143</v>
       </c>
       <c r="B94" s="5">
@@ -54219,10 +55094,14 @@
       <c r="C94" s="4">
         <v>0.12566098571196699</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0738014288033013E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32234</v>
       </c>
       <c r="B95" s="5">
@@ -54231,10 +55110,14 @@
       <c r="C95" s="4">
         <v>0.13031419534816191</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1724804651838098E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32325</v>
       </c>
       <c r="B96" s="5">
@@ -54243,10 +55126,14 @@
       <c r="C96" s="4">
         <v>0.13201491809852151</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" s="4">
+        <f t="shared" si="2"/>
+        <v>1.8189081901478499E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32417</v>
       </c>
       <c r="B97" s="5">
@@ -54255,10 +55142,14 @@
       <c r="C97" s="4">
         <v>0.13184845093281081</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4854549067189202E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32509</v>
       </c>
       <c r="B98" s="5">
@@ -54267,10 +55158,14 @@
       <c r="C98" s="4">
         <v>0.1158918811357488</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" s="4">
+        <f t="shared" si="2"/>
+        <v>3.1465118864251185E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32599</v>
       </c>
       <c r="B99" s="5">
@@ -54279,10 +55174,14 @@
       <c r="C99" s="4">
         <v>8.1493295060718118E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" s="4">
+        <f t="shared" si="2"/>
+        <v>3.3592704939281876E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32690</v>
       </c>
       <c r="B100" s="5">
@@ -54291,10 +55190,14 @@
       <c r="C100" s="4">
         <v>6.6908418130668501E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" s="4">
+        <f t="shared" si="2"/>
+        <v>3.4943581869331497E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32782</v>
       </c>
       <c r="B101" s="5">
@@ -54303,10 +55206,14 @@
       <c r="C101" s="4">
         <v>4.778181476775778E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" s="4">
+        <f t="shared" si="2"/>
+        <v>3.0625185232242225E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32874</v>
       </c>
       <c r="B102" s="5">
@@ -54315,10 +55222,14 @@
       <c r="C102" s="4">
         <v>0.2131721847249857</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13264718472498571</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32964</v>
       </c>
       <c r="B103" s="5">
@@ -54327,10 +55238,14 @@
       <c r="C103" s="4">
         <v>0.1716786317590682</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.1324686317590682</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33055</v>
       </c>
       <c r="B104" s="5">
@@ -54339,10 +55254,14 @@
       <c r="C104" s="4">
         <v>0.1109890165040506</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13256901650405059</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33147</v>
       </c>
       <c r="B105" s="5">
@@ -54351,10 +55270,14 @@
       <c r="C105" s="4">
         <v>5.1387701129534058E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13266370112953407</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33239</v>
       </c>
       <c r="B106" s="5">
@@ -54363,10 +55286,14 @@
       <c r="C106" s="4">
         <v>-1.223699738737505E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13248100261262497</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33329</v>
       </c>
       <c r="B107" s="5">
@@ -54375,10 +55302,14 @@
       <c r="C107" s="4">
         <v>9.0615157927382839E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13248251579273829</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33420</v>
       </c>
       <c r="B108" s="5">
@@ -54387,10 +55318,14 @@
       <c r="C108" s="4">
         <v>4.734174636160926E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13259074636160928</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33512</v>
       </c>
       <c r="B109" s="5">
@@ -54399,10 +55334,14 @@
       <c r="C109" s="4">
         <v>6.6101828874845836E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13240582887484584</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33604</v>
       </c>
       <c r="B110" s="5">
@@ -54411,10 +55350,14 @@
       <c r="C110" s="4">
         <v>0.1137464780043471</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.1325214780043471</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33695</v>
       </c>
       <c r="B111" s="5">
@@ -54423,10 +55366,14 @@
       <c r="C111" s="4">
         <v>0.1489524780519336</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13242947805193359</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33786</v>
       </c>
       <c r="B112" s="5">
@@ -54435,10 +55382,14 @@
       <c r="C112" s="4">
         <v>0.14886955303113331</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13272555303113331</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33878</v>
       </c>
       <c r="B113" s="5">
@@ -54447,10 +55398,14 @@
       <c r="C113" s="4">
         <v>0.17899474507075119</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13250674507075119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33970</v>
       </c>
       <c r="B114" s="5">
@@ -54459,10 +55414,14 @@
       <c r="C114" s="4">
         <v>0.1811642090280339</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13265820902803391</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34060</v>
       </c>
       <c r="B115" s="5">
@@ -54471,10 +55430,14 @@
       <c r="C115" s="4">
         <v>0.1903463054596157</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13246430545961568</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34151</v>
       </c>
       <c r="B116" s="5">
@@ -54483,10 +55446,14 @@
       <c r="C116" s="4">
         <v>0.2217174797510735</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.1325194797510735</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34243</v>
       </c>
       <c r="B117" s="5">
@@ -54495,10 +55462,14 @@
       <c r="C117" s="4">
         <v>0.2681030941770155</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13260709417701549</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34335</v>
       </c>
       <c r="B118" s="5">
@@ -54507,10 +55478,14 @@
       <c r="C118" s="4">
         <v>0.28515205514439668</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13247205514439667</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34425</v>
       </c>
       <c r="B119" s="5">
@@ -54519,10 +55494,14 @@
       <c r="C119" s="4">
         <v>0.3160932638161702</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13255126381617019</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34516</v>
       </c>
       <c r="B120" s="5">
@@ -54531,10 +55510,14 @@
       <c r="C120" s="4">
         <v>0.30283950806405707</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13255350806405708</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34608</v>
       </c>
       <c r="B121" s="5">
@@ -54543,10 +55526,14 @@
       <c r="C121" s="4">
         <v>0.28715791552182418</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13254391552182418</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34700</v>
       </c>
       <c r="B122" s="5">
@@ -54555,10 +55542,14 @@
       <c r="C122" s="4">
         <v>0.26312599555516408</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13248899555516408</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34790</v>
       </c>
       <c r="B123" s="5">
@@ -54567,10 +55558,14 @@
       <c r="C123" s="4">
         <v>0.22861315925445869</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13256715925445867</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34881</v>
       </c>
       <c r="B124" s="5">
@@ -54579,10 +55574,14 @@
       <c r="C124" s="4">
         <v>0.25676698954381122</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13268598954381122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34973</v>
       </c>
       <c r="B125" s="5">
@@ -54591,10 +55590,14 @@
       <c r="C125" s="4">
         <v>0.27640168578551449</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.1325106857855145</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35065</v>
       </c>
       <c r="B126" s="5">
@@ -54603,10 +55606,14 @@
       <c r="C126" s="4">
         <v>0.30020999283771838</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13260599283771837</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35156</v>
       </c>
       <c r="B127" s="5">
@@ -54615,10 +55622,14 @@
       <c r="C127" s="4">
         <v>0.3391315327901463</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13262053279014629</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35247</v>
       </c>
       <c r="B128" s="5">
@@ -54627,10 +55638,14 @@
       <c r="C128" s="4">
         <v>0.33343666805939082</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.1324636680593908</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35339</v>
       </c>
       <c r="B129" s="5">
@@ -54639,10 +55654,14 @@
       <c r="C129" s="4">
         <v>0.32025611583204577</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13264511583204577</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35431</v>
       </c>
       <c r="B130" s="5">
@@ -54651,10 +55670,14 @@
       <c r="C130" s="4">
         <v>0.31900504098492988</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.13263004098492986</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35521</v>
       </c>
       <c r="B131" s="5">
@@ -54663,10 +55686,14 @@
       <c r="C131" s="4">
         <v>0.32928989744383852</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" s="4">
+        <f t="shared" ref="D131:D169" si="4">B131-C131</f>
+        <v>-0.13256389744383851</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <f t="shared" ref="A132:A169" si="2">DATE(YEAR(A131),MONTH(A131)+3,1)</f>
+        <f t="shared" ref="A132:A169" si="5">DATE(YEAR(A131),MONTH(A131)+3,1)</f>
         <v>35612</v>
       </c>
       <c r="B132" s="5">
@@ -54675,10 +55702,14 @@
       <c r="C132" s="4">
         <v>0.3313001474312483</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13266114743124829</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>35704</v>
       </c>
       <c r="B133" s="5">
@@ -54687,10 +55718,14 @@
       <c r="C133" s="4">
         <v>0.33846901320787381</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13247801320787381</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>35796</v>
       </c>
       <c r="B134" s="5">
@@ -54699,10 +55734,14 @@
       <c r="C134" s="4">
         <v>0.35683521984051048</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13263021984051049</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>35886</v>
       </c>
       <c r="B135" s="5">
@@ -54711,10 +55750,14 @@
       <c r="C135" s="4">
         <v>0.38159413944802889</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.1325751394480289</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>35977</v>
       </c>
       <c r="B136" s="5">
@@ -54723,10 +55766,14 @@
       <c r="C136" s="4">
         <v>0.40554113467748909</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13246913467748911</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36069</v>
       </c>
       <c r="B137" s="5">
@@ -54735,10 +55782,14 @@
       <c r="C137" s="4">
         <v>0.42631891936911881</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13250591936911882</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36161</v>
       </c>
       <c r="B138" s="5">
@@ -54747,10 +55798,14 @@
       <c r="C138" s="4">
         <v>0.43126277851385009</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13263377851385011</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36251</v>
       </c>
       <c r="B139" s="5">
@@ -54759,10 +55814,14 @@
       <c r="C139" s="4">
         <v>0.43698887951807031</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13245687951807028</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36342</v>
       </c>
       <c r="B140" s="5">
@@ -54771,10 +55830,14 @@
       <c r="C140" s="4">
         <v>0.44013562281270779</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13267162281270778</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36434</v>
       </c>
       <c r="B141" s="5">
@@ -54783,10 +55846,14 @@
       <c r="C141" s="4">
         <v>0.44925436645780348</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.1325583664578035</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36526</v>
       </c>
       <c r="B142" s="5">
@@ -54795,10 +55862,14 @@
       <c r="C142" s="4">
         <v>0.4455015420436173</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13267754204361731</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36617</v>
       </c>
       <c r="B143" s="5">
@@ -54807,10 +55878,14 @@
       <c r="C143" s="4">
         <v>0.43334410739651119</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13253410739651117</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36708</v>
       </c>
       <c r="B144" s="5">
@@ -54819,10 +55894,14 @@
       <c r="C144" s="4">
         <v>0.40952163933598129</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13262763933598132</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36800</v>
       </c>
       <c r="B145" s="5">
@@ -54831,10 +55910,14 @@
       <c r="C145" s="4">
         <v>0.40742183498139978</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13263683498139978</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36892</v>
       </c>
       <c r="B146" s="5">
@@ -54843,10 +55926,14 @@
       <c r="C146" s="4">
         <v>0.41031185978337609</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13265585978337607</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36982</v>
       </c>
       <c r="B147" s="5">
@@ -54855,10 +55942,14 @@
       <c r="C147" s="4">
         <v>0.42099557729393672</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13258157729393671</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37073</v>
       </c>
       <c r="B148" s="5">
@@ -54867,10 +55958,14 @@
       <c r="C148" s="4">
         <v>0.42223966288250647</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13253766288250646</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37165</v>
       </c>
       <c r="B149" s="5">
@@ -54879,10 +55974,14 @@
       <c r="C149" s="4">
         <v>0.40948507599674588</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13251507599674589</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37257</v>
       </c>
       <c r="B150" s="5">
@@ -54891,10 +55990,14 @@
       <c r="C150" s="4">
         <v>0.4316376072575201</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13256760725752009</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37347</v>
       </c>
       <c r="B151" s="5">
@@ -54903,10 +56006,14 @@
       <c r="C151" s="4">
         <v>0.45176645820235167</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13247645820235165</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37438</v>
       </c>
       <c r="B152" s="5">
@@ -54915,10 +56022,14 @@
       <c r="C152" s="4">
         <v>0.45360095581407739</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13246395581407738</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37530</v>
       </c>
       <c r="B153" s="5">
@@ -54927,10 +56038,14 @@
       <c r="C153" s="4">
         <v>0.4662790783036268</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13263607830362678</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37622</v>
       </c>
       <c r="B154" s="5">
@@ -54939,10 +56054,14 @@
       <c r="C154" s="4">
         <v>0.46910378239541028</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13251978239541029</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37712</v>
       </c>
       <c r="B155" s="5">
@@ -54951,10 +56070,14 @@
       <c r="C155" s="4">
         <v>0.49097619239764517</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13250919239764519</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37803</v>
       </c>
       <c r="B156" s="5">
@@ -54963,10 +56086,14 @@
       <c r="C156" s="4">
         <v>0.53773825784525098</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.132508257845251</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37895</v>
       </c>
       <c r="B157" s="5">
@@ -54975,10 +56102,14 @@
       <c r="C157" s="4">
         <v>0.55965581953593269</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.1326058195359327</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37987</v>
       </c>
       <c r="B158" s="5">
@@ -54987,10 +56118,14 @@
       <c r="C158" s="4">
         <v>0.56674202217204428</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.1325420221720443</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38078</v>
       </c>
       <c r="B159" s="5">
@@ -54999,10 +56134,14 @@
       <c r="C159" s="4">
         <v>0.60911601649981417</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13259701649981415</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38169</v>
       </c>
       <c r="B160" s="5">
@@ -55011,10 +56150,14 @@
       <c r="C160" s="4">
         <v>0.61389590382195358</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13262590382195361</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38261</v>
       </c>
       <c r="B161" s="5">
@@ -55023,10 +56166,14 @@
       <c r="C161" s="4">
         <v>0.60901788949185942</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13263088949185942</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38353</v>
       </c>
       <c r="B162" s="5">
@@ -55035,10 +56182,14 @@
       <c r="C162" s="4">
         <v>0.63250996113836333</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13258996113836335</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38443</v>
       </c>
       <c r="B163" s="5">
@@ -55047,10 +56198,14 @@
       <c r="C163" s="4">
         <v>0.67513869292950091</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13254469292950088</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38534</v>
       </c>
       <c r="B164" s="5">
@@ -55059,10 +56214,14 @@
       <c r="C164" s="4">
         <v>0.68889908019998369</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13257908019998366</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38626</v>
       </c>
       <c r="B165" s="5">
@@ -55071,10 +56230,14 @@
       <c r="C165" s="4">
         <v>0.68306579133760348</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13250779133760349</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38718</v>
       </c>
       <c r="B166" s="5">
@@ -55083,10 +56246,14 @@
       <c r="C166" s="4">
         <v>0.67992235032114667</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13261135032114668</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38808</v>
       </c>
       <c r="B167" s="5">
@@ -55095,10 +56262,14 @@
       <c r="C167" s="4">
         <v>0.64745485446287709</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D167" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13257785446287706</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38899</v>
       </c>
       <c r="B168" s="5">
@@ -55107,10 +56278,14 @@
       <c r="C168" s="4">
         <v>0.59265107003551698</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13265507003551696</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38991</v>
       </c>
       <c r="B169" s="5">
@@ -55118,6 +56293,10 @@
       </c>
       <c r="C169" s="4">
         <v>0.53432156052639712</v>
+      </c>
+      <c r="D169" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.13049856052639713</v>
       </c>
     </row>
   </sheetData>
@@ -55129,10 +56308,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7C71F3-28B6-4287-85AF-9C2342936FD7}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -55140,9 +56319,10 @@
     <col min="1" max="1" width="11.58203125" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -55153,7 +56333,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>23743</v>
       </c>
@@ -55163,8 +56343,12 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="7">
+        <f>B2-C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <f>DATE(YEAR(A2),MONTH(A2)+3,1)</f>
         <v>23833</v>
@@ -55175,10 +56359,14 @@
       <c r="C3" s="4">
         <v>3.3098390533220723E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">B3-C3</f>
+        <v>-2.1339053322072532E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A67" si="0">DATE(YEAR(A3),MONTH(A3)+3,1)</f>
+        <f t="shared" ref="A4:A67" si="1">DATE(YEAR(A3),MONTH(A3)+3,1)</f>
         <v>23924</v>
       </c>
       <c r="B4" s="7">
@@ -55187,10 +56375,14 @@
       <c r="C4" s="4">
         <v>6.6902279286059851E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-3.3027928605984525E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24016</v>
       </c>
       <c r="B5" s="7">
@@ -55199,10 +56391,14 @@
       <c r="C5" s="4">
         <v>0.1051998430413139</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-3.9184304131389958E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24108</v>
       </c>
       <c r="B6" s="7">
@@ -55211,10 +56407,14 @@
       <c r="C6" s="4">
         <v>0.1460789145557424</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-1.1689145557423897E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24198</v>
       </c>
       <c r="B7" s="7">
@@ -55223,10 +56423,14 @@
       <c r="C7" s="4">
         <v>0.15751599458425769</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-7.4994584257692676E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24289</v>
       </c>
       <c r="B8" s="7">
@@ -55235,10 +56439,14 @@
       <c r="C8" s="4">
         <v>0.16637988510813351</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>3.1911489186650654E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24381</v>
       </c>
       <c r="B9" s="7">
@@ -55247,10 +56455,14 @@
       <c r="C9" s="4">
         <v>0.16028718671376921</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>8.9181328623078038E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24473</v>
       </c>
       <c r="B10" s="7">
@@ -55259,10 +56471,14 @@
       <c r="C10" s="4">
         <v>0.13532262388372551</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.0313761162744906E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24563</v>
       </c>
       <c r="B11" s="7">
@@ -55271,10 +56487,14 @@
       <c r="C11" s="4">
         <v>0.12879729965658979</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>3.2070034341022402E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24654</v>
       </c>
       <c r="B12" s="7">
@@ -55283,10 +56503,14 @@
       <c r="C12" s="4">
         <v>0.1186750423807332</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>5.2195761926679407E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24746</v>
       </c>
       <c r="B13" s="7">
@@ -55295,10 +56519,14 @@
       <c r="C13" s="4">
         <v>0.13439580347992131</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>5.4819652007870312E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24838</v>
       </c>
       <c r="B14" s="7">
@@ -55307,10 +56535,14 @@
       <c r="C14" s="4">
         <v>0.161084080789867</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1.2159192101330041E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24929</v>
       </c>
       <c r="B15" s="7">
@@ -55319,10 +56551,14 @@
       <c r="C15" s="4">
         <v>0.14000700769760141</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1.3159923023985942E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25020</v>
       </c>
       <c r="B16" s="7">
@@ -55331,10 +56567,14 @@
       <c r="C16" s="4">
         <v>0.14903801577748599</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.3289842225140125E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25112</v>
       </c>
       <c r="B17" s="7">
@@ -55343,10 +56583,14 @@
       <c r="C17" s="4">
         <v>0.1740935251076117</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>5.2247489238829714E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25204</v>
       </c>
       <c r="B18" s="7">
@@ -55355,10 +56599,14 @@
       <c r="C18" s="4">
         <v>0.19784081120579969</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1.4441887942003018E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25294</v>
       </c>
       <c r="B19" s="7">
@@ -55367,10 +56615,14 @@
       <c r="C19" s="4">
         <v>0.20455716847370109</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1.5488315262989216E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25385</v>
       </c>
       <c r="B20" s="7">
@@ -55379,10 +56631,14 @@
       <c r="C20" s="4">
         <v>0.2274333150376053</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.2046849623947031E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25477</v>
       </c>
       <c r="B21" s="7">
@@ -55391,10 +56647,14 @@
       <c r="C21" s="4">
         <v>0.21666818371297941</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1.3878162870205879E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25569</v>
       </c>
       <c r="B22" s="7">
@@ -55403,10 +56663,14 @@
       <c r="C22" s="4">
         <v>0.20481120445827461</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1.9967955417253824E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25659</v>
       </c>
       <c r="B23" s="7">
@@ -55415,10 +56679,14 @@
       <c r="C23" s="4">
         <v>0.1945326385018307</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1.590361498169296E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25750</v>
       </c>
       <c r="B24" s="7">
@@ -55427,10 +56695,14 @@
       <c r="C24" s="4">
         <v>0.19379450964105341</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1.6634903589465844E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25842</v>
       </c>
       <c r="B25" s="7">
@@ -55439,10 +56711,14 @@
       <c r="C25" s="4">
         <v>0.15026273322771561</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1.141266772284405E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25934</v>
       </c>
       <c r="B26" s="7">
@@ -55451,10 +56727,14 @@
       <c r="C26" s="4">
         <v>0.15414858449757229</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1.0694155024277008E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26024</v>
       </c>
       <c r="B27" s="7">
@@ -55463,10 +56743,14 @@
       <c r="C27" s="4">
         <v>0.16214026681959129</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1.6917331804087166E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26115</v>
       </c>
       <c r="B28" s="7">
@@ -55475,10 +56759,14 @@
       <c r="C28" s="4">
         <v>0.1601747779031166</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>2.2522220968833884E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26207</v>
       </c>
       <c r="B29" s="7">
@@ -55487,10 +56775,14 @@
       <c r="C29" s="4">
         <v>0.1746111482632893</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>3.7198517367106887E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26299</v>
       </c>
       <c r="B30" s="7">
@@ -55499,10 +56791,14 @@
       <c r="C30" s="4">
         <v>0.19664625123474799</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>3.0647487652520067E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26390</v>
       </c>
       <c r="B31" s="7">
@@ -55511,10 +56807,14 @@
       <c r="C31" s="4">
         <v>0.20813275988523031</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>3.0342401147696874E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26481</v>
       </c>
       <c r="B32" s="7">
@@ -55523,10 +56823,14 @@
       <c r="C32" s="4">
         <v>0.21832123986924309</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>2.850760130756913E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26573</v>
       </c>
       <c r="B33" s="7">
@@ -55535,10 +56839,14 @@
       <c r="C33" s="4">
         <v>0.26485414627542969</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>2.183853724570306E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26665</v>
       </c>
       <c r="B34" s="7">
@@ -55547,10 +56855,14 @@
       <c r="C34" s="4">
         <v>0.30555152520200052</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>2.3764747979994616E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26755</v>
       </c>
       <c r="B35" s="7">
@@ -55559,10 +56871,14 @@
       <c r="C35" s="4">
         <v>0.33966330877730128</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>2.9586912226987061E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26846</v>
       </c>
       <c r="B36" s="7">
@@ -55571,10 +56887,14 @@
       <c r="C36" s="4">
         <v>0.35092267130944688</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>3.1383286905531382E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26938</v>
       </c>
       <c r="B37" s="7">
@@ -55583,10 +56903,14 @@
       <c r="C37" s="4">
         <v>0.35313427289344629</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>3.7327271065537015E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27030</v>
       </c>
       <c r="B38" s="7">
@@ -55595,10 +56919,14 @@
       <c r="C38" s="4">
         <v>0.3474559415320933</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>3.2210584679067122E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27120</v>
       </c>
       <c r="B39" s="7">
@@ -55607,10 +56935,14 @@
       <c r="C39" s="4">
         <v>0.33985557847952469</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>3.5494215204753266E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27211</v>
       </c>
       <c r="B40" s="7">
@@ -55619,10 +56951,14 @@
       <c r="C40" s="4">
         <v>0.3236105974724115</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>3.120402527588495E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27303</v>
       </c>
       <c r="B41" s="7">
@@ -55631,10 +56967,14 @@
       <c r="C41" s="4">
         <v>0.28964386324161051</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>3.9381367583894988E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27395</v>
       </c>
       <c r="B42" s="7">
@@ -55643,10 +56983,14 @@
       <c r="C42" s="4">
         <v>0.22175671899582469</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>3.4892810041753097E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27485</v>
       </c>
       <c r="B43" s="7">
@@ -55655,10 +56999,14 @@
       <c r="C43" s="4">
         <v>0.19064895345427771</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>3.5080465457222876E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27576</v>
       </c>
       <c r="B44" s="7">
@@ -55667,10 +57015,14 @@
       <c r="C44" s="4">
         <v>0.19351529207138099</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>4.2347079286190192E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27668</v>
       </c>
       <c r="B45" s="7">
@@ -55679,10 +57031,14 @@
       <c r="C45" s="4">
         <v>0.19864236748686451</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>3.3426325131354906E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27760</v>
       </c>
       <c r="B46" s="7">
@@ -55691,10 +57047,14 @@
       <c r="C46" s="4">
         <v>0.21151032579514609</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>3.9286742048539047E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27851</v>
       </c>
       <c r="B47" s="7">
@@ -55703,10 +57063,14 @@
       <c r="C47" s="4">
         <v>0.21890878204195641</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>3.9222179580435945E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27942</v>
       </c>
       <c r="B48" s="7">
@@ -55715,10 +57079,14 @@
       <c r="C48" s="4">
         <v>0.23568302210185091</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>3.8379778981491031E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28034</v>
       </c>
       <c r="B49" s="7">
@@ -55727,10 +57095,14 @@
       <c r="C49" s="4">
         <v>0.25064798160835439</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>4.0380183916456369E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28126</v>
       </c>
       <c r="B50" s="7">
@@ -55739,10 +57111,14 @@
       <c r="C50" s="4">
         <v>0.28481288223154427</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>3.6161177684557178E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28216</v>
       </c>
       <c r="B51" s="7">
@@ -55751,10 +57127,14 @@
       <c r="C51" s="4">
         <v>0.30911087697638351</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>3.0781230236164858E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28307</v>
       </c>
       <c r="B52" s="7">
@@ -55763,10 +57143,14 @@
       <c r="C52" s="4">
         <v>0.3233493621911796</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>4.9516378088204083E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28399</v>
       </c>
       <c r="B53" s="7">
@@ -55775,10 +57159,14 @@
       <c r="C53" s="4">
         <v>0.35249602695972548</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>4.7609730402745076E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28491</v>
       </c>
       <c r="B54" s="7">
@@ -55787,10 +57175,14 @@
       <c r="C54" s="4">
         <v>0.35591489134777188</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>6.577108652228103E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28581</v>
       </c>
       <c r="B55" s="7">
@@ -55799,10 +57191,14 @@
       <c r="C55" s="4">
         <v>0.4291739954025946</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>1.0128004597405427E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28672</v>
       </c>
       <c r="B56" s="7">
@@ -55811,10 +57207,14 @@
       <c r="C56" s="4">
         <v>0.45586295837733187</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>1.3692041622668127E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28764</v>
       </c>
       <c r="B57" s="7">
@@ -55823,10 +57223,14 @@
       <c r="C57" s="4">
         <v>0.48128569456082021</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>1.5618305439179803E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28856</v>
       </c>
       <c r="B58" s="7">
@@ -55835,10 +57239,14 @@
       <c r="C58" s="4">
         <v>0.50037238600034772</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>1.4029613999652302E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28946</v>
       </c>
       <c r="B59" s="7">
@@ -55847,10 +57255,14 @@
       <c r="C59" s="4">
         <v>0.49463668257220927</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>1.2407317427790776E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29037</v>
       </c>
       <c r="B60" s="7">
@@ -55859,10 +57271,14 @@
       <c r="C60" s="4">
         <v>0.52224595965363996</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>1.0853040346360032E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29129</v>
       </c>
       <c r="B61" s="7">
@@ -55871,10 +57287,14 @@
       <c r="C61" s="4">
         <v>0.51940321476468299</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>1.1142785235316977E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29221</v>
       </c>
       <c r="B62" s="7">
@@ -55883,10 +57303,14 @@
       <c r="C62" s="4">
         <v>0.52750433948628839</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>9.5416605137116361E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29312</v>
       </c>
       <c r="B63" s="7">
@@ -55895,10 +57319,14 @@
       <c r="C63" s="4">
         <v>0.4706203650918388</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>1.0449634908161198E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29403</v>
       </c>
       <c r="B64" s="7">
@@ -55907,10 +57335,14 @@
       <c r="C64" s="4">
         <v>0.47456068127202672</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>9.7903187279732573E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29495</v>
       </c>
       <c r="B65" s="7">
@@ -55919,10 +57351,14 @@
       <c r="C65" s="4">
         <v>0.49219747140195841</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>9.4385285980415623E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29587</v>
       </c>
       <c r="B66" s="7">
@@ -55931,10 +57367,14 @@
       <c r="C66" s="4">
         <v>0.50458719483490544</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>9.5518051650945734E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29677</v>
       </c>
       <c r="B67" s="7">
@@ -55943,10 +57383,14 @@
       <c r="C67" s="4">
         <v>0.51978647382335463</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67">
+        <f t="shared" ref="D67:D130" si="2">B67-C67</f>
+        <v>1.0956526176645331E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <f t="shared" ref="A68:A131" si="1">DATE(YEAR(A67),MONTH(A67)+3,1)</f>
+        <f t="shared" ref="A68:A131" si="3">DATE(YEAR(A67),MONTH(A67)+3,1)</f>
         <v>29768</v>
       </c>
       <c r="B68" s="7">
@@ -55955,10 +57399,14 @@
       <c r="C68" s="4">
         <v>0.54080209817929248</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>1.0575901820707556E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29860</v>
       </c>
       <c r="B69" s="7">
@@ -55967,10 +57415,14 @@
       <c r="C69" s="4">
         <v>0.56163426126868199</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>1.0198738731318047E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29952</v>
       </c>
       <c r="B70" s="7">
@@ -55979,10 +57431,14 @@
       <c r="C70" s="4">
         <v>0.5360670081586445</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>8.4369918413554901E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30042</v>
       </c>
       <c r="B71" s="7">
@@ -55991,10 +57447,14 @@
       <c r="C71" s="4">
         <v>0.49500396558941517</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>1.0260034410584873E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30133</v>
       </c>
       <c r="B72" s="7">
@@ -56003,10 +57463,14 @@
       <c r="C72" s="4">
         <v>0.4575416376369823</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>1.0529362363017714E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30225</v>
       </c>
       <c r="B73" s="7">
@@ -56015,10 +57479,14 @@
       <c r="C73" s="4">
         <v>0.4349090165343048</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>9.7269834656951715E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30317</v>
       </c>
       <c r="B74" s="7">
@@ -56027,10 +57495,14 @@
       <c r="C74" s="4">
         <v>0.41473326059038312</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>8.5857394096168771E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30407</v>
       </c>
       <c r="B75" s="7">
@@ -56039,10 +57511,14 @@
       <c r="C75" s="4">
         <v>0.42613332024692691</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>6.5886797530730901E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30498</v>
       </c>
       <c r="B76" s="7">
@@ -56051,10 +57527,14 @@
       <c r="C76" s="4">
         <v>0.46650295813307968</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>7.4640418669203457E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30590</v>
       </c>
       <c r="B77" s="7">
@@ -56063,10 +57543,14 @@
       <c r="C77" s="4">
         <v>0.52849070322411773</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>5.2192967758822872E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30682</v>
       </c>
       <c r="B78" s="7">
@@ -56075,10 +57559,14 @@
       <c r="C78" s="4">
         <v>0.55476789131177373</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>6.8951086882262924E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30773</v>
       </c>
       <c r="B79" s="7">
@@ -56087,10 +57575,14 @@
       <c r="C79" s="4">
         <v>0.60061984963157222</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>7.1601503684277645E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30864</v>
       </c>
       <c r="B80" s="7">
@@ -56099,10 +57591,14 @@
       <c r="C80" s="4">
         <v>0.62931441563706692</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>8.407584362933096E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30956</v>
       </c>
       <c r="B81" s="7">
@@ -56111,10 +57607,14 @@
       <c r="C81" s="4">
         <v>0.6515072621403295</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>7.1947378596705081E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31048</v>
       </c>
       <c r="B82" s="7">
@@ -56123,10 +57623,14 @@
       <c r="C82" s="4">
         <v>0.66031974579029473</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>7.5032542097053234E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31138</v>
       </c>
       <c r="B83" s="7">
@@ -56135,10 +57639,14 @@
       <c r="C83" s="4">
         <v>0.67271149617615045</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>6.9115038238495297E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31229</v>
       </c>
       <c r="B84" s="7">
@@ -56147,10 +57655,14 @@
       <c r="C84" s="4">
         <v>0.6547997244108954</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>6.7722755891046482E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31321</v>
       </c>
       <c r="B85" s="7">
@@ -56159,10 +57671,14 @@
       <c r="C85" s="4">
         <v>0.66966137880556698</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>6.0146211944330785E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31413</v>
       </c>
       <c r="B86" s="7">
@@ -56171,10 +57687,14 @@
       <c r="C86" s="4">
         <v>0.65118761160074268</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86">
+        <f t="shared" si="2"/>
+        <v>5.8003883992573391E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31503</v>
       </c>
       <c r="B87" s="7">
@@ -56183,10 +57703,14 @@
       <c r="C87" s="4">
         <v>0.62410275026657835</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87">
+        <f t="shared" si="2"/>
+        <v>4.7072497334216257E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31594</v>
       </c>
       <c r="B88" s="7">
@@ -56195,10 +57719,14 @@
       <c r="C88" s="4">
         <v>0.6062923191273164</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88">
+        <f t="shared" si="2"/>
+        <v>4.8886808726835707E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31686</v>
       </c>
       <c r="B89" s="7">
@@ -56207,10 +57735,14 @@
       <c r="C89" s="4">
         <v>0.61377794235744609</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89">
+        <f t="shared" si="2"/>
+        <v>4.595057642553857E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31778</v>
       </c>
       <c r="B90" s="7">
@@ -56219,10 +57751,14 @@
       <c r="C90" s="4">
         <v>0.5819811159909003</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90">
+        <f t="shared" si="2"/>
+        <v>5.1958840090996494E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31868</v>
       </c>
       <c r="B91" s="7">
@@ -56231,10 +57767,14 @@
       <c r="C91" s="4">
         <v>0.60193701134212407</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91">
+        <f t="shared" si="2"/>
+        <v>6.0219886578759541E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31959</v>
       </c>
       <c r="B92" s="7">
@@ -56243,10 +57783,14 @@
       <c r="C92" s="4">
         <v>0.63103780289151956</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92">
+        <f t="shared" si="2"/>
+        <v>5.947197108480462E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32051</v>
       </c>
       <c r="B93" s="7">
@@ -56255,10 +57799,14 @@
       <c r="C93" s="4">
         <v>0.62669477882919988</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93">
+        <f t="shared" si="2"/>
+        <v>5.5872211708001274E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32143</v>
       </c>
       <c r="B94" s="7">
@@ -56267,10 +57815,14 @@
       <c r="C94" s="4">
         <v>0.6350418527500743</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94">
+        <f t="shared" si="2"/>
+        <v>2.0811472499256967E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32234</v>
       </c>
       <c r="B95" s="7">
@@ -56279,10 +57831,14 @@
       <c r="C95" s="4">
         <v>0.65436128112100178</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95">
+        <f t="shared" si="2"/>
+        <v>4.8217188789981824E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32325</v>
       </c>
       <c r="B96" s="7">
@@ -56291,10 +57847,14 @@
       <c r="C96" s="4">
         <v>0.65737245975699832</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <f t="shared" si="2"/>
+        <v>4.5565402430016722E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32417</v>
       </c>
       <c r="B97" s="7">
@@ -56303,10 +57863,14 @@
       <c r="C97" s="4">
         <v>0.66677529461939411</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97">
+        <f t="shared" si="2"/>
+        <v>3.328705380605923E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32509</v>
       </c>
       <c r="B98" s="7">
@@ -56315,10 +57879,14 @@
       <c r="C98" s="4">
         <v>0.67901013208661531</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98">
+        <f t="shared" si="2"/>
+        <v>5.0948679133846486E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32599</v>
       </c>
       <c r="B99" s="7">
@@ -56327,10 +57895,14 @@
       <c r="C99" s="4">
         <v>0.6913312052540892</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99">
+        <f t="shared" si="2"/>
+        <v>4.731794745910789E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32690</v>
       </c>
       <c r="B100" s="7">
@@ -56339,10 +57911,14 @@
       <c r="C100" s="4">
         <v>0.71851384458421119</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <f t="shared" si="2"/>
+        <v>3.5951554157888088E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32782</v>
       </c>
       <c r="B101" s="7">
@@ -56351,10 +57927,14 @@
       <c r="C101" s="4">
         <v>0.70158879845641486</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101">
+        <f t="shared" si="2"/>
+        <v>3.4812015435851107E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32874</v>
       </c>
       <c r="B102" s="7">
@@ -56363,10 +57943,14 @@
       <c r="C102" s="4">
         <v>0.70659687164496443</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <f t="shared" si="2"/>
+        <v>3.6381283550355192E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32964</v>
       </c>
       <c r="B103" s="7">
@@ -56375,10 +57959,14 @@
       <c r="C103" s="4">
         <v>0.68805637561606048</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <f t="shared" si="2"/>
+        <v>2.6466243839394776E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33055</v>
       </c>
       <c r="B104" s="7">
@@ -56387,10 +57975,14 @@
       <c r="C104" s="4">
         <v>0.69508589253064645</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104">
+        <f t="shared" si="2"/>
+        <v>-3.5689253064641324E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33147</v>
       </c>
       <c r="B105" s="7">
@@ -56399,10 +57991,14 @@
       <c r="C105" s="4">
         <v>0.67155766010152806</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105">
+        <f t="shared" si="2"/>
+        <v>1.1743398984719322E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33239</v>
       </c>
       <c r="B106" s="7">
@@ -56411,10 +58007,14 @@
       <c r="C106" s="4">
         <v>0.64394556959774718</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106">
+        <f t="shared" si="2"/>
+        <v>5.3243040225281479E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33329</v>
       </c>
       <c r="B107" s="7">
@@ -56423,10 +58023,14 @@
       <c r="C107" s="4">
         <v>0.63492672418848972</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107">
+        <f t="shared" si="2"/>
+        <v>-2.0967241884897181E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33420</v>
       </c>
       <c r="B108" s="7">
@@ -56435,10 +58039,14 @@
       <c r="C108" s="4">
         <v>0.62560321463347979</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108">
+        <f t="shared" si="2"/>
+        <v>-4.7392146334798158E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33512</v>
       </c>
       <c r="B109" s="7">
@@ -56447,10 +58055,14 @@
       <c r="C109" s="4">
         <v>0.61771968349818795</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109">
+        <f t="shared" si="2"/>
+        <v>-4.9396834981879634E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33604</v>
       </c>
       <c r="B110" s="7">
@@ -56459,10 +58071,14 @@
       <c r="C110" s="4">
         <v>0.61385441695080711</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110">
+        <f t="shared" si="2"/>
+        <v>-7.7184169508071054E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33695</v>
       </c>
       <c r="B111" s="7">
@@ -56471,10 +58087,14 @@
       <c r="C111" s="4">
         <v>0.64820619685901537</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111">
+        <f t="shared" si="2"/>
+        <v>-5.3771968590153874E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33786</v>
       </c>
       <c r="B112" s="7">
@@ -56483,10 +58103,14 @@
       <c r="C112" s="4">
         <v>0.66372520478143571</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112">
+        <f t="shared" si="2"/>
+        <v>-3.4382047814357497E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33878</v>
       </c>
       <c r="B113" s="7">
@@ -56495,10 +58119,14 @@
       <c r="C113" s="4">
         <v>0.68758703039036728</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113">
+        <f t="shared" si="2"/>
+        <v>-6.4203039036725418E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33970</v>
       </c>
       <c r="B114" s="7">
@@ -56507,10 +58135,14 @@
       <c r="C114" s="4">
         <v>0.6952364902305419</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114">
+        <f t="shared" si="2"/>
+        <v>-4.7814902305418627E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34060</v>
       </c>
       <c r="B115" s="7">
@@ -56519,10 +58151,14 @@
       <c r="C115" s="4">
         <v>0.71519396772300059</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115">
+        <f t="shared" si="2"/>
+        <v>-7.8096772300062511E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34151</v>
       </c>
       <c r="B116" s="7">
@@ -56531,10 +58167,14 @@
       <c r="C116" s="4">
         <v>0.72373066762982408</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116">
+        <f t="shared" si="2"/>
+        <v>-9.2766762982410267E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34243</v>
       </c>
       <c r="B117" s="7">
@@ -56543,10 +58183,14 @@
       <c r="C117" s="4">
         <v>0.76044647008587951</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117">
+        <f t="shared" si="2"/>
+        <v>5.7152991412046106E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34335</v>
       </c>
       <c r="B118" s="7">
@@ -56555,10 +58199,14 @@
       <c r="C118" s="4">
         <v>0.76953158413016798</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118">
+        <f t="shared" si="2"/>
+        <v>-9.3558413016803232E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34425</v>
       </c>
       <c r="B119" s="7">
@@ -56567,10 +58215,14 @@
       <c r="C119" s="4">
         <v>0.78669948559767278</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119">
+        <f t="shared" si="2"/>
+        <v>-4.524855976727471E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34516</v>
       </c>
       <c r="B120" s="7">
@@ -56579,10 +58231,14 @@
       <c r="C120" s="4">
         <v>0.80170399408443149</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120">
+        <f t="shared" si="2"/>
+        <v>4.2300591556854172E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34608</v>
       </c>
       <c r="B121" s="7">
@@ -56591,10 +58247,14 @@
       <c r="C121" s="4">
         <v>0.83814780699630109</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121">
+        <f t="shared" si="2"/>
+        <v>4.5001930036988602E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34700</v>
       </c>
       <c r="B122" s="7">
@@ -56603,10 +58263,14 @@
       <c r="C122" s="4">
         <v>0.87373761468384714</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122">
+        <f t="shared" si="2"/>
+        <v>7.494385316152874E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34790</v>
       </c>
       <c r="B123" s="7">
@@ -56615,10 +58279,14 @@
       <c r="C123" s="4">
         <v>0.87782889771824291</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123">
+        <f t="shared" si="2"/>
+        <v>8.2541022817570475E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34881</v>
       </c>
       <c r="B124" s="7">
@@ -56627,10 +58295,14 @@
       <c r="C124" s="4">
         <v>0.88176593630486444</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124">
+        <f t="shared" si="2"/>
+        <v>8.5170636951356071E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34973</v>
       </c>
       <c r="B125" s="7">
@@ -56639,10 +58311,14 @@
       <c r="C125" s="4">
         <v>0.9017868524632533</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125">
+        <f t="shared" si="2"/>
+        <v>5.7251475367466886E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35065</v>
       </c>
       <c r="B126" s="7">
@@ -56651,10 +58327,14 @@
       <c r="C126" s="4">
         <v>0.93042299777365667</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126">
+        <f t="shared" si="2"/>
+        <v>-6.1199777365661401E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35156</v>
       </c>
       <c r="B127" s="7">
@@ -56663,10 +58343,14 @@
       <c r="C127" s="4">
         <v>0.95538259776574641</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127">
+        <f t="shared" si="2"/>
+        <v>2.6940223425353516E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35247</v>
       </c>
       <c r="B128" s="7">
@@ -56675,10 +58359,14 @@
       <c r="C128" s="4">
         <v>0.9844289951759011</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128">
+        <f t="shared" si="2"/>
+        <v>1.0750048240989463E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35339</v>
       </c>
       <c r="B129" s="7">
@@ -56687,10 +58375,14 @@
       <c r="C129" s="4">
         <v>1.0050817805666801</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129">
+        <f t="shared" si="2"/>
+        <v>3.9172194333199073E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35431</v>
       </c>
       <c r="B130" s="7">
@@ -56699,10 +58391,14 @@
       <c r="C130" s="4">
         <v>1.0263687072044121</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130">
+        <f t="shared" si="2"/>
+        <v>3.0862927955879194E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35521</v>
       </c>
       <c r="B131" s="7">
@@ -56711,10 +58407,14 @@
       <c r="C131" s="4">
         <v>1.0568642737539049</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131">
+        <f t="shared" ref="D131:D169" si="4">B131-C131</f>
+        <v>-5.0552737539049097E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <f t="shared" ref="A132:A169" si="2">DATE(YEAR(A131),MONTH(A131)+3,1)</f>
+        <f t="shared" ref="A132:A169" si="5">DATE(YEAR(A131),MONTH(A131)+3,1)</f>
         <v>35612</v>
       </c>
       <c r="B132" s="7">
@@ -56723,10 +58423,14 @@
       <c r="C132" s="4">
         <v>1.0979035904764241</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132">
+        <f t="shared" si="4"/>
+        <v>1.149409523576006E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>35704</v>
       </c>
       <c r="B133" s="7">
@@ -56735,10 +58439,14 @@
       <c r="C133" s="4">
         <v>1.104711506060625</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133">
+        <f t="shared" si="4"/>
+        <v>-2.1550606062503697E-4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>35796</v>
       </c>
       <c r="B134" s="7">
@@ -56747,10 +58455,14 @@
       <c r="C134" s="4">
         <v>1.1513850246148041</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134">
+        <f t="shared" si="4"/>
+        <v>-1.6061024614804076E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>35886</v>
       </c>
       <c r="B135" s="7">
@@ -56759,10 +58471,14 @@
       <c r="C135" s="4">
         <v>1.1782883950362899</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135">
+        <f t="shared" si="4"/>
+        <v>-1.506339503628995E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>35977</v>
       </c>
       <c r="B136" s="7">
@@ -56771,10 +58487,14 @@
       <c r="C136" s="4">
         <v>1.1792619342202779</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136">
+        <f t="shared" si="4"/>
+        <v>-9.3389342202778725E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36069</v>
       </c>
       <c r="B137" s="7">
@@ -56783,10 +58503,14 @@
       <c r="C137" s="4">
         <v>1.209840621167205</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137">
+        <f t="shared" si="4"/>
+        <v>-1.2419621167204964E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36161</v>
       </c>
       <c r="B138" s="7">
@@ -56795,10 +58519,14 @@
       <c r="C138" s="4">
         <v>1.22470036013938</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138">
+        <f t="shared" si="4"/>
+        <v>-1.3232360139380006E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36251</v>
       </c>
       <c r="B139" s="7">
@@ -56807,10 +58535,14 @@
       <c r="C139" s="4">
         <v>1.24095898853488</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139">
+        <f t="shared" si="4"/>
+        <v>-2.1419885348799017E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36342</v>
       </c>
       <c r="B140" s="7">
@@ -56819,10 +58551,14 @@
       <c r="C140" s="4">
         <v>1.2566034289779531</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140">
+        <f t="shared" si="4"/>
+        <v>3.0055710220469045E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36434</v>
       </c>
       <c r="B141" s="7">
@@ -56831,10 +58567,14 @@
       <c r="C141" s="4">
         <v>1.260939467223239</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141">
+        <f t="shared" si="4"/>
+        <v>-1.7954672232389779E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36526</v>
       </c>
       <c r="B142" s="7">
@@ -56843,10 +58583,14 @@
       <c r="C142" s="4">
         <v>1.2820833579330231</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142">
+        <f t="shared" si="4"/>
+        <v>-3.4143579330230267E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36617</v>
       </c>
       <c r="B143" s="7">
@@ -56855,10 +58599,14 @@
       <c r="C143" s="4">
         <v>1.30335877815863</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143">
+        <f t="shared" si="4"/>
+        <v>6.6222218413700684E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36708</v>
       </c>
       <c r="B144" s="7">
@@ -56867,10 +58615,14 @@
       <c r="C144" s="4">
         <v>1.308863943724462</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144">
+        <f t="shared" si="4"/>
+        <v>3.2910562755379402E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36800</v>
       </c>
       <c r="B145" s="7">
@@ -56879,10 +58631,14 @@
       <c r="C145" s="4">
         <v>1.297769817597944</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145">
+        <f t="shared" si="4"/>
+        <v>1.3511182402055955E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36892</v>
       </c>
       <c r="B146" s="7">
@@ -56891,10 +58647,14 @@
       <c r="C146" s="4">
         <v>1.2812312923409821</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146">
+        <f t="shared" si="4"/>
+        <v>1.6700707659017988E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36982</v>
       </c>
       <c r="B147" s="7">
@@ -56903,10 +58663,14 @@
       <c r="C147" s="4">
         <v>1.239079580120281</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147">
+        <f t="shared" si="4"/>
+        <v>1.9382419879719004E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37073</v>
       </c>
       <c r="B148" s="7">
@@ -56915,10 +58679,14 @@
       <c r="C148" s="4">
         <v>1.2204664031650561</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148">
+        <f t="shared" si="4"/>
+        <v>1.7135596834944034E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37165</v>
       </c>
       <c r="B149" s="7">
@@ -56927,10 +58695,14 @@
       <c r="C149" s="4">
         <v>1.1884278162460951</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149">
+        <f t="shared" si="4"/>
+        <v>1.0161183753904846E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37257</v>
       </c>
       <c r="B150" s="7">
@@ -56939,10 +58711,14 @@
       <c r="C150" s="4">
         <v>1.1708439879457391</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150">
+        <f t="shared" si="4"/>
+        <v>-9.0219879457391627E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37347</v>
       </c>
       <c r="B151" s="7">
@@ -56951,10 +58727,14 @@
       <c r="C151" s="4">
         <v>1.162193093332148</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151">
+        <f t="shared" si="4"/>
+        <v>-1.8496093332148078E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37438</v>
       </c>
       <c r="B152" s="7">
@@ -56963,10 +58743,14 @@
       <c r="C152" s="4">
         <v>1.1571066512333379</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152">
+        <f t="shared" si="4"/>
+        <v>-2.1398651233337951E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37530</v>
       </c>
       <c r="B153" s="7">
@@ -56975,10 +58759,14 @@
       <c r="C153" s="4">
         <v>1.1595970053838081</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153">
+        <f t="shared" si="4"/>
+        <v>-3.9790005383808058E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37622</v>
       </c>
       <c r="B154" s="7">
@@ -56987,10 +58775,14 @@
       <c r="C154" s="4">
         <v>1.141258023339208</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154">
+        <f t="shared" si="4"/>
+        <v>-3.5169023339207905E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37712</v>
       </c>
       <c r="B155" s="7">
@@ -56999,10 +58791,14 @@
       <c r="C155" s="4">
         <v>1.1559154790624779</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155">
+        <f t="shared" si="4"/>
+        <v>-2.746747906247804E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37803</v>
       </c>
       <c r="B156" s="7">
@@ -57011,10 +58807,14 @@
       <c r="C156" s="4">
         <v>1.1853906163088399</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156">
+        <f t="shared" si="4"/>
+        <v>-3.7933616308839957E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37895</v>
       </c>
       <c r="B157" s="7">
@@ -57023,10 +58823,14 @@
       <c r="C157" s="4">
         <v>1.07386591737333</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157">
+        <f t="shared" si="4"/>
+        <v>7.7159082626669928E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>37987</v>
       </c>
       <c r="B158" s="7">
@@ -57035,10 +58839,14 @@
       <c r="C158" s="4">
         <v>1.077744701174393</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158">
+        <f t="shared" si="4"/>
+        <v>7.7207298825606951E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38078</v>
       </c>
       <c r="B159" s="7">
@@ -57047,10 +58855,14 @@
       <c r="C159" s="4">
         <v>1.092370111855395</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159">
+        <f t="shared" si="4"/>
+        <v>7.7186888144604948E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38169</v>
       </c>
       <c r="B160" s="7">
@@ -57059,10 +58871,14 @@
       <c r="C160" s="4">
         <v>1.113752417660562</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160">
+        <f t="shared" si="4"/>
+        <v>7.7213582339437981E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38261</v>
       </c>
       <c r="B161" s="7">
@@ -57071,10 +58887,14 @@
       <c r="C161" s="4">
         <v>1.130535199344558</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161">
+        <f t="shared" si="4"/>
+        <v>7.7176800655441857E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38353</v>
       </c>
       <c r="B162" s="7">
@@ -57083,10 +58903,14 @@
       <c r="C162" s="4">
         <v>1.1423861384985079</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162">
+        <f t="shared" si="4"/>
+        <v>7.7153861501492171E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38443</v>
       </c>
       <c r="B163" s="7">
@@ -57095,10 +58919,14 @@
       <c r="C163" s="4">
         <v>1.152071863958996</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163">
+        <f t="shared" si="4"/>
+        <v>7.7209136041004101E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38534</v>
       </c>
       <c r="B164" s="7">
@@ -57107,10 +58935,14 @@
       <c r="C164" s="4">
         <v>1.1631468627804249</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164">
+        <f t="shared" si="4"/>
+        <v>7.7163137219575129E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38626</v>
       </c>
       <c r="B165" s="7">
@@ -57119,10 +58951,14 @@
       <c r="C165" s="4">
         <v>1.1724733222525421</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165">
+        <f t="shared" si="4"/>
+        <v>7.7170677747457894E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38718</v>
       </c>
       <c r="B166" s="7">
@@ -57131,10 +58967,14 @@
       <c r="C166" s="4">
         <v>1.201985437511681</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166">
+        <f t="shared" si="4"/>
+        <v>7.7198562488319133E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38808</v>
       </c>
       <c r="B167" s="7">
@@ -57143,10 +58983,14 @@
       <c r="C167" s="4">
         <v>1.209856733505229</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D167">
+        <f t="shared" si="4"/>
+        <v>7.715726649477106E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38899</v>
       </c>
       <c r="B168" s="7">
@@ -57155,10 +58999,14 @@
       <c r="C168" s="4">
         <v>1.2304691193087509</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168">
+        <f t="shared" si="4"/>
+        <v>7.7205880691249007E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38991</v>
       </c>
       <c r="B169" s="7">
@@ -57166,6 +59014,10 @@
       </c>
       <c r="C169" s="4">
         <v>1.2193877027818369</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="4"/>
+        <v>7.8911297218163146E-2</v>
       </c>
     </row>
   </sheetData>
@@ -59227,7 +61079,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -61945,7 +63797,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView topLeftCell="C9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>

--- a/reference/IN10/data_comparison_IN09.xlsx
+++ b/reference/IN10/data_comparison_IN09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Documents\GitHub\MMB_forecast_application\reference\IN10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD3C585-B018-43A8-A35D-FE228BD29125}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1F27F6-428C-4639-8C75-08E1DC11ABE5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="370" windowWidth="12040" windowHeight="10270" tabRatio="843" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6760" yWindow="530" windowWidth="12040" windowHeight="10270" tabRatio="843" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_req" sheetId="21" r:id="rId1"/>
@@ -37767,7 +37767,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -41120,8 +41120,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AB169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -47965,8 +47965,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
